--- a/database.xlsx
+++ b/database.xlsx
@@ -2846,7 +2846,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="527">
   <si>
     <t>SCF</t>
   </si>
@@ -401,75 +401,114 @@
     <t>SOUP POT 31CM (GREEN)</t>
   </si>
   <si>
+    <t>https://my-test-11.slatic.net/p/c43d0072d7ff9909bbd6d7ec520a0a2a.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.1013(P)</t>
   </si>
   <si>
     <t>30CM GRILL PAN-PINK</t>
   </si>
   <si>
+    <t>https://my-test-11.slatic.net/p/ae0650c0a25638969b03092cea43ec6e.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.1013(Y)</t>
   </si>
   <si>
     <t>30CM GRILL PAN-YELLOW</t>
   </si>
   <si>
+    <t>https://my-test-11.slatic.net/p/590a4acff91da24fbb70e6ebbc15807a.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.2001(U)</t>
   </si>
   <si>
     <t>Cast Iron Casserole 22cm SOUP POT</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/61819c8c31fc649ad86cffa3ca4499e0</t>
+  </si>
+  <si>
     <t>SCF-100.2003(R)</t>
   </si>
   <si>
     <t>Oval Casserole 28cm SOUP POT</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/40b4dcf5888f872b8d30944f3ee9774d</t>
+  </si>
+  <si>
     <t>SCF-100.3006</t>
   </si>
   <si>
     <t>FRYPAN 28CM (ROSSY)</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/my-11134207-7qukz-lg4m9sydmjjd5a</t>
+  </si>
+  <si>
     <t>SCF-100.3011</t>
   </si>
   <si>
     <t>FRYPAN 20CM (GLOSSY)</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/9565f6ffe16e2e6937e8e34f549d7de7</t>
+  </si>
+  <si>
     <t>SCF-100.1006(R)</t>
   </si>
   <si>
     <t>SOUP POT 28CM (RED)</t>
   </si>
   <si>
+    <t>https://my-test-11.slatic.net/p/3da38d7d6a91c35493574a98d5e4e170.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.1006(Y)</t>
   </si>
   <si>
     <t>SOUP POT 28CM (YELLOW)</t>
   </si>
   <si>
+    <t>https://img2.biggo.com/sQDudXBYuzN8jgEDpt2vLPXCisx9wHaeKie1f252HwK4/https://img.srewardscentre.com.my/images/c7e16b9e-e593-4334-9f2e-9bd3c0cd8286.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.1011(Y)</t>
   </si>
   <si>
     <t>24CM LOW CASSEROLE-YELLOW</t>
   </si>
   <si>
+    <t>https://img.srewardscentre.com.my/images/bc6ed582-04c7-441e-b683-148949caa881.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
+  </si>
+  <si>
     <t>SCF-100.1012(P)</t>
   </si>
   <si>
     <t>20CM SAUCE POT-PINK</t>
   </si>
   <si>
+    <t>https://img.lazcdn.com/g/p/807e4e0898e86f0a0752ab816370e9fe.jpg_720x720q80.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.1012(Y)</t>
   </si>
   <si>
     <t>20CM SAUCE POT-YELLOW</t>
   </si>
   <si>
+    <t>https://my-test-11.slatic.net/p/a218d0dd0439fcbd8848008babc934a5.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.2001(OR)</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/d80f42b6ecfbb52ee514955cdcc8c003</t>
+  </si>
+  <si>
     <t>SCF-100.2002(OR)</t>
   </si>
   <si>
@@ -479,36 +518,57 @@
     <t>SCF-100.2003(OR)</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/b7fe2e053b4a708c2e6f8bb2862163a4</t>
+  </si>
+  <si>
     <t>SCF-100.2004(U)</t>
   </si>
   <si>
     <t>MOMMY POT 26CM SOUP POT</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/9fe573a9a552e3eacfd3a2061e5f0ffe</t>
+  </si>
+  <si>
     <t>SCF-100.2005(OR)</t>
   </si>
   <si>
     <t>SHALLOW CASSEROLE 30CM SOUP PO</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/f19bed71d0f919ad13256ce746a538b1</t>
+  </si>
+  <si>
     <t>SCF-100.2005(R)</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/2ba0da50a0a7c9ceab6634c37f792c0b</t>
+  </si>
+  <si>
     <t>SCF-100.2005(U)</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/edaf564d716b999d167a39f8809bc3f0</t>
+  </si>
+  <si>
     <t>SCF-100.3001</t>
   </si>
   <si>
     <t>SOUP POT 24CM (ROSSY)</t>
   </si>
   <si>
+    <t>https://my-test-11.slatic.net/p/1e010e8aa705e12cbc1cfd5578d2739b.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.3002</t>
   </si>
   <si>
     <t>SAUCE PAN 14CM (ROSSY)</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/sg-11134201-22110-s3eddka5yfjvfc</t>
+  </si>
+  <si>
     <t>SCF-100.3003</t>
   </si>
   <si>
@@ -527,6 +587,9 @@
     <t>FRYPAN 20CM (ROSSY)</t>
   </si>
   <si>
+    <t>https://my-test-11.slatic.net/p/34cb08e6c05a07cf4dca86927ed87a99.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.3012</t>
   </si>
   <si>
@@ -593,18 +656,27 @@
     <t>Enbliss washing machine cleaner</t>
   </si>
   <si>
+    <t>https://img.lazcdn.com/g/p/6b3381ce8d79024511fc98a1d0731b80.jpg_720x720q80.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.EBS4653</t>
   </si>
   <si>
     <t>Enbliss Laundry Detergent 2.5L</t>
   </si>
   <si>
+    <t>https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.EBS4868</t>
   </si>
   <si>
     <t>Enbliss Laundry Detergent 1.8L (Refil Pack)</t>
   </si>
   <si>
+    <t>https://img2.biggo.com/spq6ATvS6GSaWME-OWLnWDLShtUiOsu4KphCusB0_FOo/https://img.srewardscentre.com.my/images/499996db-499d-4d06-b592-fa22e09476ab.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.FCB1030</t>
   </si>
   <si>
@@ -800,6 +872,9 @@
     <t>VACUUM STAND (BLACK)</t>
   </si>
   <si>
+    <t>https://i.ebayimg.com/images/g/-gcAAOSw4rtmcslb/s-l1200.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.VACUUMSTAND-W</t>
   </si>
   <si>
@@ -815,12 +890,18 @@
     <t>Jisulife Handheld Fan Life9 (3600Mah) (Mixed Color)</t>
   </si>
   <si>
+    <t>https://www.mobicares.com/image/cache/catalog/products/JISULIFE/FAN/JIS-FAN-LIFE9/Main_01-700x700.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.FA43-60</t>
   </si>
   <si>
     <t>Jisulife FA43 Life5 Plus (6000mAh) Handheld Fan (Mixed Color)</t>
   </si>
   <si>
+    <t>https://bestdenki.com.my/media/catalog/product/cache/2a8088cbba62dcb5f58fee75f12b2390/j/i/jisulife_fa43_brown_3.png</t>
+  </si>
+  <si>
     <t>SCF-100.JK15K25</t>
   </si>
   <si>
@@ -842,6 +923,9 @@
     <t>Minimalist 304 Vacuum Bottle 450ml Pink</t>
   </si>
   <si>
+    <t>https://i.ibb.co/rRL1pmXF/jvc-45v9.png</t>
+  </si>
+  <si>
     <t>SCF-100.JVC45V91(W)</t>
   </si>
   <si>
@@ -854,7 +938,7 @@
     <t>Vacuum Coffee Cup 490ml Tank</t>
   </si>
   <si>
-    <t>https://gw.alicdn.com/imgextra/O1CN011CqhCp27arjrZA47U_!!6000000007814-2-yinhe.png_468x468Q75.jpg_.webp</t>
+    <t>https://i.ibb.co/35WTN7ZC/Untitled.png</t>
   </si>
   <si>
     <t>SCF-100.JVC49V39(U)</t>
@@ -884,6 +968,9 @@
     <t>SANDWICH MAKER</t>
   </si>
   <si>
+    <t>https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.LFTB01-P(W)</t>
   </si>
   <si>
@@ -893,12 +980,18 @@
     <t>ELEC.TOOTHBRUSH</t>
   </si>
   <si>
+    <t>https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.MINI(G)</t>
   </si>
   <si>
     <t>MINI GREEN</t>
   </si>
   <si>
+    <t>https://www.tmt.my/data/editor/sc-product/17734/LAIFEN-MINI-HAIR-DRYER-1.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.MINI(P)</t>
   </si>
   <si>
@@ -914,6 +1007,9 @@
     <t>CLEANING KIT (200ML)</t>
   </si>
   <si>
+    <t>https://filebroker-cdn.lazada.com.my/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.MRD180B1BDN</t>
   </si>
   <si>
@@ -923,18 +1019,27 @@
     <t>1.8L Digital Rice Cooker</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6</t>
+  </si>
+  <si>
     <t>SCF-100.C21RT103B</t>
   </si>
   <si>
     <t>INDUCTION COOKER</t>
   </si>
   <si>
+    <t>https://bestdenki.com.my/media/catalog/product/cache/2a8088cbba62dcb5f58fee75f12b2390/c/2/c21rt103b_1.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.MFG150M0APB</t>
   </si>
   <si>
     <t>TABLE CIRCULATION FAN</t>
   </si>
   <si>
+    <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/id/MFG150M0APB-7.png/jcr:content/renditions/MFG150M0APB-7.webp</t>
+  </si>
+  <si>
     <t>SCF-100.ACE2/LGREEN32OZ</t>
   </si>
   <si>
@@ -977,16 +1082,25 @@
     <t>Mr.Muscle Floor Cleaner 1L</t>
   </si>
   <si>
+    <t>https://assets.myboxed.com.my/1680212165434.jpg</t>
+  </si>
+  <si>
     <t>SCF-100.MRMUSLE_PINE</t>
   </si>
   <si>
-    <t>MR MUSLE PINE</t>
+    <t>MR MUSCLE PINE</t>
+  </si>
+  <si>
+    <t>https://klec.jayagrocer.com/cdn/shop/files/012073-1-1.jpg?v=1726143318</t>
   </si>
   <si>
     <t>SCF-100.MRMUSLE_MAR</t>
   </si>
   <si>
-    <t>MR MUSLE MARINE</t>
+    <t>MR MUSCLE MARINE</t>
+  </si>
+  <si>
+    <t>https://www.mycs.com.my/media/catalog/product/cache/309b0699a74d76e0528e3f5ac801b2c4/m/r/mr_muscle_deep_action_gel_toilet_cleaner_marine_2x500ml_side.png</t>
   </si>
   <si>
     <t>SCF-100.MRMUSLE_CITRUS</t>
@@ -995,6 +1109,9 @@
     <t>MR MUSCLE TOILET CLEANER CIT</t>
   </si>
   <si>
+    <t>https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg</t>
+  </si>
+  <si>
     <t>SCF-SCRC-BASKIN.R</t>
   </si>
   <si>
@@ -1005,6 +1122,9 @@
   </si>
   <si>
     <t>untill 25.05.2025</t>
+  </si>
+  <si>
+    <t>https://rewards.affinbank.com.my/affinrewards/catalog/image/10513</t>
   </si>
   <si>
     <t>SCF-100.CB1085OXBU</t>
@@ -2845,8 +2965,8 @@
   <sheetPr/>
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="I164" workbookViewId="0">
+      <selection activeCell="I187" sqref="I187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -3994,17 +4114,19 @@
       <c r="H38" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I38" s="30"/>
+      <c r="I38" s="30" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="39" ht="15.6" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="6">
         <v>599</v>
@@ -4022,17 +4144,19 @@
       <c r="H39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="30"/>
+      <c r="I39" s="30" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="40" ht="15.6" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="6">
         <v>599</v>
@@ -4050,17 +4174,19 @@
       <c r="H40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="30"/>
+      <c r="I40" s="30" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="41" ht="15.6" spans="1:9">
       <c r="A41" s="22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D41" s="6">
         <v>439</v>
@@ -4078,17 +4204,19 @@
       <c r="H41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="30"/>
+      <c r="I41" s="30" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="42" ht="15.6" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D42" s="6">
         <v>519</v>
@@ -4106,17 +4234,19 @@
       <c r="H42" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="30"/>
+      <c r="I42" s="30" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="43" ht="15.6" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D43" s="6">
         <v>579</v>
@@ -4134,17 +4264,19 @@
       <c r="H43" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="30"/>
+      <c r="I43" s="30" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="44" ht="15.6" spans="1:9">
       <c r="A44" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D44" s="6">
         <v>349</v>
@@ -4162,17 +4294,19 @@
       <c r="H44" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="30"/>
+      <c r="I44" s="30" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="45" ht="15.6" spans="1:9">
       <c r="A45" s="18" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D45" s="6">
         <v>499</v>
@@ -4190,17 +4324,19 @@
       <c r="H45" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="30"/>
+      <c r="I45" s="30" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="46" ht="15.6" spans="1:9">
       <c r="A46" s="10" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D46" s="13">
         <v>499</v>
@@ -4218,17 +4354,19 @@
       <c r="H46" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="30"/>
+      <c r="I46" s="30" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="47" ht="15.6" spans="1:9">
       <c r="A47" s="10" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D47" s="13">
         <v>399</v>
@@ -4246,17 +4384,19 @@
       <c r="H47" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="30"/>
+      <c r="I47" s="30" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="48" ht="15.6" spans="1:9">
       <c r="A48" s="18" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D48" s="6">
         <v>459</v>
@@ -4274,17 +4414,19 @@
       <c r="H48" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="30"/>
+      <c r="I48" s="30" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="49" ht="15.6" spans="1:9">
       <c r="A49" s="18" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D49" s="6">
         <v>459</v>
@@ -4302,17 +4444,19 @@
       <c r="H49" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="30"/>
+      <c r="I49" s="30" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="50" ht="15.6" spans="1:9">
       <c r="A50" s="10" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D50" s="13">
         <v>439</v>
@@ -4330,17 +4474,19 @@
       <c r="H50" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="30"/>
+      <c r="I50" s="30" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="51" ht="15.6" spans="1:9">
       <c r="A51" s="10" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D51" s="13">
         <v>479</v>
@@ -4358,17 +4504,19 @@
       <c r="H51" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="30"/>
+      <c r="I51" s="30" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="52" ht="15.6" spans="1:9">
       <c r="A52" s="18" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D52" s="6">
         <v>519</v>
@@ -4386,17 +4534,19 @@
       <c r="H52" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="30"/>
+      <c r="I52" s="30" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="53" ht="15.6" spans="1:9">
       <c r="A53" s="10" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D53" s="13">
         <v>599</v>
@@ -4414,17 +4564,19 @@
       <c r="H53" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I53" s="30"/>
+      <c r="I53" s="30" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="54" ht="15.6" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D54" s="6">
         <v>639</v>
@@ -4442,17 +4594,19 @@
       <c r="H54" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="30"/>
+      <c r="I54" s="30" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="55" ht="15.6" spans="1:9">
       <c r="A55" s="18" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D55" s="6">
         <v>639</v>
@@ -4470,17 +4624,19 @@
       <c r="H55" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I55" s="30"/>
+      <c r="I55" s="30" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="56" ht="15.6" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D56" s="6">
         <v>639</v>
@@ -4498,17 +4654,19 @@
       <c r="H56" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I56" s="30"/>
+      <c r="I56" s="30" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="57" ht="15.6" spans="1:9">
       <c r="A57" s="24" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D57" s="13">
         <v>669</v>
@@ -4526,17 +4684,19 @@
       <c r="H57" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="30"/>
+      <c r="I57" s="30" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="58" ht="15.6" spans="1:9">
       <c r="A58" s="18" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="D58" s="6">
         <v>369</v>
@@ -4554,17 +4714,19 @@
       <c r="H58" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="30"/>
+      <c r="I58" s="30" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="59" ht="15.6" spans="1:9">
       <c r="A59" s="18" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D59" s="6">
         <v>439</v>
@@ -4582,17 +4744,19 @@
       <c r="H59" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="30"/>
+      <c r="I59" s="30" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="60" ht="15.6" spans="1:9">
       <c r="A60" s="18" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D60" s="6">
         <v>489</v>
@@ -4610,17 +4774,19 @@
       <c r="H60" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="30"/>
+      <c r="I60" s="30" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="61" ht="15.6" spans="1:9">
       <c r="A61" s="18" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D61" s="6">
         <v>409</v>
@@ -4638,17 +4804,19 @@
       <c r="H61" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="30"/>
+      <c r="I61" s="30" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="62" ht="15.6" spans="1:9">
       <c r="A62" s="25" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="D62" s="27">
         <v>499</v>
@@ -4666,17 +4834,19 @@
       <c r="H62" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="30"/>
+      <c r="I62" s="30" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="63" ht="15.6" spans="1:9">
       <c r="A63" s="10" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D63" s="13">
         <v>699</v>
@@ -4695,18 +4865,18 @@
         <v>17</v>
       </c>
       <c r="I63" s="30" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" ht="15.6" spans="1:9">
       <c r="A64" s="10" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="D64" s="13">
         <v>949</v>
@@ -4725,18 +4895,18 @@
         <v>17</v>
       </c>
       <c r="I64" s="30" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" ht="15.6" spans="1:9">
       <c r="A65" s="18" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="D65" s="6">
         <v>18.5</v>
@@ -4755,18 +4925,18 @@
         <v>17</v>
       </c>
       <c r="I65" s="30" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" ht="15.6" spans="1:9">
       <c r="A66" s="3" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="D66" s="6">
         <v>319</v>
@@ -4785,18 +4955,18 @@
         <v>12</v>
       </c>
       <c r="I66" s="30" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" ht="15.6" spans="1:9">
       <c r="A67" s="18" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D67" s="6">
         <v>39</v>
@@ -4818,13 +4988,13 @@
     </row>
     <row r="68" ht="15.6" spans="1:9">
       <c r="A68" s="18" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D68" s="6">
         <v>49</v>
@@ -4846,13 +5016,13 @@
     </row>
     <row r="69" ht="15.6" spans="1:9">
       <c r="A69" s="18" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="D69" s="6">
         <v>29</v>
@@ -4870,17 +5040,19 @@
       <c r="H69" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="30"/>
+      <c r="I69" s="30" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="70" ht="15.6" spans="1:9">
       <c r="A70" s="10" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D70" s="13">
         <v>24.9</v>
@@ -4898,17 +5070,19 @@
       <c r="H70" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="30"/>
+      <c r="I70" s="30" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="71" ht="15.6" spans="1:9">
       <c r="A71" s="10" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="D71" s="13">
         <v>20.9</v>
@@ -4926,17 +5100,19 @@
       <c r="H71" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I71" s="30"/>
+      <c r="I71" s="30" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="72" ht="15.6" spans="1:9">
       <c r="A72" s="3" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="D72" s="6">
         <v>210</v>
@@ -4955,18 +5131,18 @@
         <v>12</v>
       </c>
       <c r="I72" s="30" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" ht="15.6" spans="1:9">
       <c r="A73" s="3" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="D73" s="6">
         <v>228</v>
@@ -4985,18 +5161,18 @@
         <v>12</v>
       </c>
       <c r="I73" s="30" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" ht="15.6" spans="1:9">
       <c r="A74" s="18" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="D74" s="6">
         <v>162</v>
@@ -5015,18 +5191,18 @@
         <v>17</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" ht="15.6" spans="1:9">
       <c r="A75" s="18" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="D75" s="6">
         <v>11.9</v>
@@ -5045,18 +5221,18 @@
         <v>17</v>
       </c>
       <c r="I75" s="30" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" ht="15.6" spans="1:9">
       <c r="A76" s="21" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="D76" s="6">
         <v>129</v>
@@ -5075,18 +5251,18 @@
         <v>17</v>
       </c>
       <c r="I76" s="30" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" ht="15.6" spans="1:9">
       <c r="A77" s="18" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="D77" s="6">
         <v>99</v>
@@ -5105,18 +5281,18 @@
         <v>17</v>
       </c>
       <c r="I77" s="30" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" ht="15.6" spans="1:9">
       <c r="A78" s="18" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="D78" s="13">
         <v>89</v>
@@ -5138,13 +5314,13 @@
     </row>
     <row r="79" ht="15.6" spans="1:9">
       <c r="A79" s="18" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D79" s="13">
         <v>89</v>
@@ -5166,13 +5342,13 @@
     </row>
     <row r="80" ht="15.6" spans="1:9">
       <c r="A80" s="18" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="D80" s="13">
         <v>89</v>
@@ -5194,13 +5370,13 @@
     </row>
     <row r="81" ht="15.6" spans="1:9">
       <c r="A81" s="18" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="D81" s="13">
         <v>89</v>
@@ -5222,13 +5398,13 @@
     </row>
     <row r="82" ht="15.6" spans="1:9">
       <c r="A82" s="18" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="D82" s="6">
         <v>18.5</v>
@@ -5247,18 +5423,18 @@
         <v>17</v>
       </c>
       <c r="I82" s="30" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" ht="15.6" spans="1:9">
       <c r="A83" s="18" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="D83" s="6">
         <v>18</v>
@@ -5277,18 +5453,18 @@
         <v>17</v>
       </c>
       <c r="I83" s="30" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" ht="15.6" spans="1:9">
       <c r="A84" s="18" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D84" s="6">
         <v>5.7</v>
@@ -5307,18 +5483,18 @@
         <v>17</v>
       </c>
       <c r="I84" s="30" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" ht="15.6" spans="1:9">
       <c r="A85" s="18" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D85" s="6">
         <v>4.5</v>
@@ -5337,18 +5513,18 @@
         <v>17</v>
       </c>
       <c r="I85" s="30" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" ht="15.6" spans="1:9">
       <c r="A86" s="18" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="D86" s="6">
         <v>3.5</v>
@@ -5367,18 +5543,18 @@
         <v>17</v>
       </c>
       <c r="I86" s="30" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" ht="15.6" spans="1:9">
       <c r="A87" s="3" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D87" s="6">
         <v>989</v>
@@ -5397,18 +5573,18 @@
         <v>12</v>
       </c>
       <c r="I87" s="30" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" ht="15.6" spans="1:9">
       <c r="A88" s="18" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="D88" s="6">
         <v>799</v>
@@ -5427,18 +5603,18 @@
         <v>17</v>
       </c>
       <c r="I88" s="30" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" ht="15.6" spans="1:9">
       <c r="A89" s="18" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="D89" s="6">
         <v>1199</v>
@@ -5457,18 +5633,18 @@
         <v>17</v>
       </c>
       <c r="I89" s="30" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" ht="15.6" spans="1:9">
       <c r="A90" s="18" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="D90" s="6">
         <v>2099</v>
@@ -5487,18 +5663,18 @@
         <v>17</v>
       </c>
       <c r="I90" s="30" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" ht="15.6" spans="1:9">
       <c r="A91" s="18" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="D91" s="6">
         <v>2699</v>
@@ -5517,18 +5693,18 @@
         <v>17</v>
       </c>
       <c r="I91" s="30" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="92" ht="15.6" spans="1:9">
       <c r="A92" s="18" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="D92" s="6">
         <v>119</v>
@@ -5546,17 +5722,19 @@
       <c r="H92" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I92" s="30"/>
+      <c r="I92" s="30" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="93" ht="15.6" spans="1:9">
       <c r="A93" s="18" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="D93" s="6">
         <v>119</v>
@@ -5574,17 +5752,19 @@
       <c r="H93" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I93" s="30"/>
+      <c r="I93" s="30" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="94" ht="15.6" spans="1:9">
       <c r="A94" s="10" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="D94" s="13">
         <v>109</v>
@@ -5602,17 +5782,19 @@
       <c r="H94" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I94" s="30"/>
+      <c r="I94" s="30" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="95" ht="15.6" spans="1:9">
       <c r="A95" s="31" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="D95" s="6">
         <v>99</v>
@@ -5630,17 +5812,19 @@
       <c r="H95" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I95" s="30"/>
+      <c r="I95" s="30" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="96" ht="15.6" spans="1:9">
       <c r="A96" s="3" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="D96" s="6">
         <v>199</v>
@@ -5662,13 +5846,13 @@
     </row>
     <row r="97" ht="15.6" spans="1:9">
       <c r="A97" s="3" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="D97" s="6">
         <v>259</v>
@@ -5690,13 +5874,13 @@
     </row>
     <row r="98" ht="15.6" spans="1:9">
       <c r="A98" s="3" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="D98" s="6">
         <v>139</v>
@@ -5714,17 +5898,19 @@
       <c r="H98" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I98" s="30"/>
+      <c r="I98" s="30" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="99" ht="15.6" spans="1:9">
       <c r="A99" s="3" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="D99" s="6">
         <v>139</v>
@@ -5742,17 +5928,19 @@
       <c r="H99" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I99" s="30"/>
+      <c r="I99" s="30" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="100" ht="15.6" spans="1:9">
       <c r="A100" s="3" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="D100" s="6">
         <v>169</v>
@@ -5771,18 +5959,18 @@
         <v>12</v>
       </c>
       <c r="I100" s="30" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" ht="15.6" spans="1:9">
       <c r="A101" s="3" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D101" s="6">
         <v>169</v>
@@ -5800,17 +5988,19 @@
       <c r="H101" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I101" s="30"/>
+      <c r="I101" s="30" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="102" ht="15.6" spans="1:9">
       <c r="A102" s="3" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D102" s="6">
         <v>169</v>
@@ -5832,13 +6022,13 @@
     </row>
     <row r="103" ht="15.6" spans="1:9">
       <c r="A103" s="3" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="D103" s="6">
         <v>169</v>
@@ -5860,13 +6050,13 @@
     </row>
     <row r="104" ht="15.6" spans="1:9">
       <c r="A104" s="3" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="D104" s="6">
         <v>179</v>
@@ -5884,17 +6074,19 @@
       <c r="H104" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I104" s="30"/>
+      <c r="I104" s="30" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="105" ht="15.6" spans="1:9">
       <c r="A105" s="10" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="D105" s="13">
         <v>559</v>
@@ -5912,17 +6104,19 @@
       <c r="H105" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I105" s="30"/>
+      <c r="I105" s="30" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="106" ht="15.6" spans="1:9">
       <c r="A106" s="10" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="D106" s="13">
         <v>699</v>
@@ -5940,17 +6134,19 @@
       <c r="H106" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I106" s="30"/>
+      <c r="I106" s="30" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="107" ht="15.6" spans="1:9">
       <c r="A107" s="18" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="D107" s="6">
         <v>699</v>
@@ -5968,17 +6164,19 @@
       <c r="H107" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I107" s="30"/>
+      <c r="I107" s="30" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="108" ht="15.6" spans="1:9">
       <c r="A108" s="10" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="D108" s="13">
         <v>119</v>
@@ -5996,17 +6194,19 @@
       <c r="H108" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I108" s="30"/>
+      <c r="I108" s="30" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="109" ht="15.6" spans="1:9">
       <c r="A109" s="3" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="D109" s="6">
         <v>239</v>
@@ -6024,17 +6224,19 @@
       <c r="H109" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I109" s="30"/>
+      <c r="I109" s="30" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="110" ht="15.6" spans="1:9">
       <c r="A110" s="18" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="D110" s="6">
         <v>209</v>
@@ -6052,17 +6254,19 @@
       <c r="H110" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I110" s="30"/>
+      <c r="I110" s="30" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="111" ht="15.6" spans="1:9">
       <c r="A111" s="18" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="D111" s="6">
         <v>135</v>
@@ -6080,17 +6284,19 @@
       <c r="H111" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I111" s="30"/>
+      <c r="I111" s="30" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="112" ht="15.6" spans="1:9">
       <c r="A112" s="3" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="D112" s="6">
         <v>106</v>
@@ -6112,13 +6318,13 @@
     </row>
     <row r="113" ht="15.6" spans="1:9">
       <c r="A113" s="18" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="D113" s="6">
         <v>86</v>
@@ -6140,13 +6346,13 @@
     </row>
     <row r="114" ht="15.6" spans="1:9">
       <c r="A114" s="18" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="D114" s="6">
         <v>86</v>
@@ -6168,13 +6374,13 @@
     </row>
     <row r="115" ht="15.6" spans="1:9">
       <c r="A115" s="18" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="D115" s="6">
         <v>86</v>
@@ -6196,13 +6402,13 @@
     </row>
     <row r="116" ht="15.6" spans="1:9">
       <c r="A116" s="10" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="D116" s="13">
         <v>106</v>
@@ -6224,13 +6430,13 @@
     </row>
     <row r="117" ht="15.6" spans="1:9">
       <c r="A117" s="18" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="D117" s="6">
         <v>8.6</v>
@@ -6248,17 +6454,19 @@
       <c r="H117" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I117" s="30"/>
+      <c r="I117" s="30" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="118" ht="15.6" spans="1:9">
       <c r="A118" s="18" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="D118" s="6">
         <v>8</v>
@@ -6276,17 +6484,19 @@
       <c r="H118" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I118" s="30"/>
+      <c r="I118" s="30" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="119" ht="15.6" spans="1:9">
       <c r="A119" s="18" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="D119" s="6">
         <v>8</v>
@@ -6304,17 +6514,19 @@
       <c r="H119" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I119" s="30"/>
+      <c r="I119" s="30" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="120" ht="15.6" spans="1:9">
       <c r="A120" s="18" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="D120" s="6">
         <v>8</v>
@@ -6332,17 +6544,19 @@
       <c r="H120" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I120" s="30"/>
+      <c r="I120" s="30" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="121" ht="15.6" spans="1:9">
       <c r="A121" s="18" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="D121" s="6">
         <v>12.5</v>
@@ -6358,19 +6572,21 @@
         <v>1250</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="I121" s="30"/>
+        <v>364</v>
+      </c>
+      <c r="I121" s="30" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="122" ht="15.6" spans="1:9">
       <c r="A122" s="18" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="D122" s="13">
         <v>69</v>
@@ -6392,13 +6608,13 @@
     </row>
     <row r="123" ht="15.6" spans="1:9">
       <c r="A123" s="18" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="D123" s="13">
         <v>69</v>
@@ -6420,13 +6636,13 @@
     </row>
     <row r="124" ht="15.6" spans="1:9">
       <c r="A124" s="18" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="D124" s="13">
         <v>69</v>
@@ -6448,13 +6664,13 @@
     </row>
     <row r="125" ht="15.6" spans="1:9">
       <c r="A125" s="18" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="D125" s="6">
         <v>89</v>
@@ -6476,13 +6692,13 @@
     </row>
     <row r="126" ht="15.6" spans="1:9">
       <c r="A126" s="18" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="D126" s="6">
         <v>89</v>
@@ -6504,13 +6720,13 @@
     </row>
     <row r="127" ht="15.6" spans="1:9">
       <c r="A127" s="18" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="D127" s="6">
         <v>89</v>
@@ -6532,13 +6748,13 @@
     </row>
     <row r="128" ht="15.6" spans="1:9">
       <c r="A128" s="18" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="D128" s="6">
         <v>39.9</v>
@@ -6560,13 +6776,13 @@
     </row>
     <row r="129" ht="15.6" spans="1:9">
       <c r="A129" s="18" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="D129" s="6">
         <v>469</v>
@@ -6585,18 +6801,18 @@
         <v>17</v>
       </c>
       <c r="I129" s="30" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
     </row>
     <row r="130" ht="15.6" spans="1:9">
       <c r="A130" s="18" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="D130" s="13">
         <v>79</v>
@@ -6618,13 +6834,13 @@
     </row>
     <row r="131" ht="15.6" spans="1:9">
       <c r="A131" s="18" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="D131" s="13">
         <v>159</v>
@@ -6646,13 +6862,13 @@
     </row>
     <row r="132" ht="15.6" spans="1:9">
       <c r="A132" s="18" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="D132" s="13">
         <v>159</v>
@@ -6674,13 +6890,13 @@
     </row>
     <row r="133" ht="15.6" spans="1:9">
       <c r="A133" s="18" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="D133" s="13">
         <v>159</v>
@@ -6702,13 +6918,13 @@
     </row>
     <row r="134" ht="15.6" spans="1:9">
       <c r="A134" s="18" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="D134" s="13">
         <v>159</v>
@@ -6730,13 +6946,13 @@
     </row>
     <row r="135" ht="15.6" spans="1:9">
       <c r="A135" s="18" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="D135" s="13">
         <v>79</v>
@@ -6758,13 +6974,13 @@
     </row>
     <row r="136" ht="15.6" spans="1:9">
       <c r="A136" s="18" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="D136" s="13">
         <v>79</v>
@@ -6786,13 +7002,13 @@
     </row>
     <row r="137" ht="15.6" spans="1:9">
       <c r="A137" s="10" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="D137" s="13">
         <v>289</v>
@@ -6811,18 +7027,18 @@
         <v>17</v>
       </c>
       <c r="I137" s="30" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" ht="15.6" spans="1:9">
       <c r="A138" s="18" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="D138" s="6">
         <v>199</v>
@@ -6841,18 +7057,18 @@
         <v>17</v>
       </c>
       <c r="I138" s="30" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
     </row>
     <row r="139" ht="15.6" spans="1:9">
       <c r="A139" s="18" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="D139" s="6">
         <v>8.1</v>
@@ -6871,18 +7087,18 @@
         <v>17</v>
       </c>
       <c r="I139" s="30" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
     </row>
     <row r="140" ht="15.6" spans="1:9">
       <c r="A140" s="18" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="D140" s="6">
         <v>3.3</v>
@@ -6901,18 +7117,18 @@
         <v>17</v>
       </c>
       <c r="I140" s="30" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
     </row>
     <row r="141" ht="15.6" spans="1:9">
       <c r="A141" s="18" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="D141" s="6">
         <v>11.5</v>
@@ -6931,18 +7147,18 @@
         <v>17</v>
       </c>
       <c r="I141" s="30" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
     </row>
     <row r="142" ht="15.6" spans="1:9">
       <c r="A142" s="3" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="D142" s="6">
         <v>449</v>
@@ -6961,18 +7177,18 @@
         <v>17</v>
       </c>
       <c r="I142" s="30" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
     </row>
     <row r="143" ht="15.6" spans="1:9">
       <c r="A143" s="18" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="D143" s="6">
         <v>2.6</v>
@@ -6991,18 +7207,18 @@
         <v>17</v>
       </c>
       <c r="I143" s="30" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
     </row>
     <row r="144" ht="15.6" spans="1:9">
       <c r="A144" s="10" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="D144" s="13">
         <v>259</v>
@@ -7021,18 +7237,18 @@
         <v>17</v>
       </c>
       <c r="I144" s="30" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
     </row>
     <row r="145" ht="15.6" spans="1:9">
       <c r="A145" s="18" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="D145" s="6">
         <v>269</v>
@@ -7051,18 +7267,18 @@
         <v>17</v>
       </c>
       <c r="I145" s="30" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
     </row>
     <row r="146" ht="15.6" spans="1:9">
       <c r="A146" s="18" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="D146" s="6">
         <v>129</v>
@@ -7081,18 +7297,18 @@
         <v>17</v>
       </c>
       <c r="I146" s="30" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
     </row>
     <row r="147" ht="15.6" spans="1:9">
       <c r="A147" s="18" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="D147" s="6">
         <v>1999</v>
@@ -7111,18 +7327,18 @@
         <v>17</v>
       </c>
       <c r="I147" s="30" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
     </row>
     <row r="148" ht="15.6" spans="1:9">
       <c r="A148" s="18" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="D148" s="6">
         <v>9.1</v>
@@ -7141,18 +7357,18 @@
         <v>17</v>
       </c>
       <c r="I148" s="30" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
     </row>
     <row r="149" ht="15.6" spans="1:9">
       <c r="A149" s="18" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="D149" s="6">
         <v>16.5</v>
@@ -7171,18 +7387,18 @@
         <v>17</v>
       </c>
       <c r="I149" s="30" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
     </row>
     <row r="150" ht="15.6" spans="1:9">
       <c r="A150" s="16" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="D150" s="6">
         <v>18.9</v>
@@ -7204,13 +7420,13 @@
     </row>
     <row r="151" ht="15.6" spans="1:9">
       <c r="A151" s="16" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="D151" s="6">
         <v>30</v>
@@ -7229,18 +7445,18 @@
         <v>12</v>
       </c>
       <c r="I151" s="30" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
     </row>
     <row r="152" ht="15.6" spans="1:9">
       <c r="A152" s="16" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="D152" s="6">
         <v>36</v>
@@ -7262,13 +7478,13 @@
     </row>
     <row r="153" ht="15.6" spans="1:9">
       <c r="A153" s="16" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="D153" s="6">
         <v>35</v>
@@ -7287,18 +7503,18 @@
         <v>12</v>
       </c>
       <c r="I153" s="30" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
     </row>
     <row r="154" ht="15.6" spans="1:9">
       <c r="A154" s="16" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="D154" s="6">
         <v>35</v>
@@ -7317,18 +7533,18 @@
         <v>12</v>
       </c>
       <c r="I154" s="30" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
     </row>
     <row r="155" ht="15.6" spans="1:9">
       <c r="A155" s="16" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="D155" s="6">
         <v>40</v>
@@ -7347,18 +7563,18 @@
         <v>12</v>
       </c>
       <c r="I155" s="30" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
     </row>
     <row r="156" ht="15.6" spans="1:9">
       <c r="A156" s="16" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="D156" s="6">
         <v>50</v>
@@ -7377,18 +7593,18 @@
         <v>12</v>
       </c>
       <c r="I156" s="30" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
     </row>
     <row r="157" ht="15.6" spans="1:9">
       <c r="A157" s="16" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="D157" s="6">
         <v>15</v>
@@ -7407,18 +7623,18 @@
         <v>17</v>
       </c>
       <c r="I157" s="30" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
     </row>
     <row r="158" ht="15.6" spans="1:9">
       <c r="A158" s="18" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="D158" s="6">
         <v>7.9</v>
@@ -7437,18 +7653,18 @@
         <v>17</v>
       </c>
       <c r="I158" s="30" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
     </row>
     <row r="159" ht="15.6" spans="1:9">
       <c r="A159" s="18" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="D159" s="6">
         <v>299</v>
@@ -7467,18 +7683,18 @@
         <v>17</v>
       </c>
       <c r="I159" s="30" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
     </row>
     <row r="160" ht="15.6" spans="1:9">
       <c r="A160" s="18" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="D160" s="6">
         <v>229</v>
@@ -7497,18 +7713,18 @@
         <v>17</v>
       </c>
       <c r="I160" s="30" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
     </row>
     <row r="161" ht="15.6" spans="1:9">
       <c r="A161" s="3" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="D161" s="6">
         <v>309</v>
@@ -7527,18 +7743,18 @@
         <v>12</v>
       </c>
       <c r="I161" s="30" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" ht="15.6" spans="1:9">
       <c r="A162" s="3" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="D162" s="6">
         <v>339</v>
@@ -7557,18 +7773,18 @@
         <v>12</v>
       </c>
       <c r="I162" s="30" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" ht="15.6" spans="1:9">
       <c r="A163" s="18" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="D163" s="6">
         <v>159</v>
@@ -7587,18 +7803,18 @@
         <v>17</v>
       </c>
       <c r="I163" s="30" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
     </row>
     <row r="164" ht="15.6" spans="1:9">
       <c r="A164" s="18" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="D164" s="6">
         <v>159</v>
@@ -7617,18 +7833,18 @@
         <v>17</v>
       </c>
       <c r="I164" s="30" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
     </row>
     <row r="165" ht="15.6" spans="1:9">
       <c r="A165" s="18" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="D165" s="6">
         <v>169</v>
@@ -7647,18 +7863,18 @@
         <v>17</v>
       </c>
       <c r="I165" s="30" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
     </row>
     <row r="166" ht="15.6" spans="1:9">
       <c r="A166" s="3" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>457</v>
+        <v>497</v>
       </c>
       <c r="D166" s="6">
         <v>299</v>
@@ -7677,18 +7893,18 @@
         <v>12</v>
       </c>
       <c r="I166" s="30" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
     </row>
     <row r="167" ht="15.6" spans="1:9">
       <c r="A167" s="3" t="s">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="D167" s="6">
         <v>1899</v>
@@ -7707,18 +7923,18 @@
         <v>12</v>
       </c>
       <c r="I167" s="30" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
     </row>
     <row r="168" ht="15.6" spans="1:9">
       <c r="A168" s="3" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="D168" s="6">
         <v>699</v>
@@ -7737,18 +7953,18 @@
         <v>12</v>
       </c>
       <c r="I168" s="30" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
     </row>
     <row r="169" ht="15.6" spans="1:9">
       <c r="A169" s="3" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="D169" s="6">
         <v>299</v>
@@ -7767,15 +7983,15 @@
         <v>12</v>
       </c>
       <c r="I169" s="30" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
     </row>
     <row r="170" ht="15.6" spans="1:9">
       <c r="A170" s="3" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>11</v>
@@ -7797,18 +8013,18 @@
         <v>12</v>
       </c>
       <c r="I170" s="30" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
     </row>
     <row r="171" ht="15.6" spans="1:9">
       <c r="A171" s="3" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="D171" s="6">
         <v>179</v>
@@ -7827,18 +8043,18 @@
         <v>12</v>
       </c>
       <c r="I171" s="30" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
     </row>
     <row r="172" ht="15.6" spans="1:9">
       <c r="A172" s="3" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="D172" s="6">
         <v>439</v>
@@ -7857,18 +8073,18 @@
         <v>12</v>
       </c>
       <c r="I172" s="30" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
     </row>
     <row r="173" ht="15.6" spans="1:9">
       <c r="A173" s="3" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>479</v>
+        <v>519</v>
       </c>
       <c r="D173" s="6">
         <v>1299</v>
@@ -7887,18 +8103,18 @@
         <v>17</v>
       </c>
       <c r="I173" s="30" t="s">
-        <v>480</v>
+        <v>520</v>
       </c>
     </row>
     <row r="174" ht="15.6" spans="1:9">
       <c r="A174" s="3" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="D174" s="6">
         <v>1499</v>
@@ -7917,18 +8133,18 @@
         <v>17</v>
       </c>
       <c r="I174" s="30" t="s">
-        <v>482</v>
+        <v>522</v>
       </c>
     </row>
     <row r="175" ht="15.6" spans="1:9">
       <c r="A175" s="3" t="s">
-        <v>483</v>
+        <v>523</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="D175" s="6">
         <v>499</v>
@@ -7947,7 +8163,7 @@
         <v>17</v>
       </c>
       <c r="I175" s="30" t="s">
-        <v>486</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Along\Downloads\SCRC FEB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688A55D2-7246-4BF9-9187-6CEA903A8F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="553">
   <si>
     <t>SCF</t>
   </si>
@@ -1190,27 +1196,15 @@
     <t>SCF-100.2810</t>
   </si>
   <si>
-    <t>PanzerGlass Apple iPhone 2023 6.1" Pro UWF</t>
-  </si>
-  <si>
     <t>SCF-100.2812</t>
   </si>
   <si>
-    <t>PanzerGlass Apple iPhone 2023 6.7" Pro UWF</t>
-  </si>
-  <si>
     <t>SCF-100.P2810</t>
   </si>
   <si>
-    <t>PanzerGlass Apple iPhone 2023 6.1" Pro UWF Privacy</t>
-  </si>
-  <si>
     <t>SCF-100.P2812</t>
   </si>
   <si>
-    <t>PanzerGlass Apple iPhone 2023 6.7" Pro UWF Privacy</t>
-  </si>
-  <si>
     <t>SCF-100.SAFE95587</t>
   </si>
   <si>
@@ -1608,22 +1602,108 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/612whrpX5FL._AC_UF1000,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>https://static.vecteezy.com/system/resources/previews/002/219/582/non_2x/illustration-of-book-icon-free-vector.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61fIa23Va+L.jpg</t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/2810_02_c680e242-69e8-4b77-8ad6-bcdc05c41ee5.webp?v=1715669530&amp;width=823</t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/2816_02_8611d9dd-6e90-45d8-b1f9-d42509491a90.webp?v=1715671375&amp;width=823</t>
+  </si>
+  <si>
+    <t>PanzerGlass Apple iPhone 2023 6.1" Pro UWF (iPhone 15 Pro)</t>
+  </si>
+  <si>
+    <t>PanzerGlass Apple iPhone 2023 6.7" Pro UWF (iPhone 15 Pro Max)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61n-1Kr60BL.jpg</t>
+  </si>
+  <si>
+    <t>PanzerGlass Apple iPhone 2023 6.1" Pro UWF Privacy (iPhone 15 Pro)</t>
+  </si>
+  <si>
+    <t>PanzerGlass Apple iPhone 2023 6.7" Pro UWF Privacy (iPhone 15 Pro Max)</t>
+  </si>
+  <si>
+    <t>https://ufostorekh.com/wp-content/uploads/2023/09/64fa8963-5f9c-43fc-b285-68100a8a002e_1000x1000.jpeg</t>
+  </si>
+  <si>
+    <t>https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955358_3.jpg</t>
+  </si>
+  <si>
+    <t>https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955372_3.jpg</t>
+  </si>
+  <si>
+    <t>https://down-my.img.susercontent.com/file/c757081366451cf01c121aceb32a171c</t>
+  </si>
+  <si>
+    <t>https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768</t>
+  </si>
+  <si>
+    <t>https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989</t>
+  </si>
+  <si>
+    <t>https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986</t>
+  </si>
+  <si>
+    <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg?v=1692715125</t>
+  </si>
+  <si>
+    <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg?v=1692715125</t>
+  </si>
+  <si>
+    <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg?v=1692715125</t>
+  </si>
+  <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965</t>
+  </si>
+  <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404</t>
+  </si>
+  <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404</t>
+  </si>
+  <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404</t>
+  </si>
+  <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce32ozGreentea.png?v=1709822958</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S9dd8bc460e6c41fbab3b73d5912567efT.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S9b646100a4694a2795d022cc38431297C.jpg</t>
+  </si>
+  <si>
+    <t>https://ghostek.com/cdn/shop/files/COVERT6-IPHONE-15-PRO-MAX-02-CLEAR_cddfaffb-877a-4c97-a65e-2b4a96ff89b6_823x823.jpg?v=1694903045</t>
+  </si>
+  <si>
+    <t>https://ghostek.com/cdn/shop/files/COVERT6-IPHONE-15-PRO-MAX-02-SMOKE_823x823.jpg?v=1694903045</t>
+  </si>
+  <si>
+    <t>https://bci.kinokuniya.com/jsp/images/book-img/97898/97898337/9789833789290.JPG</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/TxfL8mYs/New-Project-2.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="[$RM-4409]#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="[$RM-4409]#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$RM-4409]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$RM-4409]#,##0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1689,143 +1769,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1834,13 +1785,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,180 +1809,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2080,260 +1863,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2342,16 +1883,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2369,22 +1910,22 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2393,16 +1934,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2411,10 +1952,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2423,97 +1964,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
+    <cellStyle name="Comma 137" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
-    <cellStyle name="Comma 137" xfId="49"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -2524,7 +2138,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2552,154 +2166,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2957,5221 +2457,5282 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I164" workbookViewId="0">
-      <selection activeCell="I187" sqref="I187"/>
+    <sheetView tabSelected="1" topLeftCell="B143" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.5740740740741" customWidth="1"/>
-    <col min="2" max="2" width="15.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="80.712962962963" customWidth="1"/>
-    <col min="4" max="5" width="12.8518518518519" customWidth="1"/>
-    <col min="6" max="6" width="5.85185185185185" customWidth="1"/>
-    <col min="7" max="7" width="14.5740740740741" customWidth="1"/>
-    <col min="8" max="8" width="46.712962962963" customWidth="1"/>
-    <col min="9" max="9" width="255.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="46.7109375" customWidth="1"/>
+    <col min="9" max="9" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:9">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="15.75">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>349</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>279</v>
       </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
         <f t="shared" ref="G2:G65" si="0">E2*100</f>
         <v>27900</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:9">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>27.9</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>27.9</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
         <f t="shared" si="0"/>
         <v>2790</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:9">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>27.9</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>27.9</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>2790</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="30" t="s">
+      <c r="H4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:9">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:9" ht="15.75">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>87.7</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>69</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" ht="15.6" spans="1:9">
-      <c r="A6" s="10" t="s">
+      <c r="H5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>32.9</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>23</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="30" t="s">
+      <c r="H6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:9">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:9" ht="15.75">
+      <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>99</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>97</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>9700</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="30" t="s">
+      <c r="H7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:9">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9" ht="15.75">
+      <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>369</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>369</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>36900</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:9">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:9" ht="15.75">
+      <c r="A9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>369</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>369</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>36900</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="30" t="s">
+      <c r="H9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:9">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:9" ht="15.75">
+      <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>289</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>289</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>28900</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="30" t="s">
+      <c r="H10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:9">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:9" ht="15.75">
+      <c r="A11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>149</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>145</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="30" t="s">
+      <c r="H11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:9">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:9" ht="15.75">
+      <c r="A12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>169</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>169</v>
       </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="30" t="s">
+      <c r="H12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:9">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:9" ht="15.75">
+      <c r="A13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>169</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>169</v>
       </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="30" t="s">
+      <c r="H13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:9">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:9" ht="15.75">
+      <c r="A14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>349</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>349</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>34900</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="30" t="s">
+      <c r="H14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:9">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:9" ht="15.75">
+      <c r="A15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>349</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>349</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>34900</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="30" t="s">
+      <c r="H15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:9">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:9" ht="15.75">
+      <c r="A16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>559</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>559</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>55900</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="30" t="s">
+      <c r="H16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:9">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:9" ht="15.75">
+      <c r="A17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>559</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>559</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>55900</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="30" t="s">
+      <c r="H17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:9">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:9" ht="15.75">
+      <c r="A18" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>499</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>499</v>
       </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="30" t="s">
+      <c r="H18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:9">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:9" ht="15.75">
+      <c r="A19" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>499</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>499</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="30" t="s">
+      <c r="H19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:9">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:9" ht="15.75">
+      <c r="A20" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>799</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>799</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
         <f t="shared" si="0"/>
         <v>79900</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="30" t="s">
+      <c r="H20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="1:9">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:9" ht="15.75">
+      <c r="A21" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>799</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>799</v>
       </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>79900</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="30" t="s">
+      <c r="H21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="1:9">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:9" ht="15.75">
+      <c r="A22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>179</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>169</v>
       </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="1:9">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:9" ht="15.75">
+      <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>59</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>49</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>12</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="1:9">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:9" ht="15.75">
+      <c r="A24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>59</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>49</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>13</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="1:9">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:9" ht="15.75">
+      <c r="A25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>49</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>39</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>14</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <f t="shared" si="0"/>
         <v>3900</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:9">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:9" ht="15.75">
+      <c r="A26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>69</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>55</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>15</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:9">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:9" ht="15.75">
+      <c r="A27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>89</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>69</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>16</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="1:9">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:9" ht="15.75">
+      <c r="A28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>99</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>79</v>
       </c>
-      <c r="F28" s="7">
-        <v>17</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="F28" s="6">
+        <v>17</v>
+      </c>
+      <c r="G28" s="7">
         <f t="shared" si="0"/>
         <v>7900</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:9">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:9" ht="15.75">
+      <c r="A29" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <v>79</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <v>55</v>
       </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="30" t="s">
+      <c r="H29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:9">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:9" ht="15.75">
+      <c r="A30" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>55</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <v>49</v>
       </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="H30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="30" t="s">
+      <c r="H30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="1:9">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:9" ht="15.75">
+      <c r="A31" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <v>129</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <v>125</v>
       </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
-      <c r="H31" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="30" t="s">
+      <c r="H31" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:9">
-      <c r="A32" s="21" t="s">
+    <row r="32" spans="1:9" ht="15.75">
+      <c r="A32" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>99</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>93</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <f t="shared" si="0"/>
         <v>9300</v>
       </c>
-      <c r="H32" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="30" t="s">
+      <c r="H32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="1:9">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:9" ht="15.75">
+      <c r="A33" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="6">
-        <v>16.9</v>
-      </c>
-      <c r="E33" s="6">
-        <v>16.9</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="D33" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E33" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
         <f t="shared" si="0"/>
         <v>1690</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="30" t="s">
+      <c r="H33" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="1:9">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:9" ht="15.75">
+      <c r="A34" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>14.4</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>14.4</v>
       </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="8">
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="H34" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="30" t="s">
+      <c r="H34" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="1:9">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:9" ht="15.75">
+      <c r="A35" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>15.5</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>15.5</v>
       </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
         <f t="shared" si="0"/>
         <v>1550</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="30" t="s">
+      <c r="H35" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="1:9">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:9" ht="15.75">
+      <c r="A36" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>714</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>479</v>
       </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
         <f t="shared" si="0"/>
         <v>47900</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="30" t="s">
+      <c r="I36" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" ht="15.6" spans="1:9">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:9" ht="15.75">
+      <c r="A37" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>9.9</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>9.9</v>
       </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8">
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="H37" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="30" t="s">
+      <c r="H37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="1:9">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:9" ht="15.75">
+      <c r="A38" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>549</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>199</v>
       </c>
-      <c r="F38" s="7">
-        <v>0</v>
-      </c>
-      <c r="G38" s="8">
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I38" s="30" t="s">
+      <c r="I38" s="29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" ht="15.6" spans="1:9">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:9" ht="15.75">
+      <c r="A39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>599</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>319</v>
       </c>
-      <c r="F39" s="7">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8">
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
         <f t="shared" si="0"/>
         <v>31900</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="30" t="s">
+      <c r="I39" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" ht="15.6" spans="1:9">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:9" ht="15.75">
+      <c r="A40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>599</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>319</v>
       </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="G40" s="8">
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
         <f t="shared" si="0"/>
         <v>31900</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="30" t="s">
+      <c r="I40" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" ht="15.6" spans="1:9">
-      <c r="A41" s="22" t="s">
+    <row r="41" spans="1:9" ht="15.75">
+      <c r="A41" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>439</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>179</v>
       </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
-      <c r="G41" s="8">
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
         <f t="shared" si="0"/>
         <v>17900</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="30" t="s">
+      <c r="I41" s="29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="42" ht="15.6" spans="1:9">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:9" ht="15.75">
+      <c r="A42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>519</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>189</v>
       </c>
-      <c r="F42" s="7">
-        <v>0</v>
-      </c>
-      <c r="G42" s="8">
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="30" t="s">
+      <c r="I42" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="43" ht="15.6" spans="1:9">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:9" ht="15.75">
+      <c r="A43" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>579</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>219</v>
       </c>
-      <c r="F43" s="7">
-        <v>0</v>
-      </c>
-      <c r="G43" s="8">
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
         <f t="shared" si="0"/>
         <v>21900</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="30" t="s">
+      <c r="I43" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" ht="15.6" spans="1:9">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:9" ht="15.75">
+      <c r="A44" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>349</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>149</v>
       </c>
-      <c r="F44" s="7">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8">
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
         <f t="shared" si="0"/>
         <v>14900</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="I44" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="45" ht="15.6" spans="1:9">
-      <c r="A45" s="18" t="s">
+    <row r="45" spans="1:9" ht="15.75">
+      <c r="A45" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>499</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>199</v>
       </c>
-      <c r="F45" s="7">
-        <v>0</v>
-      </c>
-      <c r="G45" s="8">
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
-      <c r="H45" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="30" t="s">
+      <c r="H45" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="1:9">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:9" ht="15.75">
+      <c r="A46" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="12">
         <v>499</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="12">
         <v>199</v>
       </c>
-      <c r="F46" s="7">
-        <v>0</v>
-      </c>
-      <c r="G46" s="8">
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
-      <c r="H46" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="30" t="s">
+      <c r="H46" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="29" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="47" ht="15.6" spans="1:9">
-      <c r="A47" s="10" t="s">
+    <row r="47" spans="1:9" ht="15.75">
+      <c r="A47" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="12">
         <v>399</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="12">
         <v>199</v>
       </c>
-      <c r="F47" s="7">
-        <v>0</v>
-      </c>
-      <c r="G47" s="8">
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7">
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
-      <c r="H47" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="30" t="s">
+      <c r="H47" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="48" ht="15.6" spans="1:9">
-      <c r="A48" s="18" t="s">
+    <row r="48" spans="1:9" ht="15.75">
+      <c r="A48" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>459</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>169</v>
       </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48" s="8">
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H48" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="30" t="s">
+      <c r="H48" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="29" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="49" ht="15.6" spans="1:9">
-      <c r="A49" s="18" t="s">
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="A49" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>459</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>169</v>
       </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
-      <c r="G49" s="8">
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H49" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="30" t="s">
+      <c r="H49" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="50" ht="15.6" spans="1:9">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:9" ht="15.75">
+      <c r="A50" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="12">
         <v>439</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="12">
         <v>169</v>
       </c>
-      <c r="F50" s="7">
-        <v>0</v>
-      </c>
-      <c r="G50" s="8">
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H50" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="30" t="s">
+      <c r="H50" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="51" ht="15.6" spans="1:9">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:9" ht="15.75">
+      <c r="A51" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="12">
         <v>479</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="12">
         <v>189</v>
       </c>
-      <c r="F51" s="7">
-        <v>0</v>
-      </c>
-      <c r="G51" s="8">
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H51" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" s="30" t="s">
+      <c r="H51" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" ht="15.6" spans="1:9">
-      <c r="A52" s="18" t="s">
+    <row r="52" spans="1:9" ht="15.75">
+      <c r="A52" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>519</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>189</v>
       </c>
-      <c r="F52" s="7">
-        <v>0</v>
-      </c>
-      <c r="G52" s="8">
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H52" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="30" t="s">
+      <c r="H52" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="29" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="53" ht="15.6" spans="1:9">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:9" ht="15.75">
+      <c r="A53" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="12">
         <v>599</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="12">
         <v>189</v>
       </c>
-      <c r="F53" s="7">
-        <v>0</v>
-      </c>
-      <c r="G53" s="8">
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H53" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="30" t="s">
+      <c r="H53" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="29" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="54" ht="15.6" spans="1:9">
-      <c r="A54" s="18" t="s">
+    <row r="54" spans="1:9" ht="15.75">
+      <c r="A54" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>639</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>239</v>
       </c>
-      <c r="F54" s="7">
-        <v>0</v>
-      </c>
-      <c r="G54" s="8">
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
         <f t="shared" si="0"/>
         <v>23900</v>
       </c>
-      <c r="H54" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="30" t="s">
+      <c r="H54" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="55" ht="15.6" spans="1:9">
-      <c r="A55" s="18" t="s">
+    <row r="55" spans="1:9" ht="15.75">
+      <c r="A55" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>639</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>239</v>
       </c>
-      <c r="F55" s="7">
-        <v>0</v>
-      </c>
-      <c r="G55" s="8">
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7">
         <f t="shared" si="0"/>
         <v>23900</v>
       </c>
-      <c r="H55" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="30" t="s">
+      <c r="H55" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="29" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="56" ht="15.6" spans="1:9">
-      <c r="A56" s="18" t="s">
+    <row r="56" spans="1:9" ht="15.75">
+      <c r="A56" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>639</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>239</v>
       </c>
-      <c r="F56" s="7">
-        <v>0</v>
-      </c>
-      <c r="G56" s="8">
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
         <f t="shared" si="0"/>
         <v>23900</v>
       </c>
-      <c r="H56" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="30" t="s">
+      <c r="H56" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="29" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" ht="15.6" spans="1:9">
-      <c r="A57" s="24" t="s">
+    <row r="57" spans="1:9" ht="15.75">
+      <c r="A57" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <v>669</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="12">
         <v>259</v>
       </c>
-      <c r="F57" s="7">
-        <v>0</v>
-      </c>
-      <c r="G57" s="8">
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
         <f t="shared" si="0"/>
         <v>25900</v>
       </c>
-      <c r="H57" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="30" t="s">
+      <c r="H57" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="29" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="58" ht="15.6" spans="1:9">
-      <c r="A58" s="18" t="s">
+    <row r="58" spans="1:9" ht="15.75">
+      <c r="A58" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>369</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>149</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="7">
         <f t="shared" si="0"/>
         <v>14900</v>
       </c>
-      <c r="H58" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="30" t="s">
+      <c r="H58" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="29" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="59" ht="15.6" spans="1:9">
-      <c r="A59" s="18" t="s">
+    <row r="59" spans="1:9" ht="15.75">
+      <c r="A59" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>439</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>169</v>
       </c>
-      <c r="F59" s="19" t="s">
+      <c r="F59" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="7">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H59" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="30" t="s">
+      <c r="H59" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="29" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="60" ht="15.6" spans="1:9">
-      <c r="A60" s="18" t="s">
+    <row r="60" spans="1:9" ht="15.75">
+      <c r="A60" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>489</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>189</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="7">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H60" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" s="30" t="s">
+      <c r="H60" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="29" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="61" ht="15.6" spans="1:9">
-      <c r="A61" s="18" t="s">
+    <row r="61" spans="1:9" ht="15.75">
+      <c r="A61" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>409</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>159</v>
       </c>
-      <c r="F61" s="7">
-        <v>0</v>
-      </c>
-      <c r="G61" s="8">
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
         <f t="shared" si="0"/>
         <v>15900</v>
       </c>
-      <c r="H61" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" s="30" t="s">
+      <c r="H61" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="29" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="15.6" spans="1:9">
-      <c r="A62" s="25" t="s">
+    <row r="62" spans="1:9" ht="15.75">
+      <c r="A62" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="D62" s="27">
+      <c r="D62" s="26">
         <v>499</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E62" s="26">
         <v>189</v>
       </c>
-      <c r="F62" s="28">
-        <v>0</v>
-      </c>
-      <c r="G62" s="8">
+      <c r="F62" s="27">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H62" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" s="30" t="s">
+      <c r="H62" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="63" ht="15.6" spans="1:9">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:9" ht="15.75">
+      <c r="A63" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="12">
         <v>699</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="12">
         <v>319</v>
       </c>
-      <c r="F63" s="7">
-        <v>0</v>
-      </c>
-      <c r="G63" s="8">
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
         <f t="shared" si="0"/>
         <v>31900</v>
       </c>
-      <c r="H63" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" s="30" t="s">
+      <c r="H63" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="29" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="64" ht="15.6" spans="1:9">
-      <c r="A64" s="10" t="s">
+    <row r="64" spans="1:9" ht="15.75">
+      <c r="A64" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="12">
         <v>949</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="12">
         <v>499</v>
       </c>
-      <c r="F64" s="7">
-        <v>0</v>
-      </c>
-      <c r="G64" s="8">
+      <c r="F64" s="6">
+        <v>0</v>
+      </c>
+      <c r="G64" s="7">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="H64" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" s="30" t="s">
+      <c r="H64" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="29" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="65" ht="15.6" spans="1:9">
-      <c r="A65" s="18" t="s">
+    <row r="65" spans="1:9" ht="15.75">
+      <c r="A65" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>18.5</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>18.5</v>
       </c>
-      <c r="F65" s="7">
-        <v>0</v>
-      </c>
-      <c r="G65" s="8">
+      <c r="F65" s="6">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
         <f t="shared" si="0"/>
         <v>1850</v>
       </c>
-      <c r="H65" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" s="30" t="s">
+      <c r="H65" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="29" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="66" ht="15.6" spans="1:9">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:9" ht="15.75">
+      <c r="A66" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>319</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>279</v>
       </c>
-      <c r="F66" s="7">
-        <v>0</v>
-      </c>
-      <c r="G66" s="8">
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
         <f t="shared" ref="G66:G129" si="1">E66*100</f>
         <v>27900</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I66" s="30" t="s">
+      <c r="I66" s="29" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="67" ht="15.6" spans="1:9">
-      <c r="A67" s="18" t="s">
+    <row r="67" spans="1:9" ht="15.75">
+      <c r="A67" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>39</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>39</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F67" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="7">
         <f t="shared" si="1"/>
         <v>3900</v>
       </c>
-      <c r="H67" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" s="30"/>
-    </row>
-    <row r="68" ht="15.6" spans="1:9">
-      <c r="A68" s="18" t="s">
+      <c r="H67" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="29"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75">
+      <c r="A68" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>49</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>49</v>
       </c>
-      <c r="F68" s="19" t="s">
+      <c r="F68" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="7">
         <f t="shared" si="1"/>
         <v>4900</v>
       </c>
-      <c r="H68" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="30"/>
-    </row>
-    <row r="69" ht="15.6" spans="1:9">
-      <c r="A69" s="18" t="s">
+      <c r="H68" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="29"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75">
+      <c r="A69" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>29</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <v>29</v>
       </c>
-      <c r="F69" s="19" t="s">
+      <c r="F69" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="7">
         <f t="shared" si="1"/>
         <v>2900</v>
       </c>
-      <c r="H69" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="30" t="s">
+      <c r="H69" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="29" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="70" ht="15.6" spans="1:9">
-      <c r="A70" s="10" t="s">
+    <row r="70" spans="1:9" ht="15.75">
+      <c r="A70" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="12">
         <v>24.9</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="12">
         <v>24.9</v>
       </c>
-      <c r="F70" s="7">
-        <v>0</v>
-      </c>
-      <c r="G70" s="8">
+      <c r="F70" s="6">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7">
         <f t="shared" si="1"/>
         <v>2490</v>
       </c>
-      <c r="H70" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" s="30" t="s">
+      <c r="H70" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="29" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="71" ht="15.6" spans="1:9">
-      <c r="A71" s="10" t="s">
+    <row r="71" spans="1:9" ht="15.75">
+      <c r="A71" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="12">
         <v>20.9</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="12">
         <v>20.9</v>
       </c>
-      <c r="F71" s="7">
-        <v>0</v>
-      </c>
-      <c r="G71" s="8">
+      <c r="F71" s="6">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
         <f t="shared" si="1"/>
         <v>2090</v>
       </c>
-      <c r="H71" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="30" t="s">
+      <c r="H71" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="29" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="72" ht="15.6" spans="1:9">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:9" ht="15.75">
+      <c r="A72" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>210</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="5">
         <v>115</v>
       </c>
-      <c r="F72" s="7">
-        <v>0</v>
-      </c>
-      <c r="G72" s="8">
+      <c r="F72" s="6">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
         <f t="shared" si="1"/>
         <v>11500</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I72" s="30" t="s">
+      <c r="I72" s="29" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="73" ht="15.6" spans="1:9">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:9" ht="15.75">
+      <c r="A73" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>228</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <v>200</v>
       </c>
-      <c r="F73" s="7">
-        <v>0</v>
-      </c>
-      <c r="G73" s="8">
+      <c r="F73" s="6">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="30" t="s">
+      <c r="I73" s="29" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="74" ht="15.6" spans="1:9">
-      <c r="A74" s="18" t="s">
+    <row r="74" spans="1:9" ht="15.75">
+      <c r="A74" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <v>162</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="5">
         <v>115</v>
       </c>
-      <c r="F74" s="19" t="s">
+      <c r="F74" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="7">
         <f t="shared" si="1"/>
         <v>11500</v>
       </c>
-      <c r="H74" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="30" t="s">
+      <c r="H74" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="29" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="75" ht="15.6" spans="1:9">
-      <c r="A75" s="18" t="s">
+    <row r="75" spans="1:9" ht="15.75">
+      <c r="A75" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>11.9</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="5">
         <v>11.9</v>
       </c>
-      <c r="F75" s="7">
-        <v>0</v>
-      </c>
-      <c r="G75" s="8">
+      <c r="F75" s="6">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
         <f t="shared" si="1"/>
         <v>1190</v>
       </c>
-      <c r="H75" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" s="30" t="s">
+      <c r="H75" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="29" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="76" ht="15.6" spans="1:9">
-      <c r="A76" s="21" t="s">
+    <row r="76" spans="1:9" ht="15.75">
+      <c r="A76" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="5">
         <v>129</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="5">
         <v>129</v>
       </c>
-      <c r="F76" s="19" t="s">
+      <c r="F76" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="7">
         <f t="shared" si="1"/>
         <v>12900</v>
       </c>
-      <c r="H76" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I76" s="30" t="s">
+      <c r="H76" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="29" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="77" ht="15.6" spans="1:9">
-      <c r="A77" s="18" t="s">
+    <row r="77" spans="1:9" ht="15.75">
+      <c r="A77" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="5">
         <v>99</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="5">
         <v>99</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="F77" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="7">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H77" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="30" t="s">
+      <c r="H77" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="29" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="78" ht="15.6" spans="1:9">
-      <c r="A78" s="18" t="s">
+    <row r="78" spans="1:9" ht="15.75">
+      <c r="A78" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="12">
         <v>89</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="5">
         <v>89</v>
       </c>
-      <c r="F78" s="19" t="s">
+      <c r="F78" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="7">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H78" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I78" s="30"/>
-    </row>
-    <row r="79" ht="15.6" spans="1:9">
-      <c r="A79" s="18" t="s">
+      <c r="H78" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="29" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75">
+      <c r="A79" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="12">
         <v>89</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="5">
         <v>89</v>
       </c>
-      <c r="F79" s="19" t="s">
+      <c r="F79" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="7">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H79" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" s="30"/>
-    </row>
-    <row r="80" ht="15.6" spans="1:9">
-      <c r="A80" s="18" t="s">
+      <c r="H79" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="29" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75">
+      <c r="A80" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="12">
         <v>89</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="5">
         <v>89</v>
       </c>
-      <c r="F80" s="19" t="s">
+      <c r="F80" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="7">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H80" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="30"/>
-    </row>
-    <row r="81" ht="15.6" spans="1:9">
-      <c r="A81" s="18" t="s">
+      <c r="H80" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="29" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75">
+      <c r="A81" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="12">
         <v>89</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="5">
         <v>89</v>
       </c>
-      <c r="F81" s="19" t="s">
+      <c r="F81" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="7">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H81" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I81" s="30"/>
-    </row>
-    <row r="82" ht="15.6" spans="1:9">
-      <c r="A82" s="18" t="s">
+      <c r="H81" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="29" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75">
+      <c r="A82" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="5">
         <v>18.5</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="5">
         <v>18.5</v>
       </c>
-      <c r="F82" s="7">
-        <v>0</v>
-      </c>
-      <c r="G82" s="8">
+      <c r="F82" s="6">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="H82" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I82" s="30" t="s">
+      <c r="H82" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="29" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="83" ht="15.6" spans="1:9">
-      <c r="A83" s="18" t="s">
+    <row r="83" spans="1:9" ht="15.75">
+      <c r="A83" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="5">
         <v>18</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="5">
         <v>18</v>
       </c>
-      <c r="F83" s="7">
-        <v>0</v>
-      </c>
-      <c r="G83" s="8">
+      <c r="F83" s="6">
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="H83" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I83" s="30" t="s">
+      <c r="H83" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="29" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="84" ht="15.6" spans="1:9">
-      <c r="A84" s="18" t="s">
+    <row r="84" spans="1:9" ht="15.75">
+      <c r="A84" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="5">
         <v>5.7</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="5">
         <v>5.7</v>
       </c>
-      <c r="F84" s="7">
-        <v>0</v>
-      </c>
-      <c r="G84" s="8">
+      <c r="F84" s="6">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
         <f t="shared" si="1"/>
         <v>570</v>
       </c>
-      <c r="H84" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I84" s="30" t="s">
+      <c r="H84" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="29" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="85" ht="15.6" spans="1:9">
-      <c r="A85" s="18" t="s">
+    <row r="85" spans="1:9" ht="15.75">
+      <c r="A85" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="5">
         <v>4.5</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="5">
         <v>4.5</v>
       </c>
-      <c r="F85" s="7">
-        <v>0</v>
-      </c>
-      <c r="G85" s="8">
+      <c r="F85" s="6">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="H85" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I85" s="30" t="s">
+      <c r="H85" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="29" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="86" ht="15.6" spans="1:9">
-      <c r="A86" s="18" t="s">
+    <row r="86" spans="1:9" ht="15.75">
+      <c r="A86" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="5">
         <v>3.5</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="5">
         <v>3.5</v>
       </c>
-      <c r="F86" s="7">
-        <v>0</v>
-      </c>
-      <c r="G86" s="8">
+      <c r="F86" s="6">
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H86" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I86" s="30" t="s">
+      <c r="H86" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" s="29" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="87" ht="15.6" spans="1:9">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:9" ht="15.75">
+      <c r="A87" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="5">
         <v>989</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="5">
         <v>769</v>
       </c>
-      <c r="F87" s="7">
-        <v>0</v>
-      </c>
-      <c r="G87" s="8">
+      <c r="F87" s="6">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
         <f t="shared" si="1"/>
         <v>76900</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="H87" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I87" s="30" t="s">
+      <c r="I87" s="29" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="88" ht="15.6" spans="1:9">
-      <c r="A88" s="18" t="s">
+    <row r="88" spans="1:9" ht="15.75">
+      <c r="A88" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="5">
         <v>799</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="5">
         <v>599</v>
       </c>
-      <c r="F88" s="19" t="s">
+      <c r="F88" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G88" s="7">
         <f t="shared" si="1"/>
         <v>59900</v>
       </c>
-      <c r="H88" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I88" s="30" t="s">
+      <c r="H88" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="29" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="89" ht="15.6" spans="1:9">
-      <c r="A89" s="18" t="s">
+    <row r="89" spans="1:9" ht="15.75">
+      <c r="A89" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="5">
         <v>1199</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="5">
         <v>599</v>
       </c>
-      <c r="F89" s="19" t="s">
+      <c r="F89" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G89" s="7">
         <f t="shared" si="1"/>
         <v>59900</v>
       </c>
-      <c r="H89" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I89" s="30" t="s">
+      <c r="H89" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="29" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="90" ht="15.6" spans="1:9">
-      <c r="A90" s="18" t="s">
+    <row r="90" spans="1:9" ht="15.75">
+      <c r="A90" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="5">
         <v>2099</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="5">
         <v>1199</v>
       </c>
-      <c r="F90" s="19" t="s">
+      <c r="F90" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G90" s="7">
         <f t="shared" si="1"/>
         <v>119900</v>
       </c>
-      <c r="H90" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I90" s="30" t="s">
+      <c r="H90" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="29" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="91" ht="15.6" spans="1:9">
-      <c r="A91" s="18" t="s">
+    <row r="91" spans="1:9" ht="15.75">
+      <c r="A91" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="5">
         <v>2699</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="5">
         <v>1699</v>
       </c>
-      <c r="F91" s="19" t="s">
+      <c r="F91" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G91" s="7">
         <f t="shared" si="1"/>
         <v>169900</v>
       </c>
-      <c r="H91" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I91" s="30" t="s">
+      <c r="H91" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="29" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="92" ht="15.6" spans="1:9">
-      <c r="A92" s="18" t="s">
+    <row r="92" spans="1:9" ht="15.75">
+      <c r="A92" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="5">
         <v>119</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="5">
         <v>79</v>
       </c>
-      <c r="F92" s="19" t="s">
+      <c r="F92" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G92" s="7">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="H92" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I92" s="30" t="s">
+      <c r="H92" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="29" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="93" ht="15.6" spans="1:9">
-      <c r="A93" s="18" t="s">
+    <row r="93" spans="1:9" ht="15.75">
+      <c r="A93" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="5">
         <v>119</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="5">
         <v>79</v>
       </c>
-      <c r="F93" s="19" t="s">
+      <c r="F93" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G93" s="7">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="H93" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I93" s="30" t="s">
+      <c r="H93" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="29" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="94" ht="15.6" spans="1:9">
-      <c r="A94" s="10" t="s">
+    <row r="94" spans="1:9" ht="15.75">
+      <c r="A94" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D94" s="12">
         <v>109</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E94" s="12">
         <v>109</v>
       </c>
-      <c r="F94" s="7">
-        <v>0</v>
-      </c>
-      <c r="G94" s="8">
+      <c r="F94" s="6">
+        <v>0</v>
+      </c>
+      <c r="G94" s="7">
         <f t="shared" si="1"/>
         <v>10900</v>
       </c>
-      <c r="H94" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I94" s="30" t="s">
+      <c r="H94" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="29" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="95" ht="15.6" spans="1:9">
-      <c r="A95" s="31" t="s">
+    <row r="95" spans="1:9" ht="15.75">
+      <c r="A95" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="5">
         <v>99</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="5">
         <v>99</v>
       </c>
-      <c r="F95" s="19" t="s">
+      <c r="F95" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G95" s="8">
+      <c r="G95" s="7">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H95" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I95" s="30" t="s">
+      <c r="H95" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="29" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="96" ht="15.6" spans="1:9">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:9" ht="15.75">
+      <c r="A96" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="5">
         <v>199</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="5">
         <v>169</v>
       </c>
-      <c r="F96" s="7">
-        <v>0</v>
-      </c>
-      <c r="G96" s="8">
+      <c r="F96" s="6">
+        <v>0</v>
+      </c>
+      <c r="G96" s="7">
         <f t="shared" si="1"/>
         <v>16900</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="H96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I96" s="30"/>
-    </row>
-    <row r="97" ht="15.6" spans="1:9">
-      <c r="A97" s="3" t="s">
+      <c r="I96" s="29" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15.75">
+      <c r="A97" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="5">
         <v>259</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="5">
         <v>189</v>
       </c>
-      <c r="F97" s="7">
-        <v>0</v>
-      </c>
-      <c r="G97" s="8">
+      <c r="F97" s="6">
+        <v>0</v>
+      </c>
+      <c r="G97" s="7">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="H97" s="9" t="s">
+      <c r="H97" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I97" s="30"/>
-    </row>
-    <row r="98" ht="15.6" spans="1:9">
-      <c r="A98" s="3" t="s">
+      <c r="I97" s="29" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.75">
+      <c r="A98" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="5">
         <v>139</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="5">
         <v>79</v>
       </c>
-      <c r="F98" s="7">
-        <v>0</v>
-      </c>
-      <c r="G98" s="8">
+      <c r="F98" s="6">
+        <v>0</v>
+      </c>
+      <c r="G98" s="7">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="H98" s="9" t="s">
+      <c r="H98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I98" s="30" t="s">
+      <c r="I98" s="29" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="99" ht="15.6" spans="1:9">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:9" ht="15.75">
+      <c r="A99" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="5">
         <v>139</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="5">
         <v>79</v>
       </c>
-      <c r="F99" s="7">
-        <v>0</v>
-      </c>
-      <c r="G99" s="8">
+      <c r="F99" s="6">
+        <v>0</v>
+      </c>
+      <c r="G99" s="7">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="H99" s="9" t="s">
+      <c r="H99" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I99" s="30" t="s">
+      <c r="I99" s="29" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="100" ht="15.6" spans="1:9">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:9" ht="15.75">
+      <c r="A100" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="5">
         <v>169</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="5">
         <v>99</v>
       </c>
-      <c r="F100" s="7">
-        <v>0</v>
-      </c>
-      <c r="G100" s="8">
+      <c r="F100" s="6">
+        <v>0</v>
+      </c>
+      <c r="G100" s="7">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H100" s="9" t="s">
+      <c r="H100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I100" s="30" t="s">
+      <c r="I100" s="29" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="101" ht="15.6" spans="1:9">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:9" ht="15.75">
+      <c r="A101" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="5">
         <v>169</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="5">
         <v>99</v>
       </c>
-      <c r="F101" s="7">
-        <v>0</v>
-      </c>
-      <c r="G101" s="8">
+      <c r="F101" s="6">
+        <v>0</v>
+      </c>
+      <c r="G101" s="7">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H101" s="9" t="s">
+      <c r="H101" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I101" s="30" t="s">
+      <c r="I101" s="29" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="102" ht="15.6" spans="1:9">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:9" ht="15.75">
+      <c r="A102" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="5">
         <v>169</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="5">
         <v>99</v>
       </c>
-      <c r="F102" s="7">
-        <v>0</v>
-      </c>
-      <c r="G102" s="8">
+      <c r="F102" s="6">
+        <v>0</v>
+      </c>
+      <c r="G102" s="7">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H102" s="9" t="s">
+      <c r="H102" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I102" s="30"/>
-    </row>
-    <row r="103" ht="15.6" spans="1:9">
-      <c r="A103" s="3" t="s">
+      <c r="I102" s="29"/>
+    </row>
+    <row r="103" spans="1:9" ht="15.75">
+      <c r="A103" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="5">
         <v>169</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="5">
         <v>99</v>
       </c>
-      <c r="F103" s="7">
-        <v>0</v>
-      </c>
-      <c r="G103" s="8">
+      <c r="F103" s="6">
+        <v>0</v>
+      </c>
+      <c r="G103" s="7">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H103" s="9" t="s">
+      <c r="H103" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I103" s="30"/>
-    </row>
-    <row r="104" ht="15.6" spans="1:9">
-      <c r="A104" s="3" t="s">
+      <c r="I103" s="29"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.75">
+      <c r="A104" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="5">
         <v>179</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="5">
         <v>177</v>
       </c>
-      <c r="F104" s="7">
-        <v>0</v>
-      </c>
-      <c r="G104" s="8">
+      <c r="F104" s="6">
+        <v>0</v>
+      </c>
+      <c r="G104" s="7">
         <f t="shared" si="1"/>
         <v>17700</v>
       </c>
-      <c r="H104" s="9" t="s">
+      <c r="H104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I104" s="30" t="s">
+      <c r="I104" s="29" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="105" ht="15.6" spans="1:9">
-      <c r="A105" s="10" t="s">
+    <row r="105" spans="1:9" ht="15.75">
+      <c r="A105" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="D105" s="13">
+      <c r="D105" s="12">
         <v>559</v>
       </c>
-      <c r="E105" s="13">
+      <c r="E105" s="12">
         <v>329</v>
       </c>
-      <c r="F105" s="7">
-        <v>0</v>
-      </c>
-      <c r="G105" s="8">
+      <c r="F105" s="6">
+        <v>0</v>
+      </c>
+      <c r="G105" s="7">
         <f t="shared" si="1"/>
         <v>32900</v>
       </c>
-      <c r="H105" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I105" s="30" t="s">
+      <c r="H105" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="29" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="106" ht="15.6" spans="1:9">
-      <c r="A106" s="10" t="s">
+    <row r="106" spans="1:9" ht="15.75">
+      <c r="A106" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D106" s="13">
+      <c r="D106" s="12">
         <v>699</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="5">
         <v>459</v>
       </c>
-      <c r="F106" s="7">
-        <v>0</v>
-      </c>
-      <c r="G106" s="8">
+      <c r="F106" s="6">
+        <v>0</v>
+      </c>
+      <c r="G106" s="7">
         <f t="shared" si="1"/>
         <v>45900</v>
       </c>
-      <c r="H106" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I106" s="30" t="s">
+      <c r="H106" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" s="29" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="107" ht="15.6" spans="1:9">
-      <c r="A107" s="18" t="s">
+    <row r="107" spans="1:9" ht="15.75">
+      <c r="A107" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="5">
         <v>699</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="5">
         <v>459</v>
       </c>
-      <c r="F107" s="7">
-        <v>0</v>
-      </c>
-      <c r="G107" s="8">
+      <c r="F107" s="6">
+        <v>0</v>
+      </c>
+      <c r="G107" s="7">
         <f t="shared" si="1"/>
         <v>45900</v>
       </c>
-      <c r="H107" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I107" s="30" t="s">
+      <c r="H107" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" s="29" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="108" ht="15.6" spans="1:9">
-      <c r="A108" s="10" t="s">
+    <row r="108" spans="1:9" ht="15.75">
+      <c r="A108" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C108" s="23" t="s">
+      <c r="C108" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="D108" s="13">
+      <c r="D108" s="12">
         <v>119</v>
       </c>
-      <c r="E108" s="13">
+      <c r="E108" s="12">
         <v>99</v>
       </c>
-      <c r="F108" s="7">
-        <v>0</v>
-      </c>
-      <c r="G108" s="8">
+      <c r="F108" s="6">
+        <v>0</v>
+      </c>
+      <c r="G108" s="7">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H108" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I108" s="30" t="s">
+      <c r="H108" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I108" s="29" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="109" ht="15.6" spans="1:9">
-      <c r="A109" s="3" t="s">
+    <row r="109" spans="1:9" ht="15.75">
+      <c r="A109" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109" s="5">
         <v>239</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="5">
         <v>209</v>
       </c>
-      <c r="F109" s="7">
-        <v>0</v>
-      </c>
-      <c r="G109" s="8">
+      <c r="F109" s="6">
+        <v>0</v>
+      </c>
+      <c r="G109" s="7">
         <f t="shared" si="1"/>
         <v>20900</v>
       </c>
-      <c r="H109" s="9" t="s">
+      <c r="H109" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I109" s="30" t="s">
+      <c r="I109" s="29" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="110" ht="15.6" spans="1:9">
-      <c r="A110" s="18" t="s">
+    <row r="110" spans="1:9" ht="15.75">
+      <c r="A110" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="5">
         <v>209</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="5">
         <v>189</v>
       </c>
-      <c r="F110" s="19" t="s">
+      <c r="F110" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G110" s="8">
+      <c r="G110" s="7">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="H110" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I110" s="30" t="s">
+      <c r="H110" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I110" s="29" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="111" ht="15.6" spans="1:9">
-      <c r="A111" s="18" t="s">
+    <row r="111" spans="1:9" ht="15.75">
+      <c r="A111" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="5">
         <v>135</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="5">
         <v>109</v>
       </c>
-      <c r="F111" s="19" t="s">
+      <c r="F111" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G111" s="8">
+      <c r="G111" s="7">
         <f t="shared" si="1"/>
         <v>10900</v>
       </c>
-      <c r="H111" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I111" s="30" t="s">
+      <c r="H111" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I111" s="29" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="112" ht="15.6" spans="1:9">
-      <c r="A112" s="3" t="s">
+    <row r="112" spans="1:9" ht="15.75">
+      <c r="A112" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="5">
         <v>106</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="5">
         <v>105</v>
       </c>
-      <c r="F112" s="7">
-        <v>0</v>
-      </c>
-      <c r="G112" s="8">
+      <c r="F112" s="6">
+        <v>0</v>
+      </c>
+      <c r="G112" s="7">
         <f t="shared" si="1"/>
         <v>10500</v>
       </c>
-      <c r="H112" s="9" t="s">
+      <c r="H112" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I112" s="30"/>
-    </row>
-    <row r="113" ht="15.6" spans="1:9">
-      <c r="A113" s="18" t="s">
+      <c r="I112" s="29" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15.75">
+      <c r="A113" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C113" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="5">
         <v>86</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="5">
         <v>84</v>
       </c>
-      <c r="F113" s="7">
-        <v>0</v>
-      </c>
-      <c r="G113" s="8">
+      <c r="F113" s="6">
+        <v>0</v>
+      </c>
+      <c r="G113" s="7">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-      <c r="H113" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I113" s="30"/>
-    </row>
-    <row r="114" ht="15.6" spans="1:9">
-      <c r="A114" s="18" t="s">
+      <c r="H113" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I113" s="29" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15.75">
+      <c r="A114" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="5">
         <v>86</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="5">
         <v>84</v>
       </c>
-      <c r="F114" s="7">
-        <v>0</v>
-      </c>
-      <c r="G114" s="8">
+      <c r="F114" s="6">
+        <v>0</v>
+      </c>
+      <c r="G114" s="7">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-      <c r="H114" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I114" s="30"/>
-    </row>
-    <row r="115" ht="15.6" spans="1:9">
-      <c r="A115" s="18" t="s">
+      <c r="H114" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" s="29" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15.75">
+      <c r="A115" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="5">
         <v>86</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="5">
         <v>84</v>
       </c>
-      <c r="F115" s="7">
-        <v>0</v>
-      </c>
-      <c r="G115" s="8">
+      <c r="F115" s="6">
+        <v>0</v>
+      </c>
+      <c r="G115" s="7">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-      <c r="H115" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I115" s="30"/>
-    </row>
-    <row r="116" ht="15.6" spans="1:9">
-      <c r="A116" s="10" t="s">
+      <c r="H115" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I115" s="29" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15.75">
+      <c r="A116" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D116" s="13">
+      <c r="D116" s="12">
         <v>106</v>
       </c>
-      <c r="E116" s="32">
+      <c r="E116" s="31">
         <v>104</v>
       </c>
-      <c r="F116" s="7">
-        <v>0</v>
-      </c>
-      <c r="G116" s="8">
+      <c r="F116" s="6">
+        <v>0</v>
+      </c>
+      <c r="G116" s="7">
         <f t="shared" si="1"/>
         <v>10400</v>
       </c>
-      <c r="H116" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I116" s="30"/>
-    </row>
-    <row r="117" ht="15.6" spans="1:9">
-      <c r="A117" s="18" t="s">
+      <c r="H116" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I116" s="29" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15.75">
+      <c r="A117" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="5">
         <v>8.6</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="5">
         <v>8.6</v>
       </c>
-      <c r="F117" s="7">
-        <v>0</v>
-      </c>
-      <c r="G117" s="8">
+      <c r="F117" s="6">
+        <v>0</v>
+      </c>
+      <c r="G117" s="7">
         <f t="shared" si="1"/>
         <v>860</v>
       </c>
-      <c r="H117" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I117" s="30" t="s">
+      <c r="H117" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I117" s="29" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="118" ht="15.6" spans="1:9">
-      <c r="A118" s="18" t="s">
+    <row r="118" spans="1:9" ht="15.75">
+      <c r="A118" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D118" s="5">
         <v>8</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="5">
         <v>8</v>
       </c>
-      <c r="F118" s="7">
-        <v>0</v>
-      </c>
-      <c r="G118" s="8">
+      <c r="F118" s="6">
+        <v>0</v>
+      </c>
+      <c r="G118" s="7">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H118" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I118" s="30" t="s">
+      <c r="H118" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I118" s="29" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="119" ht="15.6" spans="1:9">
-      <c r="A119" s="18" t="s">
+    <row r="119" spans="1:9" ht="15.75">
+      <c r="A119" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="D119" s="6">
+      <c r="D119" s="5">
         <v>8</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="5">
         <v>8</v>
       </c>
-      <c r="F119" s="7">
-        <v>0</v>
-      </c>
-      <c r="G119" s="8">
+      <c r="F119" s="6">
+        <v>0</v>
+      </c>
+      <c r="G119" s="7">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H119" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I119" s="30" t="s">
+      <c r="H119" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" s="29" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="120" ht="15.6" spans="1:9">
-      <c r="A120" s="18" t="s">
+    <row r="120" spans="1:9" ht="15.75">
+      <c r="A120" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C120" s="17" t="s">
+      <c r="C120" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D120" s="5">
         <v>8</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E120" s="5">
         <v>8</v>
       </c>
-      <c r="F120" s="7">
-        <v>0</v>
-      </c>
-      <c r="G120" s="8">
+      <c r="F120" s="6">
+        <v>0</v>
+      </c>
+      <c r="G120" s="7">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H120" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I120" s="30" t="s">
+      <c r="H120" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I120" s="29" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="121" ht="15.6" spans="1:9">
-      <c r="A121" s="18" t="s">
+    <row r="121" spans="1:9" ht="15.75">
+      <c r="A121" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D121" s="5">
         <v>12.5</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="5">
         <v>12.5</v>
       </c>
-      <c r="F121" s="7">
-        <v>0</v>
-      </c>
-      <c r="G121" s="8">
+      <c r="F121" s="6">
+        <v>0</v>
+      </c>
+      <c r="G121" s="7">
         <f t="shared" si="1"/>
         <v>1250</v>
       </c>
-      <c r="H121" s="14" t="s">
+      <c r="H121" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="I121" s="30" t="s">
+      <c r="I121" s="29" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="122" ht="15.6" spans="1:9">
-      <c r="A122" s="18" t="s">
+    <row r="122" spans="1:9" ht="15.75">
+      <c r="A122" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C122" s="15" t="s">
+      <c r="C122" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="D122" s="13">
+      <c r="D122" s="12">
         <v>69</v>
       </c>
-      <c r="E122" s="32">
+      <c r="E122" s="31">
         <v>69</v>
       </c>
-      <c r="F122" s="7">
-        <v>0</v>
-      </c>
-      <c r="G122" s="8">
+      <c r="F122" s="6">
+        <v>0</v>
+      </c>
+      <c r="G122" s="7">
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="H122" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I122" s="30"/>
-    </row>
-    <row r="123" ht="15.6" spans="1:9">
-      <c r="A123" s="18" t="s">
+      <c r="H122" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I122" s="29" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15.75">
+      <c r="A123" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C123" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="D123" s="13">
+      <c r="D123" s="12">
         <v>69</v>
       </c>
-      <c r="E123" s="32">
+      <c r="E123" s="31">
         <v>69</v>
       </c>
-      <c r="F123" s="7">
-        <v>0</v>
-      </c>
-      <c r="G123" s="8">
+      <c r="F123" s="6">
+        <v>0</v>
+      </c>
+      <c r="G123" s="7">
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="H123" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I123" s="30"/>
-    </row>
-    <row r="124" ht="15.6" spans="1:9">
-      <c r="A124" s="18" t="s">
+      <c r="H123" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I123" s="29" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15.75">
+      <c r="A124" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="C124" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="D124" s="13">
+      <c r="D124" s="12">
         <v>69</v>
       </c>
-      <c r="E124" s="32">
+      <c r="E124" s="31">
         <v>69</v>
       </c>
-      <c r="F124" s="7">
-        <v>0</v>
-      </c>
-      <c r="G124" s="8">
+      <c r="F124" s="6">
+        <v>0</v>
+      </c>
+      <c r="G124" s="7">
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="H124" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I124" s="30"/>
-    </row>
-    <row r="125" ht="15.6" spans="1:9">
-      <c r="A125" s="18" t="s">
+      <c r="H124" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I124" s="29" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15.75">
+      <c r="A125" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C125" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D125" s="5">
         <v>89</v>
       </c>
-      <c r="E125" s="6">
+      <c r="E125" s="5">
         <v>89</v>
       </c>
-      <c r="F125" s="19" t="s">
+      <c r="F125" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G125" s="7">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H125" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I125" s="30"/>
-    </row>
-    <row r="126" ht="15.6" spans="1:9">
-      <c r="A126" s="18" t="s">
+      <c r="H125" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I125" s="29" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15.75">
+      <c r="A126" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C126" s="17" t="s">
+      <c r="C126" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D126" s="5">
         <v>89</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E126" s="5">
         <v>89</v>
       </c>
-      <c r="F126" s="19" t="s">
+      <c r="F126" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G126" s="7">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H126" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I126" s="30"/>
-    </row>
-    <row r="127" ht="15.6" spans="1:9">
-      <c r="A127" s="18" t="s">
+      <c r="H126" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I126" s="29" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15.75">
+      <c r="A127" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="C127" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D127" s="5">
         <v>89</v>
       </c>
-      <c r="E127" s="6">
+      <c r="E127" s="5">
         <v>89</v>
       </c>
-      <c r="F127" s="19" t="s">
+      <c r="F127" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G127" s="8">
+      <c r="G127" s="7">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H127" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I127" s="30"/>
-    </row>
-    <row r="128" ht="15.6" spans="1:9">
-      <c r="A128" s="18" t="s">
+      <c r="H127" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I127" s="29" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15.75">
+      <c r="A128" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="D128" s="6">
+      <c r="D128" s="5">
         <v>39.9</v>
       </c>
-      <c r="E128" s="6">
+      <c r="E128" s="5">
         <v>39.9</v>
       </c>
-      <c r="F128" s="19" t="s">
+      <c r="F128" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G128" s="8">
+      <c r="G128" s="7">
         <f t="shared" si="1"/>
         <v>3990</v>
       </c>
-      <c r="H128" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I128" s="30"/>
-    </row>
-    <row r="129" ht="15.6" spans="1:9">
-      <c r="A129" s="18" t="s">
+      <c r="H128" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" s="29" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15.75">
+      <c r="A129" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C129" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="5">
         <v>469</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E129" s="5">
         <v>449</v>
       </c>
-      <c r="F129" s="19" t="s">
+      <c r="F129" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G129" s="8">
+      <c r="G129" s="7">
         <f t="shared" si="1"/>
         <v>44900</v>
       </c>
-      <c r="H129" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I129" s="30" t="s">
+      <c r="H129" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" s="29" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="130" ht="15.6" spans="1:9">
-      <c r="A130" s="18" t="s">
+    <row r="130" spans="1:9" ht="15.75">
+      <c r="A130" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="D130" s="13">
+      <c r="D130" s="12">
         <v>79</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E130" s="5">
         <v>79</v>
       </c>
-      <c r="F130" s="19" t="s">
+      <c r="F130" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G130" s="8">
+      <c r="G130" s="7">
         <f t="shared" ref="G130:G175" si="2">E130*100</f>
         <v>7900</v>
       </c>
-      <c r="H130" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I130" s="30"/>
-    </row>
-    <row r="131" ht="15.6" spans="1:9">
-      <c r="A131" s="18" t="s">
+      <c r="H130" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I130" s="29" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15.75">
+      <c r="A131" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C131" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="D131" s="13">
+      <c r="C131" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="D131" s="12">
         <v>159</v>
       </c>
-      <c r="E131" s="6">
+      <c r="E131" s="5">
         <v>159</v>
       </c>
-      <c r="F131" s="19" t="s">
+      <c r="F131" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G131" s="8">
+      <c r="G131" s="7">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H131" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I131" s="30"/>
-    </row>
-    <row r="132" ht="15.6" spans="1:9">
-      <c r="A132" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="B132" s="4" t="s">
+      <c r="H131" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I131" s="29" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15.75">
+      <c r="A132" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C132" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="D132" s="13">
+      <c r="C132" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="D132" s="12">
         <v>159</v>
       </c>
-      <c r="E132" s="6">
+      <c r="E132" s="5">
         <v>159</v>
       </c>
-      <c r="F132" s="19" t="s">
+      <c r="F132" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G132" s="8">
+      <c r="G132" s="7">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H132" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I132" s="30"/>
-    </row>
-    <row r="133" ht="15.6" spans="1:9">
-      <c r="A133" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="B133" s="4" t="s">
+      <c r="H132" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I132" s="29" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15.75">
+      <c r="A133" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C133" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="D133" s="13">
+      <c r="C133" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="D133" s="12">
         <v>159</v>
       </c>
-      <c r="E133" s="6">
+      <c r="E133" s="5">
         <v>159</v>
       </c>
-      <c r="F133" s="19" t="s">
+      <c r="F133" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G133" s="8">
+      <c r="G133" s="7">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H133" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I133" s="30"/>
-    </row>
-    <row r="134" ht="15.6" spans="1:9">
-      <c r="A134" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="B134" s="4" t="s">
+      <c r="H133" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="32" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15.75">
+      <c r="A134" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C134" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="D134" s="13">
+      <c r="C134" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="D134" s="12">
         <v>159</v>
       </c>
-      <c r="E134" s="6">
+      <c r="E134" s="5">
         <v>159</v>
       </c>
-      <c r="F134" s="19" t="s">
+      <c r="F134" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G134" s="8">
+      <c r="G134" s="7">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H134" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I134" s="30"/>
-    </row>
-    <row r="135" ht="15.6" spans="1:9">
-      <c r="A135" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="B135" s="4" t="s">
+      <c r="H134" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" s="32" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15.75">
+      <c r="A135" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C135" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="D135" s="13">
+      <c r="C135" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D135" s="12">
         <v>79</v>
       </c>
-      <c r="E135" s="6">
+      <c r="E135" s="5">
         <v>79</v>
       </c>
-      <c r="F135" s="19" t="s">
+      <c r="F135" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G135" s="8">
+      <c r="G135" s="7">
         <f t="shared" si="2"/>
         <v>7900</v>
       </c>
-      <c r="H135" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I135" s="30"/>
-    </row>
-    <row r="136" ht="15.6" spans="1:9">
-      <c r="A136" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="B136" s="4" t="s">
+      <c r="H135" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I135" s="32" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15.75">
+      <c r="A136" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C136" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="D136" s="13">
+      <c r="C136" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D136" s="12">
         <v>79</v>
       </c>
-      <c r="E136" s="6">
+      <c r="E136" s="5">
         <v>79</v>
       </c>
-      <c r="F136" s="19" t="s">
+      <c r="F136" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G136" s="8">
+      <c r="G136" s="7">
         <f t="shared" si="2"/>
         <v>7900</v>
       </c>
-      <c r="H136" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I136" s="30"/>
-    </row>
-    <row r="137" ht="15.6" spans="1:9">
-      <c r="A137" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D137" s="13">
+      <c r="H136" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" s="32" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15.75">
+      <c r="A137" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D137" s="12">
         <v>289</v>
       </c>
-      <c r="E137" s="13">
+      <c r="E137" s="12">
         <v>279</v>
       </c>
-      <c r="F137" s="7">
-        <v>0</v>
-      </c>
-      <c r="G137" s="8">
+      <c r="F137" s="6">
+        <v>0</v>
+      </c>
+      <c r="G137" s="7">
         <f t="shared" si="2"/>
         <v>27900</v>
       </c>
-      <c r="H137" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I137" s="30" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="138" ht="15.6" spans="1:9">
-      <c r="A138" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="B138" s="11" t="s">
+      <c r="H137" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I137" s="29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15.75">
+      <c r="A138" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C138" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C138" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="D138" s="6">
+      <c r="D138" s="5">
         <v>199</v>
       </c>
-      <c r="E138" s="6">
+      <c r="E138" s="5">
         <v>169</v>
       </c>
-      <c r="F138" s="19" t="s">
+      <c r="F138" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G138" s="8">
+      <c r="G138" s="7">
         <f t="shared" si="2"/>
         <v>16900</v>
       </c>
-      <c r="H138" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I138" s="30" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="139" ht="15.6" spans="1:9">
-      <c r="A139" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="D139" s="6">
+      <c r="H138" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I138" s="29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15.75">
+      <c r="A139" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D139" s="5">
         <v>8.1</v>
       </c>
-      <c r="E139" s="6">
+      <c r="E139" s="5">
         <v>8.1</v>
       </c>
-      <c r="F139" s="7">
-        <v>0</v>
-      </c>
-      <c r="G139" s="8">
+      <c r="F139" s="6">
+        <v>0</v>
+      </c>
+      <c r="G139" s="7">
         <f t="shared" si="2"/>
         <v>810</v>
       </c>
-      <c r="H139" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I139" s="30" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="140" ht="15.6" spans="1:9">
-      <c r="A140" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="B140" s="4" t="s">
+      <c r="H139" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I139" s="29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15.75">
+      <c r="A140" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C140" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C140" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="D140" s="6">
+      <c r="D140" s="5">
         <v>3.3</v>
       </c>
-      <c r="E140" s="6">
+      <c r="E140" s="5">
         <v>3.3</v>
       </c>
-      <c r="F140" s="7">
-        <v>0</v>
-      </c>
-      <c r="G140" s="8">
+      <c r="F140" s="6">
+        <v>0</v>
+      </c>
+      <c r="G140" s="7">
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
-      <c r="H140" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I140" s="30" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="141" ht="15.6" spans="1:9">
-      <c r="A141" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="D141" s="6">
+      <c r="H140" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" s="29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15.75">
+      <c r="A141" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D141" s="5">
         <v>11.5</v>
       </c>
-      <c r="E141" s="6">
+      <c r="E141" s="5">
         <v>11.5</v>
       </c>
-      <c r="F141" s="7">
-        <v>0</v>
-      </c>
-      <c r="G141" s="8">
+      <c r="F141" s="6">
+        <v>0</v>
+      </c>
+      <c r="G141" s="7">
         <f t="shared" si="2"/>
         <v>1150</v>
       </c>
-      <c r="H141" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I141" s="30" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="142" ht="15.6" spans="1:9">
-      <c r="A142" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="D142" s="6">
+      <c r="H141" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" s="29" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15.75">
+      <c r="A142" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D142" s="5">
         <v>449</v>
       </c>
-      <c r="E142" s="6">
+      <c r="E142" s="5">
         <v>399</v>
       </c>
-      <c r="F142" s="7">
-        <v>0</v>
-      </c>
-      <c r="G142" s="8">
+      <c r="F142" s="6">
+        <v>0</v>
+      </c>
+      <c r="G142" s="7">
         <f t="shared" si="2"/>
         <v>39900</v>
       </c>
-      <c r="H142" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I142" s="30" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="143" ht="15.6" spans="1:9">
-      <c r="A143" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="D143" s="6">
+      <c r="H142" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" s="29" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15.75">
+      <c r="A143" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D143" s="5">
         <v>2.6</v>
       </c>
-      <c r="E143" s="6">
+      <c r="E143" s="5">
         <v>2.6</v>
       </c>
-      <c r="F143" s="7">
-        <v>0</v>
-      </c>
-      <c r="G143" s="8">
+      <c r="F143" s="6">
+        <v>0</v>
+      </c>
+      <c r="G143" s="7">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="H143" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I143" s="30" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="144" ht="15.6" spans="1:9">
-      <c r="A144" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="D144" s="13">
+      <c r="H143" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I143" s="29" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15.75">
+      <c r="A144" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="D144" s="12">
         <v>259</v>
       </c>
-      <c r="E144" s="13">
+      <c r="E144" s="12">
         <v>259</v>
       </c>
-      <c r="F144" s="7">
-        <v>0</v>
-      </c>
-      <c r="G144" s="8">
+      <c r="F144" s="6">
+        <v>0</v>
+      </c>
+      <c r="G144" s="7">
         <f t="shared" si="2"/>
         <v>25900</v>
       </c>
-      <c r="H144" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I144" s="30" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="145" ht="15.6" spans="1:9">
-      <c r="A145" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="B145" s="14" t="s">
+      <c r="H144" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" s="29" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15.75">
+      <c r="A145" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="C145" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="C145" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="D145" s="6">
+      <c r="D145" s="5">
         <v>269</v>
       </c>
-      <c r="E145" s="6">
+      <c r="E145" s="5">
         <v>269</v>
       </c>
-      <c r="F145" s="19" t="s">
+      <c r="F145" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G145" s="8">
+      <c r="G145" s="7">
         <f t="shared" si="2"/>
         <v>26900</v>
       </c>
-      <c r="H145" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I145" s="30" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="146" ht="15.6" spans="1:9">
-      <c r="A146" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="D146" s="6">
+      <c r="H145" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I145" s="29" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15.75">
+      <c r="A146" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="D146" s="5">
         <v>129</v>
       </c>
-      <c r="E146" s="6">
+      <c r="E146" s="5">
         <v>129</v>
       </c>
-      <c r="F146" s="19" t="s">
+      <c r="F146" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G146" s="8">
+      <c r="G146" s="7">
         <f t="shared" si="2"/>
         <v>12900</v>
       </c>
-      <c r="H146" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I146" s="30" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="147" ht="15.6" spans="1:9">
-      <c r="A147" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="D147" s="6">
+      <c r="H146" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="29" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15.75">
+      <c r="A147" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D147" s="5">
         <v>1999</v>
       </c>
-      <c r="E147" s="6">
+      <c r="E147" s="5">
         <v>1499</v>
       </c>
-      <c r="F147" s="19" t="s">
+      <c r="F147" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G147" s="8">
+      <c r="G147" s="7">
         <f t="shared" si="2"/>
         <v>149900</v>
       </c>
-      <c r="H147" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I147" s="30" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="148" ht="15.6" spans="1:9">
-      <c r="A148" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="D148" s="6">
+      <c r="H147" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" s="29" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15.75">
+      <c r="A148" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D148" s="5">
         <v>9.1</v>
       </c>
-      <c r="E148" s="6">
+      <c r="E148" s="5">
         <v>9.1</v>
       </c>
-      <c r="F148" s="7">
-        <v>0</v>
-      </c>
-      <c r="G148" s="8">
+      <c r="F148" s="6">
+        <v>0</v>
+      </c>
+      <c r="G148" s="7">
         <f t="shared" si="2"/>
         <v>910</v>
       </c>
-      <c r="H148" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I148" s="30" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="149" ht="15.6" spans="1:9">
-      <c r="A149" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="D149" s="6">
+      <c r="H148" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I148" s="29" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15.75">
+      <c r="A149" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="D149" s="5">
         <v>16.5</v>
       </c>
-      <c r="E149" s="6">
+      <c r="E149" s="5">
         <v>16.5</v>
       </c>
-      <c r="F149" s="7">
-        <v>0</v>
-      </c>
-      <c r="G149" s="8">
+      <c r="F149" s="6">
+        <v>0</v>
+      </c>
+      <c r="G149" s="7">
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-      <c r="H149" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I149" s="30" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="150" ht="15.6" spans="1:9">
-      <c r="A150" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="D150" s="6">
-        <v>18.9</v>
-      </c>
-      <c r="E150" s="6">
-        <v>18.9</v>
-      </c>
-      <c r="F150" s="7">
-        <v>0</v>
-      </c>
-      <c r="G150" s="8">
+      <c r="H149" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" s="29" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15.75">
+      <c r="A150" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="D150" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E150" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F150" s="6">
+        <v>0</v>
+      </c>
+      <c r="G150" s="7">
         <f t="shared" si="2"/>
         <v>1890</v>
       </c>
-      <c r="H150" s="9" t="s">
+      <c r="H150" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I150" s="30"/>
-    </row>
-    <row r="151" ht="15.6" spans="1:9">
-      <c r="A151" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="D151" s="6">
+      <c r="I150" s="29" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15.75">
+      <c r="A151" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="D151" s="5">
         <v>30</v>
       </c>
-      <c r="E151" s="6">
+      <c r="E151" s="5">
         <v>30</v>
       </c>
-      <c r="F151" s="7">
-        <v>0</v>
-      </c>
-      <c r="G151" s="8">
+      <c r="F151" s="6">
+        <v>0</v>
+      </c>
+      <c r="G151" s="7">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="H151" s="9" t="s">
+      <c r="H151" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I151" s="30" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="152" ht="15.6" spans="1:9">
-      <c r="A152" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="B152" s="4" t="s">
+      <c r="I151" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="C152" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="D152" s="6">
+    </row>
+    <row r="152" spans="1:9" ht="15.75">
+      <c r="A152" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="D152" s="5">
         <v>36</v>
       </c>
-      <c r="E152" s="6">
+      <c r="E152" s="5">
         <v>36</v>
       </c>
-      <c r="F152" s="7">
-        <v>0</v>
-      </c>
-      <c r="G152" s="8">
+      <c r="F152" s="6">
+        <v>0</v>
+      </c>
+      <c r="G152" s="7">
         <f t="shared" si="2"/>
         <v>3600</v>
       </c>
-      <c r="H152" s="9" t="s">
+      <c r="H152" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I152" s="30"/>
-    </row>
-    <row r="153" ht="15.6" spans="1:9">
-      <c r="A153" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="D153" s="6">
+      <c r="I152" s="29" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15.75">
+      <c r="A153" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="D153" s="5">
         <v>35</v>
       </c>
-      <c r="E153" s="6">
+      <c r="E153" s="5">
         <v>35</v>
       </c>
-      <c r="F153" s="7">
-        <v>0</v>
-      </c>
-      <c r="G153" s="8">
+      <c r="F153" s="6">
+        <v>0</v>
+      </c>
+      <c r="G153" s="7">
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="H153" s="9" t="s">
+      <c r="H153" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I153" s="30" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="154" ht="15.6" spans="1:9">
-      <c r="A154" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="D154" s="6">
+      <c r="I153" s="29" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15.75">
+      <c r="A154" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="D154" s="5">
         <v>35</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E154" s="5">
         <v>35</v>
       </c>
-      <c r="F154" s="7">
-        <v>0</v>
-      </c>
-      <c r="G154" s="8">
+      <c r="F154" s="6">
+        <v>0</v>
+      </c>
+      <c r="G154" s="7">
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="H154" s="9" t="s">
+      <c r="H154" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I154" s="30" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="155" ht="15.6" spans="1:9">
-      <c r="A155" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="D155" s="6">
+      <c r="I154" s="29" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15.75">
+      <c r="A155" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="D155" s="5">
         <v>40</v>
       </c>
-      <c r="E155" s="6">
+      <c r="E155" s="5">
         <v>40</v>
       </c>
-      <c r="F155" s="7">
-        <v>0</v>
-      </c>
-      <c r="G155" s="8">
+      <c r="F155" s="6">
+        <v>0</v>
+      </c>
+      <c r="G155" s="7">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="H155" s="9" t="s">
+      <c r="H155" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I155" s="30" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="156" ht="15.6" spans="1:9">
-      <c r="A156" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="D156" s="6">
+      <c r="I155" s="29" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="15.75">
+      <c r="A156" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D156" s="5">
         <v>50</v>
       </c>
-      <c r="E156" s="6">
+      <c r="E156" s="5">
         <v>50</v>
       </c>
-      <c r="F156" s="7">
-        <v>0</v>
-      </c>
-      <c r="G156" s="8">
+      <c r="F156" s="6">
+        <v>0</v>
+      </c>
+      <c r="G156" s="7">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="H156" s="9" t="s">
+      <c r="H156" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I156" s="30" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="157" ht="15.6" spans="1:9">
-      <c r="A157" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="D157" s="6">
+      <c r="I156" s="29" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15.75">
+      <c r="A157" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="D157" s="5">
         <v>15</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E157" s="5">
         <v>15</v>
       </c>
-      <c r="F157" s="7">
-        <v>0</v>
-      </c>
-      <c r="G157" s="8">
+      <c r="F157" s="6">
+        <v>0</v>
+      </c>
+      <c r="G157" s="7">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="H157" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I157" s="30" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="158" ht="15.6" spans="1:9">
-      <c r="A158" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="D158" s="6">
+      <c r="H157" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I157" s="29" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15.75">
+      <c r="A158" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D158" s="5">
         <v>7.9</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E158" s="5">
         <v>7.9</v>
       </c>
-      <c r="F158" s="7">
-        <v>0</v>
-      </c>
-      <c r="G158" s="8">
+      <c r="F158" s="6">
+        <v>0</v>
+      </c>
+      <c r="G158" s="7">
         <f t="shared" si="2"/>
         <v>790</v>
       </c>
-      <c r="H158" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I158" s="30" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="159" ht="15.6" spans="1:9">
-      <c r="A159" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="D159" s="6">
+      <c r="H158" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15.75">
+      <c r="A159" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="D159" s="5">
         <v>299</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E159" s="5">
         <v>299</v>
       </c>
-      <c r="F159" s="19" t="s">
+      <c r="F159" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G159" s="8">
+      <c r="G159" s="7">
         <f t="shared" si="2"/>
         <v>29900</v>
       </c>
-      <c r="H159" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I159" s="30" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="160" ht="15.6" spans="1:9">
-      <c r="A160" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="B160" s="14" t="s">
+      <c r="H159" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I159" s="29" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15.75">
+      <c r="A160" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C160" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="C160" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="D160" s="6">
+      <c r="D160" s="5">
         <v>229</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E160" s="5">
         <v>229</v>
       </c>
-      <c r="F160" s="19" t="s">
+      <c r="F160" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G160" s="8">
+      <c r="G160" s="7">
         <f t="shared" si="2"/>
         <v>22900</v>
       </c>
-      <c r="H160" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I160" s="30" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="161" ht="15.6" spans="1:9">
-      <c r="A161" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D161" s="6">
+      <c r="H160" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I160" s="29" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="15.75">
+      <c r="A161" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D161" s="5">
         <v>309</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E161" s="5">
         <v>299</v>
       </c>
-      <c r="F161" s="7">
-        <v>0</v>
-      </c>
-      <c r="G161" s="8">
+      <c r="F161" s="6">
+        <v>0</v>
+      </c>
+      <c r="G161" s="7">
         <f t="shared" si="2"/>
         <v>29900</v>
       </c>
-      <c r="H161" s="9" t="s">
+      <c r="H161" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I161" s="30" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="162" ht="15.6" spans="1:9">
-      <c r="A162" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="B162" s="4" t="s">
+      <c r="I161" s="29" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15.75">
+      <c r="A162" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="D162" s="6">
+      <c r="D162" s="5">
         <v>339</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E162" s="5">
         <v>329</v>
       </c>
-      <c r="F162" s="7">
-        <v>0</v>
-      </c>
-      <c r="G162" s="8">
+      <c r="F162" s="6">
+        <v>0</v>
+      </c>
+      <c r="G162" s="7">
         <f t="shared" si="2"/>
         <v>32900</v>
       </c>
-      <c r="H162" s="9" t="s">
+      <c r="H162" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I162" s="30" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="163" ht="15.6" spans="1:9">
-      <c r="A163" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="D163" s="6">
+      <c r="I162" s="29" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15.75">
+      <c r="A163" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="D163" s="5">
         <v>159</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E163" s="5">
         <v>156</v>
       </c>
-      <c r="F163" s="19" t="s">
+      <c r="F163" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G163" s="8">
+      <c r="G163" s="7">
         <f t="shared" si="2"/>
         <v>15600</v>
       </c>
-      <c r="H163" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I163" s="30" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="164" ht="15.6" spans="1:9">
-      <c r="A164" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="D164" s="6">
+      <c r="H163" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I163" s="29" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="15.75">
+      <c r="A164" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="D164" s="5">
         <v>159</v>
       </c>
-      <c r="E164" s="6">
+      <c r="E164" s="5">
         <v>156</v>
       </c>
-      <c r="F164" s="19" t="s">
+      <c r="F164" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G164" s="8">
+      <c r="G164" s="7">
         <f t="shared" si="2"/>
         <v>15600</v>
       </c>
-      <c r="H164" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I164" s="30" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="165" ht="15.6" spans="1:9">
-      <c r="A165" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="D165" s="6">
+      <c r="H164" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I164" s="29" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15.75">
+      <c r="A165" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="D165" s="5">
         <v>169</v>
       </c>
-      <c r="E165" s="6">
+      <c r="E165" s="5">
         <v>166</v>
       </c>
-      <c r="F165" s="19" t="s">
+      <c r="F165" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G165" s="8">
+      <c r="G165" s="7">
         <f t="shared" si="2"/>
         <v>16600</v>
       </c>
-      <c r="H165" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I165" s="30" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="166" ht="15.6" spans="1:9">
-      <c r="A166" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="D166" s="6">
+      <c r="H165" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I165" s="29" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15.75">
+      <c r="A166" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D166" s="5">
         <v>299</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E166" s="5">
         <v>189</v>
       </c>
-      <c r="F166" s="7">
-        <v>0</v>
-      </c>
-      <c r="G166" s="8">
+      <c r="F166" s="6">
+        <v>0</v>
+      </c>
+      <c r="G166" s="7">
         <f t="shared" si="2"/>
         <v>18900</v>
       </c>
-      <c r="H166" s="9" t="s">
+      <c r="H166" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I166" s="30" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="167" ht="15.6" spans="1:9">
-      <c r="A167" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="D167" s="6">
+      <c r="I166" s="29" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="15.75">
+      <c r="A167" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D167" s="5">
         <v>1899</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E167" s="5">
         <v>1399</v>
       </c>
-      <c r="F167" s="7">
-        <v>0</v>
-      </c>
-      <c r="G167" s="8">
+      <c r="F167" s="6">
+        <v>0</v>
+      </c>
+      <c r="G167" s="7">
         <f t="shared" si="2"/>
         <v>139900</v>
       </c>
-      <c r="H167" s="9" t="s">
+      <c r="H167" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I167" s="30" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="168" ht="15.6" spans="1:9">
-      <c r="A168" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="D168" s="6">
+      <c r="I167" s="29" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="15.75">
+      <c r="A168" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D168" s="5">
         <v>699</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E168" s="5">
         <v>499</v>
       </c>
-      <c r="F168" s="7">
-        <v>0</v>
-      </c>
-      <c r="G168" s="8">
+      <c r="F168" s="6">
+        <v>0</v>
+      </c>
+      <c r="G168" s="7">
         <f t="shared" si="2"/>
         <v>49900</v>
       </c>
-      <c r="H168" s="9" t="s">
+      <c r="H168" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I168" s="30" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="169" ht="15.6" spans="1:9">
-      <c r="A169" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="B169" s="4" t="s">
+      <c r="I168" s="29" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="15.75">
+      <c r="A169" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="D169" s="6">
+      <c r="D169" s="5">
         <v>299</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E169" s="5">
         <v>269</v>
       </c>
-      <c r="F169" s="7">
-        <v>0</v>
-      </c>
-      <c r="G169" s="8">
+      <c r="F169" s="6">
+        <v>0</v>
+      </c>
+      <c r="G169" s="7">
         <f t="shared" si="2"/>
         <v>26900</v>
       </c>
-      <c r="H169" s="9" t="s">
+      <c r="H169" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I169" s="30" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="170" ht="15.6" spans="1:9">
-      <c r="A170" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C170" s="5" t="s">
+      <c r="I169" s="29" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="15.75">
+      <c r="A170" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="6">
+      <c r="D170" s="5">
         <v>246</v>
       </c>
-      <c r="E170" s="6">
+      <c r="E170" s="5">
         <v>209</v>
       </c>
-      <c r="F170" s="7">
-        <v>0</v>
-      </c>
-      <c r="G170" s="8">
+      <c r="F170" s="6">
+        <v>0</v>
+      </c>
+      <c r="G170" s="7">
         <f t="shared" si="2"/>
         <v>20900</v>
       </c>
-      <c r="H170" s="9" t="s">
+      <c r="H170" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I170" s="30" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="171" ht="15.6" spans="1:9">
-      <c r="A171" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="D171" s="6">
+      <c r="I170" s="29" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="15.75">
+      <c r="A171" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D171" s="5">
         <v>179</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E171" s="5">
         <v>139</v>
       </c>
-      <c r="F171" s="7">
-        <v>0</v>
-      </c>
-      <c r="G171" s="8">
+      <c r="F171" s="6">
+        <v>0</v>
+      </c>
+      <c r="G171" s="7">
         <f t="shared" si="2"/>
         <v>13900</v>
       </c>
-      <c r="H171" s="9" t="s">
+      <c r="H171" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I171" s="30" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="172" ht="15.6" spans="1:9">
-      <c r="A172" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="D172" s="6">
+      <c r="I171" s="29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="15.75">
+      <c r="A172" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D172" s="5">
         <v>439</v>
       </c>
-      <c r="E172" s="6">
+      <c r="E172" s="5">
         <v>379</v>
       </c>
-      <c r="F172" s="7">
-        <v>0</v>
-      </c>
-      <c r="G172" s="8">
+      <c r="F172" s="6">
+        <v>0</v>
+      </c>
+      <c r="G172" s="7">
         <f t="shared" si="2"/>
         <v>37900</v>
       </c>
-      <c r="H172" s="9" t="s">
+      <c r="H172" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I172" s="30" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="173" ht="15.6" spans="1:9">
-      <c r="A173" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="D173" s="6">
+      <c r="I172" s="29" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="15.75">
+      <c r="A173" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D173" s="5">
         <v>1299</v>
       </c>
-      <c r="E173" s="6">
+      <c r="E173" s="5">
         <v>879</v>
       </c>
-      <c r="F173" s="7">
-        <v>0</v>
-      </c>
-      <c r="G173" s="8">
+      <c r="F173" s="6">
+        <v>0</v>
+      </c>
+      <c r="G173" s="7">
         <f t="shared" si="2"/>
         <v>87900</v>
       </c>
-      <c r="H173" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I173" s="30" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="174" ht="15.6" spans="1:9">
-      <c r="A174" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="D174" s="6">
+      <c r="H173" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I173" s="29" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="15.75">
+      <c r="A174" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D174" s="5">
         <v>1499</v>
       </c>
-      <c r="E174" s="6">
+      <c r="E174" s="5">
         <v>1049</v>
       </c>
-      <c r="F174" s="7">
-        <v>0</v>
-      </c>
-      <c r="G174" s="8">
+      <c r="F174" s="6">
+        <v>0</v>
+      </c>
+      <c r="G174" s="7">
         <f t="shared" si="2"/>
         <v>104900</v>
       </c>
-      <c r="H174" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I174" s="30" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="175" ht="15.6" spans="1:9">
-      <c r="A175" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="D175" s="6">
+      <c r="H174" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I174" s="29" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="15.75">
+      <c r="A175" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D175" s="5">
         <v>499</v>
       </c>
-      <c r="E175" s="6">
+      <c r="E175" s="5">
         <v>499</v>
       </c>
-      <c r="F175" s="7">
-        <v>0</v>
-      </c>
-      <c r="G175" s="8">
+      <c r="F175" s="6">
+        <v>0</v>
+      </c>
+      <c r="G175" s="7">
         <f t="shared" si="2"/>
         <v>49900</v>
       </c>
-      <c r="H175" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I175" s="30" t="s">
-        <v>526</v>
+      <c r="H175" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I175" s="29" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I175">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I175">
     <sortCondition ref="B2"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="I133" r:id="rId1" xr:uid="{319C9BC9-76CF-45A2-B659-D17E0CB66B3A}"/>
+    <hyperlink ref="I134" r:id="rId2" xr:uid="{61F80ABC-731C-4296-AF77-5CE92A47FFEE}"/>
+    <hyperlink ref="I135" r:id="rId3" xr:uid="{3DE10BFF-870E-4B35-92CC-28774DBF3008}"/>
+    <hyperlink ref="I136" r:id="rId4" xr:uid="{803222F2-3368-4D75-90F3-2E6BF550DC1D}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Along\Downloads\SCRC FEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688A55D2-7246-4BF9-9187-6CEA903A8F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A750E3B5-1B87-4D19-9437-901583562980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="554">
   <si>
     <t>SCF</t>
   </si>
@@ -68,9 +68,6 @@
     <t>ACERPURE</t>
   </si>
   <si>
-    <t>16" STAND FAN</t>
-  </si>
-  <si>
     <t>Start Effective 1/2/2025</t>
   </si>
   <si>
@@ -731,21 +728,12 @@
     <t>FELIZTRIP</t>
   </si>
   <si>
-    <t>FELIZTRIP TR-606-P35 TRAVEL ADAPTOR GaN. 100-250V .AC Current 1100W at 100V and 2500W at 250V. 2x USB C and 2X USB A Fast Charging PD 35W</t>
-  </si>
-  <si>
     <t>https://i.ibb.co/LX1ZZbTt/02-1.jpg</t>
   </si>
   <si>
     <t>SCF-100.TRP216GY</t>
   </si>
   <si>
-    <t>Premium Memory Foam Neck Pillow.</t>
-  </si>
-  <si>
-    <t>http://www.feliztrip.com/resources.jsmo.xin/templates/upload/11741/201809/1537671797926.jpg</t>
-  </si>
-  <si>
     <t>SCF-100.CAS3478</t>
   </si>
   <si>
@@ -779,9 +767,6 @@
     <t>GLADE</t>
   </si>
   <si>
-    <t>GLADE SCENT GEL TWINPACK LAVENDAR</t>
-  </si>
-  <si>
     <t>https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/9555222602590-550x550w.jpg</t>
   </si>
   <si>
@@ -800,18 +785,12 @@
     <t>GLO</t>
   </si>
   <si>
-    <t>GLO LIME 800ML</t>
-  </si>
-  <si>
     <t>https://down-my.img.susercontent.com/file/my-11134207-23030-r204efh9zcov6e</t>
   </si>
   <si>
     <t>SCF-100.GLO800ML_LEMON</t>
   </si>
   <si>
-    <t>GLo 800ML Lemon</t>
-  </si>
-  <si>
     <t>https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118534_1-glo-lemon-dishwash-liquid-800ml.png</t>
   </si>
   <si>
@@ -866,9 +845,6 @@
     <t>SCF-100.HW9PRO</t>
   </si>
   <si>
-    <t>Wet and Dry</t>
-  </si>
-  <si>
     <t>https://my-test-11.slatic.net/p/0732d76666de3df160b75fbe732cb839.jpg</t>
   </si>
   <si>
@@ -983,27 +959,18 @@
     <t>LAIFEN</t>
   </si>
   <si>
-    <t>ELEC.TOOTHBRUSH</t>
-  </si>
-  <si>
     <t>https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg</t>
   </si>
   <si>
     <t>SCF-100.MINI(G)</t>
   </si>
   <si>
-    <t>MINI GREEN</t>
-  </si>
-  <si>
     <t>https://www.tmt.my/data/editor/sc-product/17734/LAIFEN-MINI-HAIR-DRYER-1.jpg</t>
   </si>
   <si>
     <t>SCF-100.MINI(P)</t>
   </si>
   <si>
-    <t>MINI PINK</t>
-  </si>
-  <si>
     <t>SCF-100.4131ATB</t>
   </si>
   <si>
@@ -1031,18 +998,12 @@
     <t>SCF-100.C21RT103B</t>
   </si>
   <si>
-    <t>INDUCTION COOKER</t>
-  </si>
-  <si>
     <t>https://bestdenki.com.my/media/catalog/product/cache/2a8088cbba62dcb5f58fee75f12b2390/c/2/c21rt103b_1.jpg</t>
   </si>
   <si>
     <t>SCF-100.MFG150M0APB</t>
   </si>
   <si>
-    <t>TABLE CIRCULATION FAN</t>
-  </si>
-  <si>
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/id/MFG150M0APB-7.png/jcr:content/renditions/MFG150M0APB-7.webp</t>
   </si>
   <si>
@@ -1094,36 +1055,24 @@
     <t>SCF-100.MRMUSLE_PINE</t>
   </si>
   <si>
-    <t>MR MUSCLE PINE</t>
-  </si>
-  <si>
     <t>https://klec.jayagrocer.com/cdn/shop/files/012073-1-1.jpg?v=1726143318</t>
   </si>
   <si>
     <t>SCF-100.MRMUSLE_MAR</t>
   </si>
   <si>
-    <t>MR MUSCLE MARINE</t>
-  </si>
-  <si>
     <t>https://www.mycs.com.my/media/catalog/product/cache/309b0699a74d76e0528e3f5ac801b2c4/m/r/mr_muscle_deep_action_gel_toilet_cleaner_marine_2x500ml_side.png</t>
   </si>
   <si>
     <t>SCF-100.MRMUSLE_CITRUS</t>
   </si>
   <si>
-    <t>MR MUSCLE TOILET CLEANER CIT</t>
-  </si>
-  <si>
     <t>https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg</t>
   </si>
   <si>
     <t>SCF-SCRC-BASKIN.R</t>
   </si>
   <si>
-    <t>OTH</t>
-  </si>
-  <si>
     <t>Baskin Robbin Single Regular Scoop</t>
   </si>
   <si>
@@ -1274,9 +1223,6 @@
     <t>RHEEM</t>
   </si>
   <si>
-    <t>WATER HEATER</t>
-  </si>
-  <si>
     <t>https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
   </si>
   <si>
@@ -1328,9 +1274,6 @@
     <t>SAMSUNG</t>
   </si>
   <si>
-    <t>DOLBY ATMOS MUSIC FRAME</t>
-  </si>
-  <si>
     <t>https://shop.tbm.com.my/cdn/shop/files/samsung-smart-speaker-hw-ls60dxm-tbm-online-802131.jpg?v=1721415920&amp;width=1080</t>
   </si>
   <si>
@@ -1352,9 +1295,6 @@
     <t>SCOTT</t>
   </si>
   <si>
-    <t>SCOTT EXTRA BT REGULAR</t>
-  </si>
-  <si>
     <t>https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png</t>
   </si>
   <si>
@@ -1370,18 +1310,12 @@
     <t>SCF-100.C.CULTURE/C</t>
   </si>
   <si>
-    <t>SH CORPORATE CULTURE CHINESE</t>
-  </si>
-  <si>
     <t>https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/3/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg</t>
   </si>
   <si>
     <t>SCF-100.C.CULTURE/E</t>
   </si>
   <si>
-    <t>SH CORPORATE CULTURE ENGLISH</t>
-  </si>
-  <si>
     <t>SCF-100.DIGITAL.CHINESE</t>
   </si>
   <si>
@@ -1445,18 +1379,12 @@
     <t>SONY</t>
   </si>
   <si>
-    <t>Sony Wireless Earbuds</t>
-  </si>
-  <si>
     <t>https://store.sony.com.my/cdn/shop/files/Black_3_1200x.png?v=1725875367</t>
   </si>
   <si>
     <t>SCF-100.WHCH520</t>
   </si>
   <si>
-    <t>Sony Wireless Headphones</t>
-  </si>
-  <si>
     <t>https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha</t>
   </si>
   <si>
@@ -1484,27 +1412,18 @@
     <t>SCF-100.SVMISVZ4</t>
   </si>
   <si>
-    <t>Mini Shaver</t>
-  </si>
-  <si>
     <t>https://medias.watsons.com.my/publishing/WTCMY-1006572-back-thumbnail.jpg?version=1734763174</t>
   </si>
   <si>
     <t>SCF-100.SVMSBDO2</t>
   </si>
   <si>
-    <t>Multishave Trimmer</t>
-  </si>
-  <si>
     <t>https://stryv.my/cdn/shop/files/product_img_4_104ca71a-a713-4ef8-a6e1-4051b2333717.jpg?v=1704944460</t>
   </si>
   <si>
     <t>SCF-100.SVPSRBS9</t>
   </si>
   <si>
-    <t>SHAVER</t>
-  </si>
-  <si>
     <t>https://www.gaincity.com/media/catalog/product/cache/6c6c50d4c233a553cee4f0d7353c6a74/t/0/t0193461-svpsrbs9-01.png</t>
   </si>
   <si>
@@ -1514,9 +1433,6 @@
     <t>TEFAL</t>
   </si>
   <si>
-    <t>Cookware DBD 4pc Set</t>
-  </si>
-  <si>
     <t>https://cdn.homepro.com.my/ART_IMAGE/10/632/1063236/447x447/05082022_1063236$Imagex1.jpg</t>
   </si>
   <si>
@@ -1526,9 +1442,6 @@
     <t>TESVOR</t>
   </si>
   <si>
-    <t>ROBOTIC WITH MOP</t>
-  </si>
-  <si>
     <t>https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg</t>
   </si>
   <si>
@@ -1538,18 +1451,12 @@
     <t>TOSHIBA</t>
   </si>
   <si>
-    <t>7.4L Digital Air Fryer</t>
-  </si>
-  <si>
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/air-fryer/-af-74cs1trmy(h)---7-4l-digital-air-fryer/AF-74CS1TRMY-H-FrontLeft.png/jcr:content/renditions/cq5dam.compression.png</t>
   </si>
   <si>
     <t>SCF-100.BL70PR2NMY</t>
   </si>
   <si>
-    <t>2.0L Plastic Jug Blender with Grinder</t>
-  </si>
-  <si>
     <t>https://cdn1.npcdn.net/images/3a143ca14f81879847ea675d0bf01893_1718007770.webp?md5id=a6cff0397725a493ba4047565693f84a&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1717063294&amp;from=png&amp;type=1</t>
   </si>
   <si>
@@ -1562,27 +1469,18 @@
     <t>SCF-100.FTSA20(G)MY</t>
   </si>
   <si>
-    <t>16" TABLE FAN</t>
-  </si>
-  <si>
     <t>https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001</t>
   </si>
   <si>
     <t>SCF-100.RC18DR1NMY</t>
   </si>
   <si>
-    <t>1.8L DIGITAL RICE COOKER</t>
-  </si>
-  <si>
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/1-8l-digital-rice-cooker-rc-18dr1nmy/gallery2.png</t>
   </si>
   <si>
     <t>SCF-100.A1</t>
   </si>
   <si>
-    <t>ROBOTIC VACUUM</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_UF1000,1000_QL80_.jpg</t>
   </si>
   <si>
@@ -1598,9 +1496,6 @@
     <t>THULE</t>
   </si>
   <si>
-    <t>THULE TACT WAISTPACK 5L-BLACK</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/612whrpX5FL._AC_UF1000,1000_QL80_.jpg</t>
   </si>
   <si>
@@ -1692,6 +1587,114 @@
   </si>
   <si>
     <t>https://i.ibb.co/TxfL8mYs/New-Project-2.png</t>
+  </si>
+  <si>
+    <t>Acerpure Cozy | Acerpure SF1 AF374-20K DC Stand Fan (Black)</t>
+  </si>
+  <si>
+    <t>GLO Lemon 800ml</t>
+  </si>
+  <si>
+    <t>GLO Lime 800ml</t>
+  </si>
+  <si>
+    <t>CORDLESS VACUUM &amp; WASHER | Voice Assistant &amp; Brushroll Air-drying</t>
+  </si>
+  <si>
+    <t>Smart Electric ABS Toothbrush Wave with IPX7</t>
+  </si>
+  <si>
+    <t>Laifen Mini High-Speed Hair Dryer</t>
+  </si>
+  <si>
+    <t>2100W Induction Cooker</t>
+  </si>
+  <si>
+    <t>Table Circulation Fan (6") 3 Blade</t>
+  </si>
+  <si>
+    <t>Mr Muscle Toilet Bowl Cleaner Pine (500ml) PINE</t>
+  </si>
+  <si>
+    <t>Mr Muscle Toilet Bowl Cleaner Pine (500ml) MARINE</t>
+  </si>
+  <si>
+    <t>Mr Muscle Toilet Bowl Cleaner Pine (500ml) CITRUS</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Electric Instant Water Heater</t>
+  </si>
+  <si>
+    <t>Music Frame HW-LS60D Frame Design Wireless Speaker (2024)</t>
+  </si>
+  <si>
+    <t>Scott Extra Regular Bath Tissue 2Ply 20 rolls</t>
+  </si>
+  <si>
+    <t>SH CORPORATE CULTURE BOOK - CHINESE</t>
+  </si>
+  <si>
+    <t>SH CORPORATE CULTURE BOOK - ENGLISH</t>
+  </si>
+  <si>
+    <t>WF-C510 Truly Wireless Headphones</t>
+  </si>
+  <si>
+    <t>WH-CH520 Wireless Headphones</t>
+  </si>
+  <si>
+    <t>stryv Mini Shaver</t>
+  </si>
+  <si>
+    <t>stryv Multishave Trimmer</t>
+  </si>
+  <si>
+    <t>stryv ProShave - IPX7 Waterproof Shaver</t>
+  </si>
+  <si>
+    <t>Tefal Day by Day 4-Piece Set (FP24cm+SCP18cm+Small Spatula)</t>
+  </si>
+  <si>
+    <t>Tesvor S6 Robot Vacuum with Mop</t>
+  </si>
+  <si>
+    <t>Menu-IQ 7.4L Digital Air Fryer</t>
+  </si>
+  <si>
+    <t>700W Multifunction Blender - 2.0L</t>
+  </si>
+  <si>
+    <t>16inch Stand Fan | 5 Fan Blades Design</t>
+  </si>
+  <si>
+    <t>16inch Table Fan | 5 Fan Blades Design</t>
+  </si>
+  <si>
+    <t>1.8L Digital Rice Cooker - Gold</t>
+  </si>
+  <si>
+    <t>Tesvor A1 2-in-1 Robot Vacuum | Vacuum &amp; Mop</t>
+  </si>
+  <si>
+    <t>Tesvor X500 Pro Hybrid 2-in-1 Robot Vacuum</t>
+  </si>
+  <si>
+    <t>Thule Tact Crossbody Bag - 5L Black</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/bDz5dDR/TRP216GY.jpg</t>
+  </si>
+  <si>
+    <t>FELIZTRIP PD35W Multi-Nation &amp; USB Travel Adapter</t>
+  </si>
+  <si>
+    <t>FELIZTRIP Premium Memory Foam Neck Pillow.</t>
+  </si>
+  <si>
+    <t>Glade Scent Gel TwinPack Lavender</t>
   </si>
 </sst>
 </file>
@@ -2465,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B143" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2518,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>518</v>
       </c>
       <c r="D2" s="5">
         <v>349</v>
@@ -2530,25 +2533,25 @@
         <v>0</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G65" si="0">E2*100</f>
+        <f>E2*100</f>
         <v>27900</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="12">
         <v>27.9</v>
@@ -2560,25 +2563,25 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" si="0"/>
+        <f>E3*100</f>
         <v>2790</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="29" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="12">
         <v>27.9</v>
@@ -2590,25 +2593,25 @@
         <v>0</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" si="0"/>
+        <f>E4*100</f>
         <v>2790</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="D5" s="12">
         <v>87.7</v>
@@ -2620,25 +2623,25 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f>E5*100</f>
         <v>6900</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="12">
         <v>32.9</v>
@@ -2650,25 +2653,25 @@
         <v>0</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="0"/>
+        <f>E6*100</f>
         <v>2300</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="12">
         <v>99</v>
@@ -2680,25 +2683,25 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
+        <f>E7*100</f>
         <v>9700</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D8" s="5">
         <v>369</v>
@@ -2710,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="0"/>
+        <f>E8*100</f>
         <v>36900</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5">
         <v>369</v>
@@ -2740,25 +2743,25 @@
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
+        <f>E9*100</f>
         <v>36900</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="D10" s="5">
         <v>289</v>
@@ -2770,25 +2773,25 @@
         <v>0</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="0"/>
+        <f>E10*100</f>
         <v>28900</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="5">
         <v>149</v>
@@ -2797,28 +2800,28 @@
         <v>145</v>
       </c>
       <c r="F11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7">
+        <f>E11*100</f>
+        <v>14500</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="29" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="0"/>
-        <v>14500</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="D12" s="5">
         <v>169</v>
@@ -2830,25 +2833,25 @@
         <v>0</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="0"/>
+        <f>E12*100</f>
         <v>16900</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="D13" s="5">
         <v>169</v>
@@ -2860,25 +2863,25 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
+        <f>E13*100</f>
         <v>16900</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="D14" s="5">
         <v>349</v>
@@ -2890,25 +2893,25 @@
         <v>0</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="0"/>
+        <f>E14*100</f>
         <v>34900</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="D15" s="5">
         <v>349</v>
@@ -2920,25 +2923,25 @@
         <v>0</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
+        <f>E15*100</f>
         <v>34900</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="D16" s="5">
         <v>559</v>
@@ -2947,28 +2950,28 @@
         <v>559</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="0"/>
+        <f>E16*100</f>
         <v>55900</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="D17" s="5">
         <v>559</v>
@@ -2977,28 +2980,28 @@
         <v>559</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
+        <f>E17*100</f>
         <v>55900</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="D18" s="5">
         <v>499</v>
@@ -3010,25 +3013,25 @@
         <v>0</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="0"/>
+        <f>E18*100</f>
         <v>49900</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="5">
         <v>499</v>
@@ -3040,25 +3043,25 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
+        <f>E19*100</f>
         <v>49900</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="D20" s="5">
         <v>799</v>
@@ -3070,25 +3073,25 @@
         <v>0</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="0"/>
+        <f>E20*100</f>
         <v>79900</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="5">
         <v>799</v>
@@ -3100,25 +3103,25 @@
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f>E21*100</f>
         <v>79900</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D22" s="5">
         <v>179</v>
@@ -3130,25 +3133,25 @@
         <v>0</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="0"/>
+        <f>E22*100</f>
         <v>16900</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D23" s="5">
         <v>59</v>
@@ -3160,25 +3163,25 @@
         <v>12</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="0"/>
+        <f>E23*100</f>
         <v>4900</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D24" s="5">
         <v>59</v>
@@ -3190,25 +3193,25 @@
         <v>13</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="0"/>
+        <f>E24*100</f>
         <v>4900</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75">
       <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D25" s="5">
         <v>49</v>
@@ -3220,25 +3223,25 @@
         <v>14</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="0"/>
+        <f>E25*100</f>
         <v>3900</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D26" s="5">
         <v>69</v>
@@ -3250,25 +3253,25 @@
         <v>15</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="0"/>
+        <f>E26*100</f>
         <v>5500</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D27" s="5">
         <v>89</v>
@@ -3280,25 +3283,25 @@
         <v>16</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="0"/>
+        <f>E27*100</f>
         <v>6900</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D28" s="5">
         <v>99</v>
@@ -3310,25 +3313,25 @@
         <v>17</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="0"/>
+        <f>E28*100</f>
         <v>7900</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="D29" s="12">
         <v>79</v>
@@ -3340,25 +3343,25 @@
         <v>0</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="0"/>
+        <f>E29*100</f>
         <v>5500</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75">
       <c r="A30" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="D30" s="12">
         <v>55</v>
@@ -3370,25 +3373,25 @@
         <v>0</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="0"/>
+        <f>E30*100</f>
         <v>4900</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75">
       <c r="A31" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="D31" s="12">
         <v>129</v>
@@ -3400,25 +3403,25 @@
         <v>0</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="0"/>
+        <f>E31*100</f>
         <v>12500</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="D32" s="5">
         <v>99</v>
@@ -3427,28 +3430,28 @@
         <v>93</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="0"/>
+        <f>E32*100</f>
         <v>9300</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75">
       <c r="A33" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="D33" s="5">
         <v>16.899999999999999</v>
@@ -3460,25 +3463,25 @@
         <v>0</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="0"/>
-        <v>1690</v>
+        <f>E33*100</f>
+        <v>1689.9999999999998</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75">
       <c r="A34" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="D34" s="5">
         <v>14.4</v>
@@ -3490,25 +3493,25 @@
         <v>0</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="0"/>
+        <f>E34*100</f>
         <v>1440</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75">
       <c r="A35" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="D35" s="5">
         <v>15.5</v>
@@ -3520,25 +3523,25 @@
         <v>0</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="0"/>
+        <f>E35*100</f>
         <v>1550</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75">
       <c r="A36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D36" s="5">
         <v>714</v>
@@ -3550,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="0"/>
+        <f>E36*100</f>
         <v>47900</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75">
       <c r="A37" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>119</v>
       </c>
       <c r="D37" s="5">
         <v>9.9</v>
@@ -3580,25 +3583,25 @@
         <v>0</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="0"/>
+        <f>E37*100</f>
         <v>990</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75">
       <c r="A38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D38" s="5">
         <v>549</v>
@@ -3610,25 +3613,25 @@
         <v>0</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="0"/>
+        <f>E38*100</f>
         <v>19900</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75">
       <c r="A39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D39" s="5">
         <v>599</v>
@@ -3640,25 +3643,25 @@
         <v>0</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="0"/>
+        <f>E39*100</f>
         <v>31900</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75">
       <c r="A40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D40" s="5">
         <v>599</v>
@@ -3670,25 +3673,25 @@
         <v>0</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="0"/>
+        <f>E40*100</f>
         <v>31900</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75">
       <c r="A41" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D41" s="5">
         <v>439</v>
@@ -3700,25 +3703,25 @@
         <v>0</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="0"/>
+        <f>E41*100</f>
         <v>17900</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75">
       <c r="A42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D42" s="5">
         <v>519</v>
@@ -3730,25 +3733,25 @@
         <v>0</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="0"/>
+        <f>E42*100</f>
         <v>18900</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75">
       <c r="A43" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D43" s="5">
         <v>579</v>
@@ -3760,25 +3763,25 @@
         <v>0</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="0"/>
+        <f>E43*100</f>
         <v>21900</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75">
       <c r="A44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D44" s="5">
         <v>349</v>
@@ -3790,25 +3793,25 @@
         <v>0</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="0"/>
+        <f>E44*100</f>
         <v>14900</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75">
       <c r="A45" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>144</v>
       </c>
       <c r="D45" s="5">
         <v>499</v>
@@ -3820,25 +3823,25 @@
         <v>0</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" si="0"/>
+        <f>E45*100</f>
         <v>19900</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75">
       <c r="A46" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>147</v>
       </c>
       <c r="D46" s="12">
         <v>499</v>
@@ -3850,25 +3853,25 @@
         <v>0</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="0"/>
+        <f>E46*100</f>
         <v>19900</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="22" t="s">
         <v>149</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>150</v>
       </c>
       <c r="D47" s="12">
         <v>399</v>
@@ -3880,25 +3883,25 @@
         <v>0</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="0"/>
+        <f>E47*100</f>
         <v>19900</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75">
       <c r="A48" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="D48" s="5">
         <v>459</v>
@@ -3910,25 +3913,25 @@
         <v>0</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="0"/>
+        <f>E48*100</f>
         <v>16900</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75">
       <c r="A49" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>156</v>
       </c>
       <c r="D49" s="5">
         <v>459</v>
@@ -3940,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="0"/>
+        <f>E49*100</f>
         <v>16900</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75">
       <c r="A50" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D50" s="12">
         <v>439</v>
@@ -3970,25 +3973,25 @@
         <v>0</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="0"/>
+        <f>E50*100</f>
         <v>16900</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75">
       <c r="A51" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="D51" s="12">
         <v>479</v>
@@ -4000,25 +4003,25 @@
         <v>0</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="0"/>
+        <f>E51*100</f>
         <v>18900</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75">
       <c r="A52" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D52" s="5">
         <v>519</v>
@@ -4030,25 +4033,25 @@
         <v>0</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="0"/>
+        <f>E52*100</f>
         <v>18900</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75">
       <c r="A53" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="D53" s="12">
         <v>599</v>
@@ -4060,25 +4063,25 @@
         <v>0</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" si="0"/>
+        <f>E53*100</f>
         <v>18900</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75">
       <c r="A54" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>168</v>
       </c>
       <c r="D54" s="5">
         <v>639</v>
@@ -4090,25 +4093,25 @@
         <v>0</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" si="0"/>
+        <f>E54*100</f>
         <v>23900</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75">
       <c r="A55" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="5">
         <v>639</v>
@@ -4120,25 +4123,25 @@
         <v>0</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="0"/>
+        <f>E55*100</f>
         <v>23900</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75">
       <c r="A56" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="5">
         <v>639</v>
@@ -4150,25 +4153,25 @@
         <v>0</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="0"/>
+        <f>E56*100</f>
         <v>23900</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I56" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75">
       <c r="A57" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>174</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>175</v>
       </c>
       <c r="D57" s="12">
         <v>669</v>
@@ -4180,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="G57" s="7">
-        <f t="shared" si="0"/>
+        <f>E57*100</f>
         <v>25900</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I57" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75">
       <c r="A58" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>178</v>
       </c>
       <c r="D58" s="5">
         <v>369</v>
@@ -4207,28 +4210,28 @@
         <v>149</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" si="0"/>
+        <f>E58*100</f>
         <v>14900</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I58" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75">
       <c r="A59" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>181</v>
       </c>
       <c r="D59" s="5">
         <v>439</v>
@@ -4237,28 +4240,28 @@
         <v>169</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="0"/>
+        <f>E59*100</f>
         <v>16900</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I59" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75">
       <c r="A60" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>183</v>
       </c>
       <c r="D60" s="5">
         <v>489</v>
@@ -4267,28 +4270,28 @@
         <v>189</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G60" s="7">
-        <f t="shared" si="0"/>
+        <f>E60*100</f>
         <v>18900</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I60" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75">
       <c r="A61" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>185</v>
       </c>
       <c r="D61" s="5">
         <v>409</v>
@@ -4300,25 +4303,25 @@
         <v>0</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" si="0"/>
+        <f>E61*100</f>
         <v>15900</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I61" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="25" t="s">
         <v>187</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>188</v>
       </c>
       <c r="D62" s="26">
         <v>499</v>
@@ -4330,25 +4333,25 @@
         <v>0</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" si="0"/>
+        <f>E62*100</f>
         <v>18900</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I62" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75">
       <c r="A63" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="D63" s="12">
         <v>699</v>
@@ -4360,25 +4363,25 @@
         <v>0</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" si="0"/>
+        <f>E63*100</f>
         <v>31900</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I63" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75">
       <c r="A64" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="D64" s="12">
         <v>949</v>
@@ -4390,25 +4393,25 @@
         <v>0</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" si="0"/>
+        <f>E64*100</f>
         <v>49900</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I64" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75">
       <c r="A65" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="16" t="s">
         <v>196</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>197</v>
       </c>
       <c r="D65" s="5">
         <v>18.5</v>
@@ -4420,25 +4423,25 @@
         <v>0</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" si="0"/>
+        <f>E65*100</f>
         <v>1850</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I65" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75">
       <c r="A66" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D66" s="5">
         <v>319</v>
@@ -4450,25 +4453,25 @@
         <v>0</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" ref="G66:G129" si="1">E66*100</f>
+        <f>E66*100</f>
         <v>27900</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I66" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75">
       <c r="A67" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="C67" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>205</v>
       </c>
       <c r="D67" s="5">
         <v>39</v>
@@ -4477,26 +4480,26 @@
         <v>39</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G67" s="7">
-        <f t="shared" si="1"/>
+        <f>E67*100</f>
         <v>3900</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I67" s="29"/>
     </row>
     <row r="68" spans="1:9" ht="15.75">
       <c r="A68" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B68" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>205</v>
       </c>
       <c r="D68" s="5">
         <v>49</v>
@@ -4505,26 +4508,26 @@
         <v>49</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G68" s="7">
-        <f t="shared" si="1"/>
+        <f>E68*100</f>
         <v>4900</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I68" s="29"/>
     </row>
     <row r="69" spans="1:9" ht="15.75">
       <c r="A69" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="16" t="s">
         <v>207</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>208</v>
       </c>
       <c r="D69" s="5">
         <v>29</v>
@@ -4533,28 +4536,28 @@
         <v>29</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G69" s="7">
-        <f t="shared" si="1"/>
+        <f>E69*100</f>
         <v>2900</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I69" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75">
       <c r="A70" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>210</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>211</v>
       </c>
       <c r="D70" s="12">
         <v>24.9</v>
@@ -4566,25 +4569,25 @@
         <v>0</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" si="1"/>
+        <f>E70*100</f>
         <v>2490</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I70" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75">
       <c r="A71" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="D71" s="12">
         <v>20.9</v>
@@ -4596,25 +4599,25 @@
         <v>0</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" si="1"/>
+        <f>E71*100</f>
         <v>2090</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I71" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75">
       <c r="A72" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="D72" s="5">
         <v>210</v>
@@ -4626,25 +4629,25 @@
         <v>0</v>
       </c>
       <c r="G72" s="7">
-        <f t="shared" si="1"/>
+        <f>E72*100</f>
         <v>11500</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I72" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75">
       <c r="A73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="D73" s="5">
         <v>228</v>
@@ -4656,25 +4659,25 @@
         <v>0</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" si="1"/>
+        <f>E73*100</f>
         <v>20000</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I73" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75">
       <c r="A74" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>224</v>
       </c>
       <c r="D74" s="5">
         <v>162</v>
@@ -4683,28 +4686,28 @@
         <v>115</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" si="1"/>
+        <f>E74*100</f>
         <v>11500</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I74" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75">
       <c r="A75" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="16" t="s">
         <v>227</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>228</v>
       </c>
       <c r="D75" s="5">
         <v>11.9</v>
@@ -4716,25 +4719,25 @@
         <v>0</v>
       </c>
       <c r="G75" s="7">
-        <f t="shared" si="1"/>
+        <f>E75*100</f>
         <v>1190</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I75" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75">
       <c r="A76" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>231</v>
-      </c>
       <c r="C76" s="16" t="s">
-        <v>232</v>
+        <v>551</v>
       </c>
       <c r="D76" s="5">
         <v>129</v>
@@ -4743,28 +4746,28 @@
         <v>129</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76" s="7">
-        <f t="shared" si="1"/>
+        <f>E76*100</f>
         <v>12900</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I76" s="29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75">
       <c r="A77" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>235</v>
+        <v>552</v>
       </c>
       <c r="D77" s="5">
         <v>99</v>
@@ -4773,28 +4776,28 @@
         <v>99</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G77" s="7">
-        <f t="shared" si="1"/>
+        <f>E77*100</f>
         <v>9900</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="29" t="s">
-        <v>236</v>
+        <v>16</v>
+      </c>
+      <c r="I77" s="32" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75">
       <c r="A78" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D78" s="12">
         <v>89</v>
@@ -4803,28 +4806,28 @@
         <v>89</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" si="1"/>
+        <f>E78*100</f>
         <v>8900</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75">
       <c r="A79" s="17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D79" s="12">
         <v>89</v>
@@ -4833,28 +4836,28 @@
         <v>89</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G79" s="7">
-        <f t="shared" si="1"/>
+        <f>E79*100</f>
         <v>8900</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I79" s="29" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75">
       <c r="A80" s="17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D80" s="12">
         <v>89</v>
@@ -4863,28 +4866,28 @@
         <v>89</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G80" s="7">
-        <f t="shared" si="1"/>
+        <f>E80*100</f>
         <v>8900</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I80" s="29" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75">
       <c r="A81" s="17" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D81" s="12">
         <v>89</v>
@@ -4893,28 +4896,28 @@
         <v>89</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G81" s="7">
-        <f t="shared" si="1"/>
+        <f>E81*100</f>
         <v>8900</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I81" s="29" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75">
       <c r="A82" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>248</v>
+        <v>553</v>
       </c>
       <c r="D82" s="5">
         <v>18.5</v>
@@ -4926,25 +4929,25 @@
         <v>0</v>
       </c>
       <c r="G82" s="7">
-        <f t="shared" si="1"/>
+        <f>E82*100</f>
         <v>1850</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I82" s="29" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
       <c r="A83" s="17" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D83" s="5">
         <v>18</v>
@@ -4956,25 +4959,25 @@
         <v>0</v>
       </c>
       <c r="G83" s="7">
-        <f t="shared" si="1"/>
+        <f>E83*100</f>
         <v>1800</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I83" s="29" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75">
       <c r="A84" s="17" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>255</v>
+        <v>520</v>
       </c>
       <c r="D84" s="5">
         <v>5.7</v>
@@ -4986,25 +4989,25 @@
         <v>0</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" si="1"/>
+        <f>E84*100</f>
         <v>570</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I84" s="29" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
       <c r="A85" s="17" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>258</v>
+        <v>519</v>
       </c>
       <c r="D85" s="5">
         <v>4.5</v>
@@ -5016,25 +5019,25 @@
         <v>0</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" si="1"/>
+        <f>E85*100</f>
         <v>450</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I85" s="29" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75">
       <c r="A86" s="17" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D86" s="5">
         <v>3.5</v>
@@ -5046,25 +5049,25 @@
         <v>0</v>
       </c>
       <c r="G86" s="7">
-        <f t="shared" si="1"/>
+        <f>E86*100</f>
         <v>350</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I86" s="29" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75">
       <c r="A87" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D87" s="5">
         <v>989</v>
@@ -5076,25 +5079,25 @@
         <v>0</v>
       </c>
       <c r="G87" s="7">
-        <f t="shared" si="1"/>
+        <f>E87*100</f>
         <v>76900</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I87" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75">
       <c r="A88" s="17" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D88" s="5">
         <v>799</v>
@@ -5103,28 +5106,28 @@
         <v>599</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" si="1"/>
+        <f>E88*100</f>
         <v>59900</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I88" s="29" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="17" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D89" s="5">
         <v>1199</v>
@@ -5133,28 +5136,28 @@
         <v>599</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G89" s="7">
-        <f t="shared" si="1"/>
+        <f>E89*100</f>
         <v>59900</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I89" s="29" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="17" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D90" s="5">
         <v>2099</v>
@@ -5163,28 +5166,28 @@
         <v>1199</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G90" s="7">
-        <f t="shared" si="1"/>
+        <f>E90*100</f>
         <v>119900</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I90" s="29" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75">
       <c r="A91" s="17" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>277</v>
+        <v>521</v>
       </c>
       <c r="D91" s="5">
         <v>2699</v>
@@ -5193,28 +5196,28 @@
         <v>1699</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G91" s="7">
-        <f t="shared" si="1"/>
+        <f>E91*100</f>
         <v>169900</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I91" s="29" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75">
       <c r="A92" s="17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D92" s="5">
         <v>119</v>
@@ -5223,28 +5226,28 @@
         <v>79</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" si="1"/>
+        <f>E92*100</f>
         <v>7900</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I92" s="29" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="17" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D93" s="5">
         <v>119</v>
@@ -5253,28 +5256,28 @@
         <v>79</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" si="1"/>
+        <f>E93*100</f>
         <v>7900</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I93" s="29" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="9" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D94" s="12">
         <v>109</v>
@@ -5286,25 +5289,25 @@
         <v>0</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" si="1"/>
+        <f>E94*100</f>
         <v>10900</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I94" s="29" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="30" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D95" s="5">
         <v>99</v>
@@ -5313,28 +5316,28 @@
         <v>99</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G95" s="7">
-        <f t="shared" si="1"/>
+        <f>E95*100</f>
         <v>9900</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I95" s="29" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75">
       <c r="A96" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D96" s="5">
         <v>199</v>
@@ -5346,25 +5349,25 @@
         <v>0</v>
       </c>
       <c r="G96" s="7">
-        <f t="shared" si="1"/>
+        <f>E96*100</f>
         <v>16900</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I96" s="29" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D97" s="5">
         <v>259</v>
@@ -5376,25 +5379,25 @@
         <v>0</v>
       </c>
       <c r="G97" s="7">
-        <f t="shared" si="1"/>
+        <f>E97*100</f>
         <v>18900</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I97" s="29" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D98" s="5">
         <v>139</v>
@@ -5406,25 +5409,25 @@
         <v>0</v>
       </c>
       <c r="G98" s="7">
-        <f t="shared" si="1"/>
+        <f>E98*100</f>
         <v>7900</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I98" s="29" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75">
       <c r="A99" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="D99" s="5">
         <v>139</v>
@@ -5436,25 +5439,25 @@
         <v>0</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" si="1"/>
+        <f>E99*100</f>
         <v>7900</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I99" s="29" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75">
       <c r="A100" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D100" s="5">
         <v>169</v>
@@ -5466,25 +5469,25 @@
         <v>0</v>
       </c>
       <c r="G100" s="7">
-        <f t="shared" si="1"/>
+        <f>E100*100</f>
         <v>9900</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I100" s="29" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75">
       <c r="A101" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D101" s="5">
         <v>169</v>
@@ -5496,25 +5499,25 @@
         <v>0</v>
       </c>
       <c r="G101" s="7">
-        <f t="shared" si="1"/>
+        <f>E101*100</f>
         <v>9900</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I101" s="29" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75">
       <c r="A102" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D102" s="5">
         <v>169</v>
@@ -5526,23 +5529,23 @@
         <v>0</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" si="1"/>
+        <f>E102*100</f>
         <v>9900</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I102" s="29"/>
     </row>
     <row r="103" spans="1:9" ht="15.75">
       <c r="A103" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D103" s="5">
         <v>169</v>
@@ -5554,23 +5557,23 @@
         <v>0</v>
       </c>
       <c r="G103" s="7">
-        <f t="shared" si="1"/>
+        <f>E103*100</f>
         <v>9900</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I103" s="29"/>
     </row>
     <row r="104" spans="1:9" ht="15.75">
       <c r="A104" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D104" s="5">
         <v>179</v>
@@ -5582,25 +5585,25 @@
         <v>0</v>
       </c>
       <c r="G104" s="7">
-        <f t="shared" si="1"/>
+        <f>E104*100</f>
         <v>17700</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I104" s="29" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75">
       <c r="A105" s="9" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>316</v>
+        <v>522</v>
       </c>
       <c r="D105" s="12">
         <v>559</v>
@@ -5612,25 +5615,25 @@
         <v>0</v>
       </c>
       <c r="G105" s="7">
-        <f t="shared" si="1"/>
+        <f>E105*100</f>
         <v>32900</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I105" s="29" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.75">
       <c r="A106" s="9" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>319</v>
+        <v>523</v>
       </c>
       <c r="D106" s="12">
         <v>699</v>
@@ -5642,25 +5645,25 @@
         <v>0</v>
       </c>
       <c r="G106" s="7">
-        <f t="shared" si="1"/>
+        <f>E106*100</f>
         <v>45900</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I106" s="29" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75">
       <c r="A107" s="17" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>322</v>
+        <v>307</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>523</v>
       </c>
       <c r="D107" s="5">
         <v>699</v>
@@ -5672,25 +5675,25 @@
         <v>0</v>
       </c>
       <c r="G107" s="7">
-        <f t="shared" si="1"/>
+        <f>E107*100</f>
         <v>45900</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I107" s="29" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75">
       <c r="A108" s="9" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D108" s="12">
         <v>119</v>
@@ -5702,25 +5705,25 @@
         <v>0</v>
       </c>
       <c r="G108" s="7">
-        <f t="shared" si="1"/>
+        <f>E108*100</f>
         <v>9900</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I108" s="29" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75">
       <c r="A109" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D109" s="5">
         <v>239</v>
@@ -5732,25 +5735,25 @@
         <v>0</v>
       </c>
       <c r="G109" s="7">
-        <f t="shared" si="1"/>
+        <f>E109*100</f>
         <v>20900</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I109" s="29" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.75">
       <c r="A110" s="17" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>332</v>
+        <v>524</v>
       </c>
       <c r="D110" s="5">
         <v>209</v>
@@ -5759,28 +5762,28 @@
         <v>189</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G110" s="7">
-        <f t="shared" si="1"/>
+        <f>E110*100</f>
         <v>18900</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I110" s="29" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75">
       <c r="A111" s="17" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>335</v>
+        <v>525</v>
       </c>
       <c r="D111" s="5">
         <v>135</v>
@@ -5789,28 +5792,28 @@
         <v>109</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G111" s="7">
-        <f t="shared" si="1"/>
+        <f>E111*100</f>
         <v>10900</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I111" s="29" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15.75">
       <c r="A112" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="D112" s="5">
         <v>106</v>
@@ -5822,25 +5825,25 @@
         <v>0</v>
       </c>
       <c r="G112" s="7">
-        <f t="shared" si="1"/>
+        <f>E112*100</f>
         <v>10500</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I112" s="29" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.75">
       <c r="A113" s="17" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D113" s="5">
         <v>86</v>
@@ -5852,25 +5855,25 @@
         <v>0</v>
       </c>
       <c r="G113" s="7">
-        <f t="shared" si="1"/>
+        <f>E113*100</f>
         <v>8400</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I113" s="29" t="s">
-        <v>545</v>
+        <v>510</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.75">
       <c r="A114" s="17" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D114" s="5">
         <v>86</v>
@@ -5882,25 +5885,25 @@
         <v>0</v>
       </c>
       <c r="G114" s="7">
-        <f t="shared" si="1"/>
+        <f>E114*100</f>
         <v>8400</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I114" s="29" t="s">
-        <v>544</v>
+        <v>509</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.75">
       <c r="A115" s="17" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D115" s="5">
         <v>86</v>
@@ -5912,25 +5915,25 @@
         <v>0</v>
       </c>
       <c r="G115" s="7">
-        <f t="shared" si="1"/>
+        <f>E115*100</f>
         <v>8400</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I115" s="29" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.75">
       <c r="A116" s="9" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D116" s="12">
         <v>106</v>
@@ -5942,25 +5945,25 @@
         <v>0</v>
       </c>
       <c r="G116" s="7">
-        <f t="shared" si="1"/>
+        <f>E116*100</f>
         <v>10400</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I116" s="29" t="s">
-        <v>542</v>
+        <v>507</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.75">
       <c r="A117" s="17" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D117" s="5">
         <v>8.6</v>
@@ -5972,25 +5975,25 @@
         <v>0</v>
       </c>
       <c r="G117" s="7">
-        <f t="shared" si="1"/>
+        <f>E117*100</f>
         <v>860</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I117" s="29" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15.75">
       <c r="A118" s="17" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>353</v>
+        <v>526</v>
       </c>
       <c r="D118" s="5">
         <v>8</v>
@@ -6002,25 +6005,25 @@
         <v>0</v>
       </c>
       <c r="G118" s="7">
-        <f t="shared" si="1"/>
+        <f>E118*100</f>
         <v>800</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I118" s="29" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15.75">
       <c r="A119" s="17" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>356</v>
+        <v>527</v>
       </c>
       <c r="D119" s="5">
         <v>8</v>
@@ -6032,25 +6035,25 @@
         <v>0</v>
       </c>
       <c r="G119" s="7">
-        <f t="shared" si="1"/>
+        <f>E119*100</f>
         <v>800</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I119" s="29" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.75">
       <c r="A120" s="17" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>359</v>
+        <v>528</v>
       </c>
       <c r="D120" s="5">
         <v>8</v>
@@ -6062,25 +6065,25 @@
         <v>0</v>
       </c>
       <c r="G120" s="7">
-        <f t="shared" si="1"/>
+        <f>E120*100</f>
         <v>800</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I120" s="29" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15.75">
       <c r="A121" s="17" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>362</v>
+        <v>529</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D121" s="5">
         <v>12.5</v>
@@ -6092,25 +6095,25 @@
         <v>0</v>
       </c>
       <c r="G121" s="7">
-        <f t="shared" si="1"/>
+        <f>E121*100</f>
         <v>1250</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="I121" s="29" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15.75">
       <c r="A122" s="17" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D122" s="12">
         <v>69</v>
@@ -6122,25 +6125,25 @@
         <v>0</v>
       </c>
       <c r="G122" s="7">
-        <f t="shared" si="1"/>
+        <f>E122*100</f>
         <v>6900</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I122" s="29" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15.75">
       <c r="A123" s="17" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D123" s="12">
         <v>69</v>
@@ -6152,25 +6155,25 @@
         <v>0</v>
       </c>
       <c r="G123" s="7">
-        <f t="shared" si="1"/>
+        <f>E123*100</f>
         <v>6900</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I123" s="29" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75">
       <c r="A124" s="17" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="D124" s="12">
         <v>69</v>
@@ -6182,25 +6185,25 @@
         <v>0</v>
       </c>
       <c r="G124" s="7">
-        <f t="shared" si="1"/>
+        <f>E124*100</f>
         <v>6900</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I124" s="29" t="s">
-        <v>539</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15.75">
       <c r="A125" s="17" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D125" s="5">
         <v>89</v>
@@ -6209,28 +6212,28 @@
         <v>89</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G125" s="7">
-        <f t="shared" si="1"/>
+        <f>E125*100</f>
         <v>8900</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I125" s="29" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15.75">
       <c r="A126" s="17" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D126" s="5">
         <v>89</v>
@@ -6239,28 +6242,28 @@
         <v>89</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G126" s="7">
-        <f t="shared" si="1"/>
+        <f>E126*100</f>
         <v>8900</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I126" s="29" t="s">
-        <v>536</v>
+        <v>501</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15.75">
       <c r="A127" s="17" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D127" s="5">
         <v>89</v>
@@ -6269,28 +6272,28 @@
         <v>89</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G127" s="7">
-        <f t="shared" si="1"/>
+        <f>E127*100</f>
         <v>8900</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I127" s="29" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15.75">
       <c r="A128" s="17" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D128" s="5">
         <v>39.9</v>
@@ -6299,28 +6302,28 @@
         <v>39.9</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G128" s="7">
-        <f t="shared" si="1"/>
+        <f>E128*100</f>
         <v>3990</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I128" s="29" t="s">
-        <v>535</v>
+        <v>500</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15.75">
       <c r="A129" s="17" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="D129" s="5">
         <v>469</v>
@@ -6329,28 +6332,28 @@
         <v>449</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G129" s="7">
-        <f t="shared" si="1"/>
+        <f>E129*100</f>
         <v>44900</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I129" s="29" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.75">
       <c r="A130" s="17" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D130" s="12">
         <v>79</v>
@@ -6359,28 +6362,28 @@
         <v>79</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G130" s="7">
-        <f t="shared" ref="G130:G175" si="2">E130*100</f>
+        <f>E130*100</f>
         <v>7900</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I130" s="29" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15.75">
       <c r="A131" s="17" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="D131" s="12">
         <v>159</v>
@@ -6389,28 +6392,28 @@
         <v>159</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G131" s="7">
-        <f t="shared" si="2"/>
+        <f>E131*100</f>
         <v>15900</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I131" s="29" t="s">
-        <v>525</v>
+        <v>490</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.75">
       <c r="A132" s="17" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="D132" s="12">
         <v>159</v>
@@ -6419,28 +6422,28 @@
         <v>159</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G132" s="7">
-        <f t="shared" si="2"/>
+        <f>E132*100</f>
         <v>15900</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I132" s="29" t="s">
-        <v>526</v>
+        <v>491</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15.75">
       <c r="A133" s="17" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>530</v>
+        <v>495</v>
       </c>
       <c r="D133" s="12">
         <v>159</v>
@@ -6449,28 +6452,28 @@
         <v>159</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G133" s="7">
-        <f t="shared" si="2"/>
+        <f>E133*100</f>
         <v>15900</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I133" s="32" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.75">
       <c r="A134" s="17" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>531</v>
+        <v>496</v>
       </c>
       <c r="D134" s="12">
         <v>159</v>
@@ -6479,28 +6482,28 @@
         <v>159</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G134" s="7">
-        <f t="shared" si="2"/>
+        <f>E134*100</f>
         <v>15900</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I134" s="32" t="s">
-        <v>532</v>
+        <v>497</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.75">
       <c r="A135" s="17" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D135" s="12">
         <v>79</v>
@@ -6509,28 +6512,28 @@
         <v>79</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G135" s="7">
-        <f t="shared" si="2"/>
+        <f>E135*100</f>
         <v>7900</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I135" s="32" t="s">
-        <v>533</v>
+        <v>498</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15.75">
       <c r="A136" s="17" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="D136" s="12">
         <v>79</v>
@@ -6539,28 +6542,28 @@
         <v>79</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G136" s="7">
-        <f t="shared" si="2"/>
+        <f>E136*100</f>
         <v>7900</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I136" s="32" t="s">
-        <v>534</v>
+        <v>499</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.75">
       <c r="A137" s="9" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="D137" s="12">
         <v>289</v>
@@ -6572,25 +6575,25 @@
         <v>0</v>
       </c>
       <c r="G137" s="7">
-        <f t="shared" si="2"/>
+        <f>E137*100</f>
         <v>27900</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I137" s="29" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.75">
       <c r="A138" s="17" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="D138" s="5">
         <v>199</v>
@@ -6599,28 +6602,28 @@
         <v>169</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138" s="7">
-        <f t="shared" si="2"/>
+        <f>E138*100</f>
         <v>16900</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I138" s="29" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15.75">
       <c r="A139" s="17" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="D139" s="5">
         <v>8.1</v>
@@ -6632,25 +6635,25 @@
         <v>0</v>
       </c>
       <c r="G139" s="7">
-        <f t="shared" si="2"/>
+        <f>E139*100</f>
         <v>810</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I139" s="29" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15.75">
       <c r="A140" s="17" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="D140" s="5">
         <v>3.3</v>
@@ -6662,25 +6665,25 @@
         <v>0</v>
       </c>
       <c r="G140" s="7">
-        <f t="shared" si="2"/>
+        <f>E140*100</f>
         <v>330</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I140" s="29" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15.75">
       <c r="A141" s="17" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="D141" s="5">
         <v>11.5</v>
@@ -6692,25 +6695,25 @@
         <v>0</v>
       </c>
       <c r="G141" s="7">
-        <f t="shared" si="2"/>
+        <f>E141*100</f>
         <v>1150</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I141" s="29" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.75">
       <c r="A142" s="2" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>413</v>
+        <v>530</v>
       </c>
       <c r="D142" s="5">
         <v>449</v>
@@ -6722,25 +6725,25 @@
         <v>0</v>
       </c>
       <c r="G142" s="7">
-        <f t="shared" si="2"/>
+        <f>E142*100</f>
         <v>39900</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I142" s="29" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.75">
       <c r="A143" s="17" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="D143" s="5">
         <v>2.6</v>
@@ -6752,25 +6755,25 @@
         <v>0</v>
       </c>
       <c r="G143" s="7">
-        <f t="shared" si="2"/>
+        <f>E143*100</f>
         <v>260</v>
       </c>
       <c r="H143" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I143" s="29" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15.75">
       <c r="A144" s="9" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="D144" s="12">
         <v>259</v>
@@ -6782,25 +6785,25 @@
         <v>0</v>
       </c>
       <c r="G144" s="7">
-        <f t="shared" si="2"/>
+        <f>E144*100</f>
         <v>25900</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I144" s="29" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15.75">
       <c r="A145" s="17" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D145" s="5">
         <v>269</v>
@@ -6809,28 +6812,28 @@
         <v>269</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G145" s="7">
-        <f t="shared" si="2"/>
+        <f>E145*100</f>
         <v>26900</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I145" s="29" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15.75">
       <c r="A146" s="17" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="D146" s="5">
         <v>129</v>
@@ -6839,28 +6842,28 @@
         <v>129</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G146" s="7">
-        <f t="shared" si="2"/>
+        <f>E146*100</f>
         <v>12900</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I146" s="29" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15.75">
       <c r="A147" s="17" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>431</v>
+        <v>531</v>
       </c>
       <c r="D147" s="5">
         <v>1999</v>
@@ -6869,28 +6872,28 @@
         <v>1499</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G147" s="7">
-        <f t="shared" si="2"/>
+        <f>E147*100</f>
         <v>149900</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I147" s="29" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15.75">
       <c r="A148" s="17" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="D148" s="5">
         <v>9.1</v>
@@ -6902,25 +6905,25 @@
         <v>0</v>
       </c>
       <c r="G148" s="7">
-        <f t="shared" si="2"/>
+        <f>E148*100</f>
         <v>910</v>
       </c>
       <c r="H148" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I148" s="29" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15.75">
       <c r="A149" s="17" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>439</v>
+        <v>532</v>
       </c>
       <c r="D149" s="5">
         <v>16.5</v>
@@ -6932,25 +6935,25 @@
         <v>0</v>
       </c>
       <c r="G149" s="7">
-        <f t="shared" si="2"/>
+        <f>E149*100</f>
         <v>1650</v>
       </c>
       <c r="H149" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I149" s="29" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15.75">
       <c r="A150" s="15" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="D150" s="5">
         <v>18.899999999999999</v>
@@ -6962,25 +6965,25 @@
         <v>0</v>
       </c>
       <c r="G150" s="7">
-        <f t="shared" si="2"/>
-        <v>1890</v>
+        <f>E150*100</f>
+        <v>1889.9999999999998</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I150" s="29" t="s">
-        <v>523</v>
+        <v>488</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15.75">
       <c r="A151" s="15" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>445</v>
+        <v>533</v>
       </c>
       <c r="D151" s="5">
         <v>30</v>
@@ -6992,25 +6995,25 @@
         <v>0</v>
       </c>
       <c r="G151" s="7">
-        <f t="shared" si="2"/>
+        <f>E151*100</f>
         <v>3000</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I151" s="29" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15.75">
       <c r="A152" s="15" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>448</v>
+        <v>534</v>
       </c>
       <c r="D152" s="5">
         <v>36</v>
@@ -7022,25 +7025,25 @@
         <v>0</v>
       </c>
       <c r="G152" s="7">
-        <f t="shared" si="2"/>
+        <f>E152*100</f>
         <v>3600</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I152" s="29" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15.75">
       <c r="A153" s="15" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="D153" s="5">
         <v>35</v>
@@ -7052,25 +7055,25 @@
         <v>0</v>
       </c>
       <c r="G153" s="7">
-        <f t="shared" si="2"/>
+        <f>E153*100</f>
         <v>3500</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I153" s="29" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15.75">
       <c r="A154" s="15" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="D154" s="5">
         <v>35</v>
@@ -7082,25 +7085,25 @@
         <v>0</v>
       </c>
       <c r="G154" s="7">
-        <f t="shared" si="2"/>
+        <f>E154*100</f>
         <v>3500</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I154" s="29" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15.75">
       <c r="A155" s="15" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="D155" s="5">
         <v>40</v>
@@ -7112,25 +7115,25 @@
         <v>0</v>
       </c>
       <c r="G155" s="7">
-        <f t="shared" si="2"/>
+        <f>E155*100</f>
         <v>4000</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I155" s="29" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15.75">
       <c r="A156" s="15" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="D156" s="5">
         <v>50</v>
@@ -7142,25 +7145,25 @@
         <v>0</v>
       </c>
       <c r="G156" s="7">
-        <f t="shared" si="2"/>
+        <f>E156*100</f>
         <v>5000</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I156" s="29" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15.75">
       <c r="A157" s="15" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="D157" s="5">
         <v>15</v>
@@ -7172,25 +7175,25 @@
         <v>0</v>
       </c>
       <c r="G157" s="7">
-        <f t="shared" si="2"/>
+        <f>E157*100</f>
         <v>1500</v>
       </c>
       <c r="H157" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I157" s="29" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15.75">
       <c r="A158" s="17" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="D158" s="5">
         <v>7.9</v>
@@ -7202,25 +7205,25 @@
         <v>0</v>
       </c>
       <c r="G158" s="7">
-        <f t="shared" si="2"/>
+        <f>E158*100</f>
         <v>790</v>
       </c>
       <c r="H158" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I158" s="29" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15.75">
       <c r="A159" s="17" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="D159" s="5">
         <v>299</v>
@@ -7229,28 +7232,28 @@
         <v>299</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G159" s="7">
-        <f t="shared" si="2"/>
+        <f>E159*100</f>
         <v>29900</v>
       </c>
       <c r="H159" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I159" s="29" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75">
       <c r="A160" s="17" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>473</v>
+        <v>536</v>
       </c>
       <c r="D160" s="5">
         <v>229</v>
@@ -7259,28 +7262,28 @@
         <v>229</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G160" s="7">
-        <f t="shared" si="2"/>
+        <f>E160*100</f>
         <v>22900</v>
       </c>
       <c r="H160" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I160" s="29" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15.75">
       <c r="A161" s="2" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="D161" s="5">
         <v>309</v>
@@ -7292,25 +7295,25 @@
         <v>0</v>
       </c>
       <c r="G161" s="7">
-        <f t="shared" si="2"/>
+        <f>E161*100</f>
         <v>29900</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I161" s="29" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15.75">
       <c r="A162" s="2" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="D162" s="5">
         <v>339</v>
@@ -7322,25 +7325,25 @@
         <v>0</v>
       </c>
       <c r="G162" s="7">
-        <f t="shared" si="2"/>
+        <f>E162*100</f>
         <v>32900</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I162" s="29" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15.75">
       <c r="A163" s="17" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="D163" s="5">
         <v>159</v>
@@ -7349,28 +7352,28 @@
         <v>156</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G163" s="7">
-        <f t="shared" si="2"/>
+        <f>E163*100</f>
         <v>15600</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I163" s="29" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15.75">
       <c r="A164" s="17" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="D164" s="5">
         <v>159</v>
@@ -7379,28 +7382,28 @@
         <v>156</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G164" s="7">
-        <f t="shared" si="2"/>
+        <f>E164*100</f>
         <v>15600</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I164" s="29" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15.75">
       <c r="A165" s="17" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>489</v>
+        <v>539</v>
       </c>
       <c r="D165" s="5">
         <v>169</v>
@@ -7409,28 +7412,28 @@
         <v>166</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G165" s="7">
-        <f t="shared" si="2"/>
+        <f>E165*100</f>
         <v>16600</v>
       </c>
       <c r="H165" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I165" s="29" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15.75">
       <c r="A166" s="2" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>493</v>
+        <v>540</v>
       </c>
       <c r="D166" s="5">
         <v>299</v>
@@ -7442,25 +7445,25 @@
         <v>0</v>
       </c>
       <c r="G166" s="7">
-        <f t="shared" si="2"/>
+        <f>E166*100</f>
         <v>18900</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I166" s="29" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15.75">
       <c r="A167" s="2" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
       <c r="D167" s="5">
         <v>1899</v>
@@ -7472,259 +7475,259 @@
         <v>0</v>
       </c>
       <c r="G167" s="7">
-        <f t="shared" si="2"/>
+        <f>E167*100</f>
         <v>139900</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I167" s="29" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15.75">
       <c r="A168" s="2" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>501</v>
+        <v>547</v>
       </c>
       <c r="D168" s="5">
-        <v>699</v>
+        <v>1299</v>
       </c>
       <c r="E168" s="5">
-        <v>499</v>
+        <v>879</v>
       </c>
       <c r="F168" s="6">
         <v>0</v>
       </c>
       <c r="G168" s="7">
-        <f t="shared" si="2"/>
-        <v>49900</v>
-      </c>
-      <c r="H168" s="8" t="s">
-        <v>12</v>
+        <f>E168*100</f>
+        <v>87900</v>
+      </c>
+      <c r="H168" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="I168" s="29" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15.75">
       <c r="A169" s="2" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
       <c r="D169" s="5">
-        <v>299</v>
+        <v>1499</v>
       </c>
       <c r="E169" s="5">
-        <v>269</v>
+        <v>1049</v>
       </c>
       <c r="F169" s="6">
         <v>0</v>
       </c>
       <c r="G169" s="7">
-        <f t="shared" si="2"/>
-        <v>26900</v>
-      </c>
-      <c r="H169" s="8" t="s">
-        <v>12</v>
+        <f>E169*100</f>
+        <v>104900</v>
+      </c>
+      <c r="H169" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="I169" s="29" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15.75">
       <c r="A170" s="2" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>11</v>
+        <v>549</v>
       </c>
       <c r="D170" s="5">
-        <v>246</v>
+        <v>499</v>
       </c>
       <c r="E170" s="5">
-        <v>209</v>
+        <v>499</v>
       </c>
       <c r="F170" s="6">
         <v>0</v>
       </c>
       <c r="G170" s="7">
-        <f t="shared" si="2"/>
-        <v>20900</v>
-      </c>
-      <c r="H170" s="8" t="s">
-        <v>12</v>
+        <f>E170*100</f>
+        <v>49900</v>
+      </c>
+      <c r="H170" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="I170" s="29" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15.75">
       <c r="A171" s="2" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="D171" s="5">
-        <v>179</v>
+        <v>699</v>
       </c>
       <c r="E171" s="5">
-        <v>139</v>
+        <v>499</v>
       </c>
       <c r="F171" s="6">
         <v>0</v>
       </c>
       <c r="G171" s="7">
-        <f t="shared" si="2"/>
-        <v>13900</v>
+        <f>E171*100</f>
+        <v>49900</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I171" s="29" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15.75">
       <c r="A172" s="2" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="D172" s="5">
-        <v>439</v>
+        <v>299</v>
       </c>
       <c r="E172" s="5">
-        <v>379</v>
+        <v>269</v>
       </c>
       <c r="F172" s="6">
         <v>0</v>
       </c>
       <c r="G172" s="7">
-        <f t="shared" si="2"/>
-        <v>37900</v>
+        <f>E172*100</f>
+        <v>26900</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I172" s="29" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15.75">
       <c r="A173" s="2" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="D173" s="5">
-        <v>1299</v>
+        <v>246</v>
       </c>
       <c r="E173" s="5">
-        <v>879</v>
+        <v>209</v>
       </c>
       <c r="F173" s="6">
         <v>0</v>
       </c>
       <c r="G173" s="7">
-        <f t="shared" si="2"/>
-        <v>87900</v>
-      </c>
-      <c r="H173" s="13" t="s">
-        <v>17</v>
+        <f>E173*100</f>
+        <v>20900</v>
+      </c>
+      <c r="H173" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="I173" s="29" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15.75">
       <c r="A174" s="2" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="D174" s="5">
-        <v>1499</v>
+        <v>179</v>
       </c>
       <c r="E174" s="5">
-        <v>1049</v>
+        <v>139</v>
       </c>
       <c r="F174" s="6">
         <v>0</v>
       </c>
       <c r="G174" s="7">
-        <f t="shared" si="2"/>
-        <v>104900</v>
-      </c>
-      <c r="H174" s="13" t="s">
-        <v>17</v>
+        <f>E174*100</f>
+        <v>13900</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="I174" s="29" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15.75">
       <c r="A175" s="2" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="D175" s="5">
-        <v>499</v>
+        <v>439</v>
       </c>
       <c r="E175" s="5">
-        <v>499</v>
+        <v>379</v>
       </c>
       <c r="F175" s="6">
         <v>0</v>
       </c>
       <c r="G175" s="7">
-        <f t="shared" si="2"/>
-        <v>49900</v>
-      </c>
-      <c r="H175" s="13" t="s">
-        <v>17</v>
+        <f>E175*100</f>
+        <v>37900</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="I175" s="29" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I175">
-    <sortCondition ref="B2"/>
+    <sortCondition ref="B2:B175"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="I133" r:id="rId1" xr:uid="{319C9BC9-76CF-45A2-B659-D17E0CB66B3A}"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -389,13 +389,13 @@
     <t>CORNELL</t>
   </si>
   <si>
-    <t>20 Speeds Bladeless DC Motor Stand Fan</t>
+    <t>Cornell CBF-002DCR Bladeless Fan – 20 Speeds, Remote Control</t>
   </si>
   <si>
     <t>35W</t>
   </si>
   <si>
-    <t>https://www.circlezestore.com/20048/cornell-bladeless-fan-table-cbf-001dcr.jpg</t>
+    <t>https://i.postimg.cc/3JrxhjSq/cor.png</t>
   </si>
   <si>
     <t>SCF-100.DARLIE175MD</t>
@@ -1736,6 +1736,42 @@
     <t>https://cdn.homepro.com.my/ART_IMAGE/10/632/1063236/447x447/05082022_1063236$Imagex1.jpg</t>
   </si>
   <si>
+    <t>SCF-100.KITCHENWARE5PCS</t>
+  </si>
+  <si>
+    <t>Tefal 5-Piece Kitchenware Set – Chef Knife, Kitchen Shears, Ladle Spatula, Wok Spatula &amp; Whisk.</t>
+  </si>
+  <si>
+    <t>5pcs</t>
+  </si>
+  <si>
+    <t>Add effective 6th Feb 2025</t>
+  </si>
+  <si>
+    <t>https://dam.groupeseb.com/m/28b617914f9a5ca2/digital-Tefal-Kitchenware-5pc-Set.png?timestamp=20230830115600&amp;width=640&amp;height=800</t>
+  </si>
+  <si>
+    <t>SCF-100.RK736B</t>
+  </si>
+  <si>
+    <t>Tefal Easy Rice RK736B Fuzzy Logic Rice Cooker – 1.8L (10-Cup Capacity)</t>
+  </si>
+  <si>
+    <t>https://etsound.com.sg/cdn/shop/files/1_3dad9e3c-e26e-456e-baa2-3fd9b46e1396.jpg?v=1691243149&amp;width=1214</t>
+  </si>
+  <si>
+    <t>SCF-100.G14398</t>
+  </si>
+  <si>
+    <t>Tefal Day By Day 32cm Wokpan with Lid – Non-Stick, All Hobs + Induction, Thermo-Signal™ Technology</t>
+  </si>
+  <si>
+    <t>32cm</t>
+  </si>
+  <si>
+    <t>https://img.srewardscentre.com.my/image/e526ced590e34e94a2d7916f8c9eb422.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
+  </si>
+  <si>
     <t>SCF-100.S6</t>
   </si>
   <si>
@@ -1833,42 +1869,6 @@
   </si>
   <si>
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/1-8l-digital-rice-cooker-rc-18dr1nmy/gallery2.png</t>
-  </si>
-  <si>
-    <t>SCF-100.KITCHENWARE5PCS</t>
-  </si>
-  <si>
-    <t>Tefal 5-Piece Kitchenware Set – Chef Knife, Kitchen Shears, Ladle Spatula, Wok Spatula &amp; Whisk.</t>
-  </si>
-  <si>
-    <t>5pcs</t>
-  </si>
-  <si>
-    <t>Add effective 6th Feb 2025</t>
-  </si>
-  <si>
-    <t>https://dam.groupeseb.com/m/28b617914f9a5ca2/digital-Tefal-Kitchenware-5pc-Set.png?timestamp=20230830115600&amp;width=640&amp;height=800</t>
-  </si>
-  <si>
-    <t>SCF-100.RK736B</t>
-  </si>
-  <si>
-    <t>Tefal Easy Rice RK736B Fuzzy Logic Rice Cooker – 1.8L (10-Cup Capacity)</t>
-  </si>
-  <si>
-    <t>https://etsound.com.sg/cdn/shop/files/1_3dad9e3c-e26e-456e-baa2-3fd9b46e1396.jpg?v=1691243149&amp;width=1214</t>
-  </si>
-  <si>
-    <t>SCF-100.G14398</t>
-  </si>
-  <si>
-    <t>Tefal Day By Day 32cm Wokpan with Lid – Non-Stick, All Hobs + Induction, Thermo-Signal™ Technology</t>
-  </si>
-  <si>
-    <t>32cm</t>
-  </si>
-  <si>
-    <t>https://img.srewardscentre.com.my/image/e526ced590e34e94a2d7916f8c9eb422.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1883,7 @@
     <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="[$RM-4409]#,##0.00"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1893,19 +1893,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1957,21 +1944,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2113,7 +2085,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2212,12 +2184,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2303,12 +2269,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2516,138 +2476,138 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2657,143 +2617,122 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3332,7 +3271,7 @@
   <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -3343,36 +3282,36 @@
     <col min="4" max="5" width="12.8518518518519" customWidth="1"/>
     <col min="6" max="6" width="11.287037037037" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.5740740740741" customWidth="1"/>
-    <col min="8" max="8" width="46.712962962963" customWidth="1"/>
+    <col min="8" max="8" width="46.712962962963" style="3" customWidth="1"/>
     <col min="9" max="9" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3402,7 +3341,7 @@
       <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3422,15 +3361,15 @@
       <c r="E3" s="15">
         <v>27.9</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="10">
         <f t="shared" si="0"/>
         <v>2790</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="34" t="s">
+      <c r="H3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="32" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3450,15 +3389,15 @@
       <c r="E4" s="15">
         <v>27.9</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="10">
         <f t="shared" si="0"/>
         <v>2790</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="34" t="s">
+      <c r="H4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="32" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3478,15 +3417,15 @@
       <c r="E5" s="15">
         <v>69</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="34" t="s">
+      <c r="H5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="32" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3513,10 +3452,10 @@
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="34" t="s">
+      <c r="H6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="32" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3524,10 +3463,10 @@
       <c r="A7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="15">
@@ -3536,15 +3475,15 @@
       <c r="E7" s="15">
         <v>97</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>9700</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3552,7 +3491,7 @@
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3574,18 +3513,18 @@
       <c r="H8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="8">
@@ -3601,21 +3540,21 @@
         <f t="shared" si="0"/>
         <v>36900</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="34" t="s">
+      <c r="H9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="1:9">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="8">
@@ -3631,21 +3570,21 @@
         <f t="shared" si="0"/>
         <v>28900</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="34" t="s">
+      <c r="H10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:9">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="8">
@@ -3661,21 +3600,21 @@
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="34" t="s">
+      <c r="H11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:9">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="8">
@@ -3684,26 +3623,26 @@
       <c r="E12" s="8">
         <v>169</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="10">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="34" t="s">
+      <c r="H12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="32" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="1:9">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="8">
@@ -3712,26 +3651,26 @@
       <c r="E13" s="8">
         <v>169</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="10">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="34" t="s">
+      <c r="H13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="32" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="1:9">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="8">
@@ -3740,26 +3679,26 @@
       <c r="E14" s="8">
         <v>349</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="10">
         <f t="shared" si="0"/>
         <v>34900</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="34" t="s">
+      <c r="H14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:9">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="8">
@@ -3768,26 +3707,26 @@
       <c r="E15" s="8">
         <v>349</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="10">
         <f t="shared" si="0"/>
         <v>34900</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="34" t="s">
+      <c r="H15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="1:9">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="8">
@@ -3796,26 +3735,26 @@
       <c r="E16" s="8">
         <v>559</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="10">
         <f t="shared" si="0"/>
         <v>55900</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="34" t="s">
+      <c r="H16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="1:9">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="8">
@@ -3824,26 +3763,26 @@
       <c r="E17" s="8">
         <v>559</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="10">
         <f t="shared" si="0"/>
         <v>55900</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="34" t="s">
+      <c r="H17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="32" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="1:9">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="8">
@@ -3852,26 +3791,26 @@
       <c r="E18" s="8">
         <v>499</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="10">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="34" t="s">
+      <c r="H18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="32" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" ht="15.6" spans="1:9">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="8">
@@ -3880,26 +3819,26 @@
       <c r="E19" s="8">
         <v>499</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="10">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="34" t="s">
+      <c r="H19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="32" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="1:9">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D20" s="8">
@@ -3908,26 +3847,26 @@
       <c r="E20" s="8">
         <v>799</v>
       </c>
-      <c r="F20" s="16"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="10">
         <f t="shared" si="0"/>
         <v>79900</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="34" t="s">
+      <c r="H20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="32" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:9">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="8">
@@ -3936,15 +3875,15 @@
       <c r="E21" s="8">
         <v>799</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="10">
         <f t="shared" si="0"/>
         <v>79900</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="34" t="s">
+      <c r="H21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="32" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3964,7 +3903,7 @@
       <c r="E22" s="8">
         <v>169</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="10">
         <f t="shared" si="0"/>
         <v>16900</v>
@@ -3972,7 +3911,7 @@
       <c r="H22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="32" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3992,7 +3931,7 @@
       <c r="E23" s="8">
         <v>49</v>
       </c>
-      <c r="F23" s="16"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="10">
         <f t="shared" si="0"/>
         <v>4900</v>
@@ -4000,7 +3939,7 @@
       <c r="H23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="32" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4020,7 +3959,7 @@
       <c r="E24" s="8">
         <v>49</v>
       </c>
-      <c r="F24" s="16"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="10">
         <f t="shared" si="0"/>
         <v>4900</v>
@@ -4028,7 +3967,7 @@
       <c r="H24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="32" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4048,7 +3987,7 @@
       <c r="E25" s="8">
         <v>39</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="10">
         <f t="shared" si="0"/>
         <v>3900</v>
@@ -4056,7 +3995,7 @@
       <c r="H25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="32" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4076,7 +4015,7 @@
       <c r="E26" s="8">
         <v>55</v>
       </c>
-      <c r="F26" s="16"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="10">
         <f t="shared" si="0"/>
         <v>5500</v>
@@ -4084,7 +4023,7 @@
       <c r="H26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="32" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4104,7 +4043,7 @@
       <c r="E27" s="8">
         <v>69</v>
       </c>
-      <c r="F27" s="16"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="10">
         <f t="shared" si="0"/>
         <v>6900</v>
@@ -4112,7 +4051,7 @@
       <c r="H27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="32" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4132,7 +4071,7 @@
       <c r="E28" s="8">
         <v>79</v>
       </c>
-      <c r="F28" s="16"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="10">
         <f t="shared" si="0"/>
         <v>7900</v>
@@ -4140,7 +4079,7 @@
       <c r="H28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="32" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4160,20 +4099,20 @@
       <c r="E29" s="15">
         <v>55</v>
       </c>
-      <c r="F29" s="16"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="10">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="34" t="s">
+      <c r="H29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="32" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:9">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -4188,20 +4127,20 @@
       <c r="E30" s="15">
         <v>49</v>
       </c>
-      <c r="F30" s="16"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="10">
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="34" t="s">
+      <c r="H30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="32" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31" ht="15.6" spans="1:9">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -4216,26 +4155,26 @@
       <c r="E31" s="15">
         <v>125</v>
       </c>
-      <c r="F31" s="16"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="10">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="34" t="s">
+      <c r="H31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="32" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="1:9">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>105</v>
       </c>
       <c r="D32" s="8">
@@ -4251,21 +4190,21 @@
         <f t="shared" si="0"/>
         <v>9300</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="34" t="s">
+      <c r="H32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="32" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="1:9">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>110</v>
       </c>
       <c r="D33" s="8">
@@ -4274,26 +4213,26 @@
       <c r="E33" s="8">
         <v>16.9</v>
       </c>
-      <c r="F33" s="16"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="10">
         <f t="shared" si="0"/>
         <v>1690</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="34" t="s">
+      <c r="H33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:9">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>112</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>113</v>
       </c>
       <c r="D34" s="8">
@@ -4302,26 +4241,26 @@
       <c r="E34" s="8">
         <v>14.4</v>
       </c>
-      <c r="F34" s="16"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="10">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="34" t="s">
+      <c r="H34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="35" ht="15.6" spans="1:9">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>115</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>116</v>
       </c>
       <c r="D35" s="8">
@@ -4330,20 +4269,20 @@
       <c r="E35" s="8">
         <v>15.5</v>
       </c>
-      <c r="F35" s="16"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="10">
         <f t="shared" si="0"/>
         <v>1550</v>
       </c>
-      <c r="H35" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="34" t="s">
+      <c r="H35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="32" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" ht="15.6" spans="1:9">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -4368,18 +4307,18 @@
       <c r="H36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="31" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37" ht="15.6" spans="1:9">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>123</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="19" t="s">
         <v>125</v>
       </c>
       <c r="D37" s="8">
@@ -4395,10 +4334,10 @@
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="34" t="s">
+      <c r="H37" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="32" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4418,7 +4357,7 @@
       <c r="E38" s="8">
         <v>199</v>
       </c>
-      <c r="F38" s="16"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="10">
         <f t="shared" si="0"/>
         <v>19900</v>
@@ -4426,7 +4365,7 @@
       <c r="H38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="34" t="s">
+      <c r="I38" s="32" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4456,7 +4395,7 @@
       <c r="H39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="32" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4486,12 +4425,12 @@
       <c r="H40" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="32" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="41" ht="15.6" spans="1:9">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="23" t="s">
         <v>139</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -4516,7 +4455,7 @@
       <c r="H41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="32" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4546,7 +4485,7 @@
       <c r="H42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="32" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4576,7 +4515,7 @@
       <c r="H43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="32" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4606,18 +4545,18 @@
       <c r="H44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="32" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="45" ht="15.6" spans="1:9">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>153</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="19" t="s">
         <v>154</v>
       </c>
       <c r="D45" s="8">
@@ -4633,10 +4572,10 @@
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
-      <c r="H45" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="34" t="s">
+      <c r="H45" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="32" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4647,7 +4586,7 @@
       <c r="B46" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="24" t="s">
         <v>157</v>
       </c>
       <c r="D46" s="15">
@@ -4663,10 +4602,10 @@
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
-      <c r="H46" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="34" t="s">
+      <c r="H46" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="32" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4677,7 +4616,7 @@
       <c r="B47" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="24" t="s">
         <v>160</v>
       </c>
       <c r="D47" s="15">
@@ -4693,21 +4632,21 @@
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
-      <c r="H47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="34" t="s">
+      <c r="H47" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="32" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="48" ht="15.6" spans="1:9">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>163</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="19" t="s">
         <v>164</v>
       </c>
       <c r="D48" s="8">
@@ -4723,21 +4662,21 @@
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H48" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="34" t="s">
+      <c r="H48" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="32" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="49" ht="15.6" spans="1:9">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>166</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="19" t="s">
         <v>167</v>
       </c>
       <c r="D49" s="8">
@@ -4753,10 +4692,10 @@
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H49" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="34" t="s">
+      <c r="H49" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="32" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4767,7 +4706,7 @@
       <c r="B50" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="24" t="s">
         <v>140</v>
       </c>
       <c r="D50" s="15">
@@ -4783,10 +4722,10 @@
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H50" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="34" t="s">
+      <c r="H50" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="32" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4797,7 +4736,7 @@
       <c r="B51" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="24" t="s">
         <v>173</v>
       </c>
       <c r="D51" s="15">
@@ -4813,21 +4752,21 @@
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H51" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="34" t="s">
+      <c r="H51" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="32" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="52" ht="15.6" spans="1:9">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>174</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="19" t="s">
         <v>144</v>
       </c>
       <c r="D52" s="8">
@@ -4843,10 +4782,10 @@
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H52" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="34" t="s">
+      <c r="H52" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4857,7 +4796,7 @@
       <c r="B53" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="24" t="s">
         <v>177</v>
       </c>
       <c r="D53" s="15">
@@ -4873,21 +4812,21 @@
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H53" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="34" t="s">
+      <c r="H53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="32" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="54" ht="15.6" spans="1:9">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="20" t="s">
         <v>180</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="19" t="s">
         <v>181</v>
       </c>
       <c r="D54" s="8">
@@ -4903,21 +4842,21 @@
         <f t="shared" si="0"/>
         <v>23900</v>
       </c>
-      <c r="H54" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="34" t="s">
+      <c r="H54" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="32" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="55" ht="15.6" spans="1:9">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="19" t="s">
         <v>181</v>
       </c>
       <c r="D55" s="8">
@@ -4933,21 +4872,21 @@
         <f t="shared" si="0"/>
         <v>23900</v>
       </c>
-      <c r="H55" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="34" t="s">
+      <c r="H55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="32" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="56" ht="15.6" spans="1:9">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="20" t="s">
         <v>185</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="19" t="s">
         <v>181</v>
       </c>
       <c r="D56" s="8">
@@ -4963,21 +4902,21 @@
         <f t="shared" si="0"/>
         <v>23900</v>
       </c>
-      <c r="H56" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="34" t="s">
+      <c r="H56" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="32" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="57" ht="15.6" spans="1:9">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="25" t="s">
         <v>187</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="24" t="s">
         <v>188</v>
       </c>
       <c r="D57" s="15">
@@ -4993,21 +4932,21 @@
         <f t="shared" si="0"/>
         <v>25900</v>
       </c>
-      <c r="H57" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="34" t="s">
+      <c r="H57" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="32" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="58" ht="15.6" spans="1:9">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="20" t="s">
         <v>190</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="19" t="s">
         <v>191</v>
       </c>
       <c r="D58" s="8">
@@ -5023,21 +4962,21 @@
         <f t="shared" si="0"/>
         <v>14900</v>
       </c>
-      <c r="H58" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="34" t="s">
+      <c r="H58" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="32" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="59" ht="15.6" spans="1:9">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="20" t="s">
         <v>194</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="19" t="s">
         <v>195</v>
       </c>
       <c r="D59" s="8">
@@ -5053,21 +4992,21 @@
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H59" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="34" t="s">
+      <c r="H59" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="32" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="60" ht="15.6" spans="1:9">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="20" t="s">
         <v>197</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="19" t="s">
         <v>198</v>
       </c>
       <c r="D60" s="8">
@@ -5083,21 +5022,21 @@
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H60" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="34" t="s">
+      <c r="H60" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="32" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="61" ht="15.6" spans="1:9">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="20" t="s">
         <v>199</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="19" t="s">
         <v>200</v>
       </c>
       <c r="D61" s="8">
@@ -5113,40 +5052,40 @@
         <f t="shared" si="0"/>
         <v>15900</v>
       </c>
-      <c r="H61" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="34" t="s">
+      <c r="H61" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="32" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="62" ht="15.6" spans="1:9">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="26" t="s">
         <v>202</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D62" s="30">
+      <c r="D62" s="28">
         <v>499</v>
       </c>
-      <c r="E62" s="30">
+      <c r="E62" s="28">
         <v>189</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F62" s="29" t="s">
         <v>141</v>
       </c>
       <c r="G62" s="10">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H62" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="34" t="s">
+      <c r="H62" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="32" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5166,15 +5105,15 @@
       <c r="E63" s="15">
         <v>319</v>
       </c>
-      <c r="F63" s="16"/>
+      <c r="F63" s="9"/>
       <c r="G63" s="10">
         <f t="shared" si="0"/>
         <v>31900</v>
       </c>
-      <c r="H63" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="34" t="s">
+      <c r="H63" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="32" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5194,26 +5133,26 @@
       <c r="E64" s="15">
         <v>499</v>
       </c>
-      <c r="F64" s="16"/>
+      <c r="F64" s="9"/>
       <c r="G64" s="10">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="H64" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="34" t="s">
+      <c r="H64" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="32" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="65" ht="15.6" spans="1:9">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="20" t="s">
         <v>210</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="19" t="s">
         <v>212</v>
       </c>
       <c r="D65" s="8">
@@ -5229,10 +5168,10 @@
         <f t="shared" si="0"/>
         <v>1850</v>
       </c>
-      <c r="H65" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="34" t="s">
+      <c r="H65" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="32" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5259,18 +5198,18 @@
       <c r="H66" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I66" s="34" t="s">
+      <c r="I66" s="32" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="67" ht="15.6" spans="1:9">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="19" t="s">
         <v>221</v>
       </c>
       <c r="D67" s="8">
@@ -5286,21 +5225,21 @@
         <f t="shared" si="1"/>
         <v>3900</v>
       </c>
-      <c r="H67" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="34" t="s">
+      <c r="H67" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="32" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="68" ht="15.6" spans="1:9">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="19" t="s">
         <v>225</v>
       </c>
       <c r="D68" s="8">
@@ -5316,21 +5255,21 @@
         <f t="shared" si="1"/>
         <v>4900</v>
       </c>
-      <c r="H68" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="34" t="s">
+      <c r="H68" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="32" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="69" ht="15.6" spans="1:9">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="19" t="s">
         <v>229</v>
       </c>
       <c r="D69" s="8">
@@ -5339,15 +5278,15 @@
       <c r="E69" s="8">
         <v>29</v>
       </c>
-      <c r="F69" s="16"/>
+      <c r="F69" s="9"/>
       <c r="G69" s="10">
         <f t="shared" si="1"/>
         <v>2900</v>
       </c>
-      <c r="H69" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="34" t="s">
+      <c r="H69" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="32" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5355,7 +5294,7 @@
       <c r="A70" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="16" t="s">
         <v>220</v>
       </c>
       <c r="C70" s="14" t="s">
@@ -5374,10 +5313,10 @@
         <f t="shared" si="1"/>
         <v>2490</v>
       </c>
-      <c r="H70" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="34" t="s">
+      <c r="H70" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="32" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5385,7 +5324,7 @@
       <c r="A71" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="16" t="s">
         <v>220</v>
       </c>
       <c r="C71" s="14" t="s">
@@ -5404,10 +5343,10 @@
         <f t="shared" si="1"/>
         <v>2090</v>
       </c>
-      <c r="H71" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="34" t="s">
+      <c r="H71" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="32" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5437,7 +5376,7 @@
       <c r="H72" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I72" s="34" t="s">
+      <c r="I72" s="32" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5467,18 +5406,18 @@
       <c r="H73" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I73" s="34" t="s">
+      <c r="I73" s="32" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="74" ht="15.6" spans="1:9">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="20" t="s">
         <v>248</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="19" t="s">
         <v>249</v>
       </c>
       <c r="D74" s="8">
@@ -5487,26 +5426,26 @@
       <c r="E74" s="8">
         <v>115</v>
       </c>
-      <c r="F74" s="16"/>
+      <c r="F74" s="9"/>
       <c r="G74" s="10">
         <f t="shared" si="1"/>
         <v>11500</v>
       </c>
-      <c r="H74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="34" t="s">
+      <c r="H74" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="32" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="75" ht="15.6" spans="1:9">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="20" t="s">
         <v>251</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="19" t="s">
         <v>253</v>
       </c>
       <c r="D75" s="8">
@@ -5522,21 +5461,21 @@
         <f t="shared" si="1"/>
         <v>1190</v>
       </c>
-      <c r="H75" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I75" s="34" t="s">
+      <c r="H75" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="32" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="76" ht="15.6" spans="1:9">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="19" t="s">
         <v>258</v>
       </c>
       <c r="D76" s="8">
@@ -5552,21 +5491,21 @@
         <f t="shared" si="1"/>
         <v>12900</v>
       </c>
-      <c r="H76" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" s="34" t="s">
+      <c r="H76" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="32" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="77" ht="15.6" spans="1:9">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="19" t="s">
         <v>261</v>
       </c>
       <c r="D77" s="8">
@@ -5575,26 +5514,26 @@
       <c r="E77" s="8">
         <v>99</v>
       </c>
-      <c r="F77" s="16"/>
+      <c r="F77" s="9"/>
       <c r="G77" s="10">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H77" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="33" t="s">
+      <c r="H77" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="31" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="78" ht="15.6" spans="1:9">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="20" t="s">
         <v>263</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="19" t="s">
         <v>265</v>
       </c>
       <c r="D78" s="15">
@@ -5603,26 +5542,26 @@
       <c r="E78" s="8">
         <v>89</v>
       </c>
-      <c r="F78" s="16"/>
+      <c r="F78" s="9"/>
       <c r="G78" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H78" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="34" t="s">
+      <c r="H78" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="32" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="79" ht="15.6" spans="1:9">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="20" t="s">
         <v>267</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="19" t="s">
         <v>268</v>
       </c>
       <c r="D79" s="15">
@@ -5631,26 +5570,26 @@
       <c r="E79" s="8">
         <v>89</v>
       </c>
-      <c r="F79" s="16"/>
+      <c r="F79" s="9"/>
       <c r="G79" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H79" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I79" s="34" t="s">
+      <c r="H79" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="32" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="80" ht="15.6" spans="1:9">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="20" t="s">
         <v>270</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="19" t="s">
         <v>271</v>
       </c>
       <c r="D80" s="15">
@@ -5659,26 +5598,26 @@
       <c r="E80" s="8">
         <v>89</v>
       </c>
-      <c r="F80" s="16"/>
+      <c r="F80" s="9"/>
       <c r="G80" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H80" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80" s="34" t="s">
+      <c r="H80" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="32" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:9">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="20" t="s">
         <v>272</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D81" s="15">
@@ -5687,26 +5626,26 @@
       <c r="E81" s="8">
         <v>89</v>
       </c>
-      <c r="F81" s="16"/>
+      <c r="F81" s="9"/>
       <c r="G81" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H81" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I81" s="34" t="s">
+      <c r="H81" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="32" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="82" ht="15.6" spans="1:9">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="20" t="s">
         <v>274</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="19" t="s">
         <v>276</v>
       </c>
       <c r="D82" s="8">
@@ -5715,26 +5654,26 @@
       <c r="E82" s="8">
         <v>18.5</v>
       </c>
-      <c r="F82" s="16"/>
+      <c r="F82" s="9"/>
       <c r="G82" s="10">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="H82" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I82" s="34" t="s">
+      <c r="H82" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="32" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="83" ht="15.6" spans="1:9">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="20" t="s">
         <v>278</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="19" t="s">
         <v>279</v>
       </c>
       <c r="D83" s="8">
@@ -5743,26 +5682,26 @@
       <c r="E83" s="8">
         <v>18</v>
       </c>
-      <c r="F83" s="16"/>
+      <c r="F83" s="9"/>
       <c r="G83" s="10">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="H83" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I83" s="34" t="s">
+      <c r="H83" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="32" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="84" ht="15.6" spans="1:9">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="20" t="s">
         <v>281</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="19" t="s">
         <v>283</v>
       </c>
       <c r="D84" s="8">
@@ -5778,21 +5717,21 @@
         <f t="shared" si="1"/>
         <v>570</v>
       </c>
-      <c r="H84" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I84" s="34" t="s">
+      <c r="H84" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" s="32" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="85" ht="15.6" spans="1:9">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="20" t="s">
         <v>286</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="19" t="s">
         <v>287</v>
       </c>
       <c r="D85" s="8">
@@ -5808,21 +5747,21 @@
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="H85" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" s="34" t="s">
+      <c r="H85" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="32" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="86" ht="15.6" spans="1:9">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="20" t="s">
         <v>289</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="19" t="s">
         <v>291</v>
       </c>
       <c r="D86" s="8">
@@ -5838,10 +5777,10 @@
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H86" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I86" s="34" t="s">
+      <c r="H86" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="32" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5861,7 +5800,7 @@
       <c r="E87" s="8">
         <v>769</v>
       </c>
-      <c r="F87" s="16"/>
+      <c r="F87" s="9"/>
       <c r="G87" s="10">
         <f t="shared" si="1"/>
         <v>76900</v>
@@ -5869,18 +5808,18 @@
       <c r="H87" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I87" s="34" t="s">
+      <c r="I87" s="32" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="88" ht="15.6" spans="1:9">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="20" t="s">
         <v>298</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="19" t="s">
         <v>299</v>
       </c>
       <c r="D88" s="8">
@@ -5889,26 +5828,26 @@
       <c r="E88" s="8">
         <v>599</v>
       </c>
-      <c r="F88" s="16"/>
+      <c r="F88" s="9"/>
       <c r="G88" s="10">
         <f t="shared" si="1"/>
         <v>59900</v>
       </c>
-      <c r="H88" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I88" s="34" t="s">
+      <c r="H88" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="32" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="89" ht="15.6" spans="1:9">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="20" t="s">
         <v>301</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="19" t="s">
         <v>302</v>
       </c>
       <c r="D89" s="8">
@@ -5917,26 +5856,26 @@
       <c r="E89" s="8">
         <v>599</v>
       </c>
-      <c r="F89" s="16"/>
+      <c r="F89" s="9"/>
       <c r="G89" s="10">
         <f t="shared" si="1"/>
         <v>59900</v>
       </c>
-      <c r="H89" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I89" s="34" t="s">
+      <c r="H89" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="32" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="90" ht="15.6" spans="1:9">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="20" t="s">
         <v>304</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="19" t="s">
         <v>305</v>
       </c>
       <c r="D90" s="8">
@@ -5945,26 +5884,26 @@
       <c r="E90" s="8">
         <v>1199</v>
       </c>
-      <c r="F90" s="16"/>
+      <c r="F90" s="9"/>
       <c r="G90" s="10">
         <f t="shared" si="1"/>
         <v>119900</v>
       </c>
-      <c r="H90" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I90" s="34" t="s">
+      <c r="H90" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="32" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="91" ht="15.6" spans="1:9">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="20" t="s">
         <v>307</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="19" t="s">
         <v>308</v>
       </c>
       <c r="D91" s="8">
@@ -5973,26 +5912,26 @@
       <c r="E91" s="8">
         <v>1699</v>
       </c>
-      <c r="F91" s="16"/>
+      <c r="F91" s="9"/>
       <c r="G91" s="10">
         <f t="shared" si="1"/>
         <v>169900</v>
       </c>
-      <c r="H91" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I91" s="34" t="s">
+      <c r="H91" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="32" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="92" ht="15.6" spans="1:9">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="20" t="s">
         <v>310</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="19" t="s">
         <v>311</v>
       </c>
       <c r="D92" s="8">
@@ -6001,26 +5940,26 @@
       <c r="E92" s="8">
         <v>79</v>
       </c>
-      <c r="F92" s="16"/>
+      <c r="F92" s="9"/>
       <c r="G92" s="10">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="H92" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I92" s="34" t="s">
+      <c r="H92" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="32" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="93" ht="15.6" spans="1:9">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="20" t="s">
         <v>313</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="19" t="s">
         <v>314</v>
       </c>
       <c r="D93" s="8">
@@ -6029,15 +5968,15 @@
       <c r="E93" s="8">
         <v>79</v>
       </c>
-      <c r="F93" s="16"/>
+      <c r="F93" s="9"/>
       <c r="G93" s="10">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="H93" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I93" s="34" t="s">
+      <c r="H93" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="32" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6045,10 +5984,10 @@
       <c r="A94" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="17" t="s">
         <v>317</v>
       </c>
       <c r="D94" s="15">
@@ -6064,21 +6003,21 @@
         <f t="shared" si="1"/>
         <v>10900</v>
       </c>
-      <c r="H94" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I94" s="34" t="s">
+      <c r="H94" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="32" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="95" ht="15.6" spans="1:9">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="19" t="s">
         <v>321</v>
       </c>
       <c r="D95" s="8">
@@ -6094,10 +6033,10 @@
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H95" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I95" s="34" t="s">
+      <c r="H95" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="32" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6127,7 +6066,7 @@
       <c r="H96" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I96" s="34" t="s">
+      <c r="I96" s="32" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6157,7 +6096,7 @@
       <c r="H97" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I97" s="33" t="s">
+      <c r="I97" s="31" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6187,7 +6126,7 @@
       <c r="H98" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I98" s="34" t="s">
+      <c r="I98" s="32" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6217,7 +6156,7 @@
       <c r="H99" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I99" s="34" t="s">
+      <c r="I99" s="32" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6247,7 +6186,7 @@
       <c r="H100" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I100" s="34" t="s">
+      <c r="I100" s="32" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6277,7 +6216,7 @@
       <c r="H101" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I101" s="34" t="s">
+      <c r="I101" s="32" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6307,7 +6246,7 @@
       <c r="H102" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I102" s="33" t="s">
+      <c r="I102" s="31" t="s">
         <v>346</v>
       </c>
     </row>
@@ -6337,7 +6276,7 @@
       <c r="H103" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I103" s="37" t="s">
+      <c r="I103" s="35" t="s">
         <v>349</v>
       </c>
     </row>
@@ -6357,7 +6296,7 @@
       <c r="E104" s="8">
         <v>177</v>
       </c>
-      <c r="F104" s="16"/>
+      <c r="F104" s="9"/>
       <c r="G104" s="10">
         <f t="shared" si="1"/>
         <v>17700</v>
@@ -6365,7 +6304,7 @@
       <c r="H104" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I104" s="34" t="s">
+      <c r="I104" s="32" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6385,15 +6324,15 @@
       <c r="E105" s="15">
         <v>329</v>
       </c>
-      <c r="F105" s="16"/>
+      <c r="F105" s="9"/>
       <c r="G105" s="10">
         <f t="shared" si="1"/>
         <v>32900</v>
       </c>
-      <c r="H105" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I105" s="34" t="s">
+      <c r="H105" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="32" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6413,20 +6352,20 @@
       <c r="E106" s="8">
         <v>459</v>
       </c>
-      <c r="F106" s="16"/>
+      <c r="F106" s="9"/>
       <c r="G106" s="10">
         <f t="shared" si="1"/>
         <v>45900</v>
       </c>
-      <c r="H106" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I106" s="34" t="s">
+      <c r="H106" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" s="32" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="107" ht="15.6" spans="1:9">
-      <c r="A107" s="21" t="s">
+      <c r="A107" s="20" t="s">
         <v>361</v>
       </c>
       <c r="B107" s="13" t="s">
@@ -6441,15 +6380,15 @@
       <c r="E107" s="8">
         <v>459</v>
       </c>
-      <c r="F107" s="16"/>
+      <c r="F107" s="9"/>
       <c r="G107" s="10">
         <f t="shared" si="1"/>
         <v>45900</v>
       </c>
-      <c r="H107" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I107" s="34" t="s">
+      <c r="H107" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="32" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6457,10 +6396,10 @@
       <c r="A108" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="24" t="s">
         <v>365</v>
       </c>
       <c r="D108" s="15">
@@ -6469,15 +6408,15 @@
       <c r="E108" s="15">
         <v>99</v>
       </c>
-      <c r="F108" s="16"/>
+      <c r="F108" s="9"/>
       <c r="G108" s="10">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H108" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I108" s="34" t="s">
+      <c r="H108" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="32" t="s">
         <v>366</v>
       </c>
     </row>
@@ -6507,18 +6446,18 @@
       <c r="H109" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I109" s="34" t="s">
+      <c r="I109" s="32" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="110" ht="15.6" spans="1:9">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="20" t="s">
         <v>371</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="19" t="s">
         <v>372</v>
       </c>
       <c r="D110" s="8">
@@ -6534,21 +6473,21 @@
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="H110" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I110" s="34" t="s">
+      <c r="H110" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="32" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="111" ht="15.6" spans="1:9">
-      <c r="A111" s="21" t="s">
+      <c r="A111" s="20" t="s">
         <v>375</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="19" t="s">
         <v>376</v>
       </c>
       <c r="D111" s="8">
@@ -6564,10 +6503,10 @@
         <f t="shared" si="1"/>
         <v>10900</v>
       </c>
-      <c r="H111" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I111" s="34" t="s">
+      <c r="H111" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="32" t="s">
         <v>378</v>
       </c>
     </row>
@@ -6587,7 +6526,7 @@
       <c r="E112" s="8">
         <v>105</v>
       </c>
-      <c r="F112" s="16"/>
+      <c r="F112" s="9"/>
       <c r="G112" s="10">
         <f t="shared" si="1"/>
         <v>10500</v>
@@ -6595,18 +6534,18 @@
       <c r="H112" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I112" s="34" t="s">
+      <c r="I112" s="32" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:9">
-      <c r="A113" s="21" t="s">
+      <c r="A113" s="20" t="s">
         <v>383</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="19" t="s">
         <v>384</v>
       </c>
       <c r="D113" s="8">
@@ -6615,26 +6554,26 @@
       <c r="E113" s="8">
         <v>84</v>
       </c>
-      <c r="F113" s="16"/>
+      <c r="F113" s="9"/>
       <c r="G113" s="10">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-      <c r="H113" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I113" s="34" t="s">
+      <c r="H113" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="32" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="114" ht="15.6" spans="1:9">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="20" t="s">
         <v>386</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="19" t="s">
         <v>387</v>
       </c>
       <c r="D114" s="8">
@@ -6643,26 +6582,26 @@
       <c r="E114" s="8">
         <v>84</v>
       </c>
-      <c r="F114" s="16"/>
+      <c r="F114" s="9"/>
       <c r="G114" s="10">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-      <c r="H114" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I114" s="34" t="s">
+      <c r="H114" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="32" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="115" ht="15.6" spans="1:9">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="20" t="s">
         <v>389</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="19" t="s">
         <v>390</v>
       </c>
       <c r="D115" s="8">
@@ -6671,15 +6610,15 @@
       <c r="E115" s="8">
         <v>84</v>
       </c>
-      <c r="F115" s="16"/>
+      <c r="F115" s="9"/>
       <c r="G115" s="10">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-      <c r="H115" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I115" s="34" t="s">
+      <c r="H115" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="32" t="s">
         <v>391</v>
       </c>
     </row>
@@ -6696,29 +6635,29 @@
       <c r="D116" s="15">
         <v>106</v>
       </c>
-      <c r="E116" s="36">
+      <c r="E116" s="34">
         <v>104</v>
       </c>
-      <c r="F116" s="16"/>
+      <c r="F116" s="9"/>
       <c r="G116" s="10">
         <f t="shared" si="1"/>
         <v>10400</v>
       </c>
-      <c r="H116" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I116" s="34" t="s">
+      <c r="H116" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="32" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="117" ht="15.6" spans="1:9">
-      <c r="A117" s="21" t="s">
+      <c r="A117" s="20" t="s">
         <v>395</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="19" t="s">
         <v>397</v>
       </c>
       <c r="D117" s="8">
@@ -6734,21 +6673,21 @@
         <f t="shared" si="1"/>
         <v>860</v>
       </c>
-      <c r="H117" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I117" s="34" t="s">
+      <c r="H117" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="32" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="118" ht="15.6" spans="1:9">
-      <c r="A118" s="21" t="s">
+      <c r="A118" s="20" t="s">
         <v>399</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="19" t="s">
         <v>400</v>
       </c>
       <c r="D118" s="8">
@@ -6764,21 +6703,21 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H118" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I118" s="34" t="s">
+      <c r="H118" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="32" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="119" ht="15.6" spans="1:9">
-      <c r="A119" s="21" t="s">
+      <c r="A119" s="20" t="s">
         <v>403</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="19" t="s">
         <v>404</v>
       </c>
       <c r="D119" s="8">
@@ -6794,21 +6733,21 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H119" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I119" s="34" t="s">
+      <c r="H119" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="32" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="120" ht="15.6" spans="1:9">
-      <c r="A120" s="21" t="s">
+      <c r="A120" s="20" t="s">
         <v>406</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="19" t="s">
         <v>407</v>
       </c>
       <c r="D120" s="8">
@@ -6824,21 +6763,21 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H120" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I120" s="34" t="s">
+      <c r="H120" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="32" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="121" ht="15.6" spans="1:9">
-      <c r="A121" s="21" t="s">
+      <c r="A121" s="20" t="s">
         <v>409</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="19" t="s">
         <v>411</v>
       </c>
       <c r="D121" s="8">
@@ -6847,110 +6786,110 @@
       <c r="E121" s="8">
         <v>12.5</v>
       </c>
-      <c r="F121" s="16"/>
+      <c r="F121" s="9"/>
       <c r="G121" s="10">
         <f t="shared" si="1"/>
         <v>1250</v>
       </c>
-      <c r="H121" s="17" t="s">
+      <c r="H121" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="I121" s="34" t="s">
+      <c r="I121" s="32" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="122" ht="15.6" spans="1:9">
-      <c r="A122" s="21" t="s">
+      <c r="A122" s="20" t="s">
         <v>414</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="17" t="s">
         <v>416</v>
       </c>
       <c r="D122" s="15">
         <v>69</v>
       </c>
-      <c r="E122" s="36">
+      <c r="E122" s="34">
         <v>69</v>
       </c>
-      <c r="F122" s="16"/>
+      <c r="F122" s="9"/>
       <c r="G122" s="10">
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="H122" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I122" s="34" t="s">
+      <c r="H122" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="32" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="123" ht="15.6" spans="1:9">
-      <c r="A123" s="21" t="s">
+      <c r="A123" s="20" t="s">
         <v>418</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="17" t="s">
         <v>419</v>
       </c>
       <c r="D123" s="15">
         <v>69</v>
       </c>
-      <c r="E123" s="36">
+      <c r="E123" s="34">
         <v>69</v>
       </c>
-      <c r="F123" s="16"/>
+      <c r="F123" s="9"/>
       <c r="G123" s="10">
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="H123" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I123" s="34" t="s">
+      <c r="H123" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" s="32" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="124" ht="15.6" spans="1:9">
-      <c r="A124" s="21" t="s">
+      <c r="A124" s="20" t="s">
         <v>421</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="17" t="s">
         <v>422</v>
       </c>
       <c r="D124" s="15">
         <v>69</v>
       </c>
-      <c r="E124" s="36">
+      <c r="E124" s="34">
         <v>69</v>
       </c>
-      <c r="F124" s="16"/>
+      <c r="F124" s="9"/>
       <c r="G124" s="10">
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="H124" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I124" s="34" t="s">
+      <c r="H124" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="32" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="125" ht="15.6" spans="1:9">
-      <c r="A125" s="21" t="s">
+      <c r="A125" s="20" t="s">
         <v>424</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="19" t="s">
         <v>425</v>
       </c>
       <c r="D125" s="8">
@@ -6959,26 +6898,26 @@
       <c r="E125" s="8">
         <v>89</v>
       </c>
-      <c r="F125" s="16"/>
+      <c r="F125" s="9"/>
       <c r="G125" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H125" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I125" s="34" t="s">
+      <c r="H125" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="32" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="126" ht="15.6" spans="1:9">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="20" t="s">
         <v>427</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="19" t="s">
         <v>425</v>
       </c>
       <c r="D126" s="8">
@@ -6987,26 +6926,26 @@
       <c r="E126" s="8">
         <v>89</v>
       </c>
-      <c r="F126" s="16"/>
+      <c r="F126" s="9"/>
       <c r="G126" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H126" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I126" s="34" t="s">
+      <c r="H126" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="32" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="127" ht="15.6" spans="1:9">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="20" t="s">
         <v>429</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="19" t="s">
         <v>425</v>
       </c>
       <c r="D127" s="8">
@@ -7015,26 +6954,26 @@
       <c r="E127" s="8">
         <v>89</v>
       </c>
-      <c r="F127" s="16"/>
+      <c r="F127" s="9"/>
       <c r="G127" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H127" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I127" s="34" t="s">
+      <c r="H127" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" s="32" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="128" ht="15.6" spans="1:9">
-      <c r="A128" s="21" t="s">
+      <c r="A128" s="20" t="s">
         <v>431</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="19" t="s">
         <v>432</v>
       </c>
       <c r="D128" s="8">
@@ -7043,26 +6982,26 @@
       <c r="E128" s="8">
         <v>39.9</v>
       </c>
-      <c r="F128" s="16"/>
+      <c r="F128" s="9"/>
       <c r="G128" s="10">
         <f t="shared" si="1"/>
         <v>3990</v>
       </c>
-      <c r="H128" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I128" s="34" t="s">
+      <c r="H128" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="32" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="129" ht="15.6" spans="1:9">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C129" s="20" t="s">
+      <c r="C129" s="19" t="s">
         <v>436</v>
       </c>
       <c r="D129" s="8">
@@ -7071,26 +7010,26 @@
       <c r="E129" s="8">
         <v>449</v>
       </c>
-      <c r="F129" s="16"/>
+      <c r="F129" s="9"/>
       <c r="G129" s="10">
         <f t="shared" si="1"/>
         <v>44900</v>
       </c>
-      <c r="H129" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I129" s="34" t="s">
+      <c r="H129" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="32" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="130" ht="15.6" spans="1:9">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="20" t="s">
         <v>438</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C130" s="20" t="s">
+      <c r="C130" s="19" t="s">
         <v>440</v>
       </c>
       <c r="D130" s="15">
@@ -7099,26 +7038,26 @@
       <c r="E130" s="8">
         <v>79</v>
       </c>
-      <c r="F130" s="16"/>
+      <c r="F130" s="9"/>
       <c r="G130" s="10">
         <f t="shared" ref="G130:G175" si="2">E130*100</f>
         <v>7900</v>
       </c>
-      <c r="H130" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I130" s="34" t="s">
+      <c r="H130" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="32" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="131" ht="15.6" spans="1:9">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="20" t="s">
         <v>442</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="19" t="s">
         <v>443</v>
       </c>
       <c r="D131" s="15">
@@ -7127,26 +7066,26 @@
       <c r="E131" s="8">
         <v>159</v>
       </c>
-      <c r="F131" s="16"/>
+      <c r="F131" s="9"/>
       <c r="G131" s="10">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H131" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I131" s="34" t="s">
+      <c r="H131" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="32" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="132" ht="15.6" spans="1:9">
-      <c r="A132" s="21" t="s">
+      <c r="A132" s="20" t="s">
         <v>445</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="19" t="s">
         <v>446</v>
       </c>
       <c r="D132" s="15">
@@ -7155,26 +7094,26 @@
       <c r="E132" s="8">
         <v>159</v>
       </c>
-      <c r="F132" s="16"/>
+      <c r="F132" s="9"/>
       <c r="G132" s="10">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H132" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I132" s="34" t="s">
+      <c r="H132" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="32" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="133" ht="15.6" spans="1:9">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="20" t="s">
         <v>448</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="19" t="s">
         <v>449</v>
       </c>
       <c r="D133" s="15">
@@ -7183,26 +7122,26 @@
       <c r="E133" s="8">
         <v>159</v>
       </c>
-      <c r="F133" s="16"/>
+      <c r="F133" s="9"/>
       <c r="G133" s="10">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H133" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I133" s="33" t="s">
+      <c r="H133" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="31" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="134" ht="15.6" spans="1:9">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="20" t="s">
         <v>451</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="19" t="s">
         <v>452</v>
       </c>
       <c r="D134" s="15">
@@ -7211,26 +7150,26 @@
       <c r="E134" s="8">
         <v>159</v>
       </c>
-      <c r="F134" s="16"/>
+      <c r="F134" s="9"/>
       <c r="G134" s="10">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H134" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I134" s="33" t="s">
+      <c r="H134" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="31" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="135" ht="15.6" spans="1:9">
-      <c r="A135" s="21" t="s">
+      <c r="A135" s="20" t="s">
         <v>454</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C135" s="20" t="s">
+      <c r="C135" s="19" t="s">
         <v>455</v>
       </c>
       <c r="D135" s="15">
@@ -7239,26 +7178,26 @@
       <c r="E135" s="8">
         <v>79</v>
       </c>
-      <c r="F135" s="16"/>
+      <c r="F135" s="9"/>
       <c r="G135" s="10">
         <f t="shared" si="2"/>
         <v>7900</v>
       </c>
-      <c r="H135" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I135" s="33" t="s">
+      <c r="H135" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="31" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="136" ht="15.6" spans="1:9">
-      <c r="A136" s="21" t="s">
+      <c r="A136" s="20" t="s">
         <v>457</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="19" t="s">
         <v>458</v>
       </c>
       <c r="D136" s="15">
@@ -7267,15 +7206,15 @@
       <c r="E136" s="8">
         <v>79</v>
       </c>
-      <c r="F136" s="16"/>
+      <c r="F136" s="9"/>
       <c r="G136" s="10">
         <f t="shared" si="2"/>
         <v>7900</v>
       </c>
-      <c r="H136" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I136" s="33" t="s">
+      <c r="H136" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" s="31" t="s">
         <v>459</v>
       </c>
     </row>
@@ -7286,7 +7225,7 @@
       <c r="B137" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="C137" s="38" t="s">
+      <c r="C137" s="36" t="s">
         <v>462</v>
       </c>
       <c r="D137" s="15">
@@ -7295,26 +7234,26 @@
       <c r="E137" s="15">
         <v>279</v>
       </c>
-      <c r="F137" s="16"/>
+      <c r="F137" s="9"/>
       <c r="G137" s="10">
         <f t="shared" si="2"/>
         <v>27900</v>
       </c>
-      <c r="H137" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I137" s="34" t="s">
+      <c r="H137" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="32" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="138" ht="15.6" spans="1:9">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="20" t="s">
         <v>464</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D138" s="8">
@@ -7330,21 +7269,21 @@
         <f t="shared" si="2"/>
         <v>16900</v>
       </c>
-      <c r="H138" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I138" s="34" t="s">
+      <c r="H138" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="32" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="139" ht="15.6" spans="1:9">
-      <c r="A139" s="21" t="s">
+      <c r="A139" s="20" t="s">
         <v>467</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="19" t="s">
         <v>469</v>
       </c>
       <c r="D139" s="8">
@@ -7353,26 +7292,26 @@
       <c r="E139" s="8">
         <v>8.1</v>
       </c>
-      <c r="F139" s="16"/>
+      <c r="F139" s="9"/>
       <c r="G139" s="10">
         <f t="shared" si="2"/>
         <v>810</v>
       </c>
-      <c r="H139" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I139" s="34" t="s">
+      <c r="H139" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="32" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="140" ht="15.6" spans="1:9">
-      <c r="A140" s="21" t="s">
+      <c r="A140" s="20" t="s">
         <v>471</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C140" s="20" t="s">
+      <c r="C140" s="19" t="s">
         <v>472</v>
       </c>
       <c r="D140" s="8">
@@ -7381,26 +7320,26 @@
       <c r="E140" s="8">
         <v>3.3</v>
       </c>
-      <c r="F140" s="16"/>
+      <c r="F140" s="9"/>
       <c r="G140" s="10">
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
-      <c r="H140" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I140" s="34" t="s">
+      <c r="H140" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="32" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="141" ht="15.6" spans="1:9">
-      <c r="A141" s="21" t="s">
+      <c r="A141" s="20" t="s">
         <v>474</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C141" s="39" t="s">
+      <c r="C141" s="19" t="s">
         <v>475</v>
       </c>
       <c r="D141" s="8">
@@ -7416,10 +7355,10 @@
         <f t="shared" si="2"/>
         <v>1150</v>
       </c>
-      <c r="H141" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I141" s="34" t="s">
+      <c r="H141" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="32" t="s">
         <v>477</v>
       </c>
     </row>
@@ -7427,7 +7366,7 @@
       <c r="A142" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="B142" s="16" t="s">
         <v>479</v>
       </c>
       <c r="C142" s="7" t="s">
@@ -7446,21 +7385,21 @@
         <f t="shared" si="2"/>
         <v>39900</v>
       </c>
-      <c r="H142" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I142" s="34" t="s">
+      <c r="H142" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="32" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="143" ht="15.6" spans="1:9">
-      <c r="A143" s="21" t="s">
+      <c r="A143" s="20" t="s">
         <v>483</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C143" s="20" t="s">
+      <c r="C143" s="19" t="s">
         <v>485</v>
       </c>
       <c r="D143" s="8">
@@ -7476,10 +7415,10 @@
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="H143" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I143" s="34" t="s">
+      <c r="H143" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" s="32" t="s">
         <v>487</v>
       </c>
     </row>
@@ -7487,10 +7426,10 @@
       <c r="A144" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="C144" s="40" t="s">
+      <c r="C144" s="17" t="s">
         <v>490</v>
       </c>
       <c r="D144" s="15">
@@ -7506,21 +7445,21 @@
         <f t="shared" si="2"/>
         <v>25900</v>
       </c>
-      <c r="H144" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I144" s="34" t="s">
+      <c r="H144" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" s="32" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="145" ht="15.6" spans="1:9">
-      <c r="A145" s="21" t="s">
+      <c r="A145" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="C145" s="20" t="s">
+      <c r="C145" s="19" t="s">
         <v>494</v>
       </c>
       <c r="D145" s="8">
@@ -7529,26 +7468,26 @@
       <c r="E145" s="8">
         <v>269</v>
       </c>
-      <c r="F145" s="16"/>
+      <c r="F145" s="9"/>
       <c r="G145" s="10">
         <f t="shared" si="2"/>
         <v>26900</v>
       </c>
-      <c r="H145" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I145" s="34" t="s">
+      <c r="H145" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="32" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="146" ht="15.6" spans="1:9">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="19" t="s">
         <v>497</v>
       </c>
       <c r="D146" s="8">
@@ -7564,21 +7503,21 @@
         <f t="shared" si="2"/>
         <v>12900</v>
       </c>
-      <c r="H146" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I146" s="34" t="s">
+      <c r="H146" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" s="32" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="147" ht="15.6" spans="1:9">
-      <c r="A147" s="21" t="s">
+      <c r="A147" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="C147" s="20" t="s">
+      <c r="C147" s="19" t="s">
         <v>501</v>
       </c>
       <c r="D147" s="8">
@@ -7587,26 +7526,26 @@
       <c r="E147" s="8">
         <v>1499</v>
       </c>
-      <c r="F147" s="16"/>
+      <c r="F147" s="9"/>
       <c r="G147" s="10">
         <f t="shared" si="2"/>
         <v>149900</v>
       </c>
-      <c r="H147" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I147" s="34" t="s">
+      <c r="H147" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="32" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="148" ht="15.6" spans="1:9">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="20" t="s">
         <v>503</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C148" s="19" t="s">
         <v>505</v>
       </c>
       <c r="D148" s="8">
@@ -7622,21 +7561,21 @@
         <f t="shared" si="2"/>
         <v>910</v>
       </c>
-      <c r="H148" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I148" s="34" t="s">
+      <c r="H148" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="32" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="149" ht="15.6" spans="1:9">
-      <c r="A149" s="21" t="s">
+      <c r="A149" s="20" t="s">
         <v>508</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C149" s="20" t="s">
+      <c r="C149" s="19" t="s">
         <v>510</v>
       </c>
       <c r="D149" s="8">
@@ -7652,21 +7591,21 @@
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-      <c r="H149" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I149" s="34" t="s">
+      <c r="H149" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="32" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="150" ht="15.6" spans="1:9">
-      <c r="A150" s="19" t="s">
+      <c r="A150" s="18" t="s">
         <v>512</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="19" t="s">
         <v>514</v>
       </c>
       <c r="D150" s="8">
@@ -7675,7 +7614,7 @@
       <c r="E150" s="8">
         <v>18.9</v>
       </c>
-      <c r="F150" s="16"/>
+      <c r="F150" s="9"/>
       <c r="G150" s="10">
         <f t="shared" si="2"/>
         <v>1890</v>
@@ -7683,18 +7622,18 @@
       <c r="H150" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I150" s="34" t="s">
+      <c r="I150" s="32" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="151" ht="15.6" spans="1:9">
-      <c r="A151" s="19" t="s">
+      <c r="A151" s="18" t="s">
         <v>516</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="C151" s="19" t="s">
         <v>517</v>
       </c>
       <c r="D151" s="8">
@@ -7703,7 +7642,7 @@
       <c r="E151" s="8">
         <v>30</v>
       </c>
-      <c r="F151" s="16"/>
+      <c r="F151" s="9"/>
       <c r="G151" s="10">
         <f t="shared" si="2"/>
         <v>3000</v>
@@ -7711,18 +7650,18 @@
       <c r="H151" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I151" s="34" t="s">
+      <c r="I151" s="32" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="152" ht="15.6" spans="1:9">
-      <c r="A152" s="19" t="s">
+      <c r="A152" s="18" t="s">
         <v>519</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C152" s="20" t="s">
+      <c r="C152" s="19" t="s">
         <v>520</v>
       </c>
       <c r="D152" s="8">
@@ -7731,7 +7670,7 @@
       <c r="E152" s="8">
         <v>36</v>
       </c>
-      <c r="F152" s="16"/>
+      <c r="F152" s="9"/>
       <c r="G152" s="10">
         <f t="shared" si="2"/>
         <v>3600</v>
@@ -7739,18 +7678,18 @@
       <c r="H152" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I152" s="34" t="s">
+      <c r="I152" s="32" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="153" ht="15.6" spans="1:9">
-      <c r="A153" s="19" t="s">
+      <c r="A153" s="18" t="s">
         <v>522</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C153" s="20" t="s">
+      <c r="C153" s="19" t="s">
         <v>523</v>
       </c>
       <c r="D153" s="8">
@@ -7759,7 +7698,7 @@
       <c r="E153" s="8">
         <v>35</v>
       </c>
-      <c r="F153" s="16"/>
+      <c r="F153" s="9"/>
       <c r="G153" s="10">
         <f t="shared" si="2"/>
         <v>3500</v>
@@ -7767,18 +7706,18 @@
       <c r="H153" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I153" s="34" t="s">
+      <c r="I153" s="32" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="154" ht="15.6" spans="1:9">
-      <c r="A154" s="19" t="s">
+      <c r="A154" s="18" t="s">
         <v>525</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C154" s="20" t="s">
+      <c r="C154" s="19" t="s">
         <v>526</v>
       </c>
       <c r="D154" s="8">
@@ -7787,7 +7726,7 @@
       <c r="E154" s="8">
         <v>35</v>
       </c>
-      <c r="F154" s="16"/>
+      <c r="F154" s="9"/>
       <c r="G154" s="10">
         <f t="shared" si="2"/>
         <v>3500</v>
@@ -7795,18 +7734,18 @@
       <c r="H154" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I154" s="34" t="s">
+      <c r="I154" s="32" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="155" ht="15.6" spans="1:9">
-      <c r="A155" s="19" t="s">
+      <c r="A155" s="18" t="s">
         <v>528</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C155" s="20" t="s">
+      <c r="C155" s="19" t="s">
         <v>529</v>
       </c>
       <c r="D155" s="8">
@@ -7815,7 +7754,7 @@
       <c r="E155" s="8">
         <v>40</v>
       </c>
-      <c r="F155" s="16"/>
+      <c r="F155" s="9"/>
       <c r="G155" s="10">
         <f t="shared" si="2"/>
         <v>4000</v>
@@ -7823,18 +7762,18 @@
       <c r="H155" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I155" s="34" t="s">
+      <c r="I155" s="32" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="156" ht="15.6" spans="1:9">
-      <c r="A156" s="19" t="s">
+      <c r="A156" s="18" t="s">
         <v>531</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C156" s="20" t="s">
+      <c r="C156" s="19" t="s">
         <v>532</v>
       </c>
       <c r="D156" s="8">
@@ -7843,7 +7782,7 @@
       <c r="E156" s="8">
         <v>50</v>
       </c>
-      <c r="F156" s="16"/>
+      <c r="F156" s="9"/>
       <c r="G156" s="10">
         <f t="shared" si="2"/>
         <v>5000</v>
@@ -7851,18 +7790,18 @@
       <c r="H156" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I156" s="34" t="s">
+      <c r="I156" s="32" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="157" ht="15.6" spans="1:9">
-      <c r="A157" s="19" t="s">
+      <c r="A157" s="18" t="s">
         <v>534</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C157" s="20" t="s">
+      <c r="C157" s="19" t="s">
         <v>535</v>
       </c>
       <c r="D157" s="8">
@@ -7871,26 +7810,26 @@
       <c r="E157" s="8">
         <v>15</v>
       </c>
-      <c r="F157" s="16"/>
+      <c r="F157" s="9"/>
       <c r="G157" s="10">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="H157" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I157" s="34" t="s">
+      <c r="H157" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I157" s="32" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="158" ht="15.6" spans="1:9">
-      <c r="A158" s="21" t="s">
+      <c r="A158" s="20" t="s">
         <v>537</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C158" s="20" t="s">
+      <c r="C158" s="19" t="s">
         <v>539</v>
       </c>
       <c r="D158" s="8">
@@ -7906,21 +7845,21 @@
         <f t="shared" si="2"/>
         <v>790</v>
       </c>
-      <c r="H158" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I158" s="34" t="s">
+      <c r="H158" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158" s="32" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="159" ht="15.6" spans="1:9">
-      <c r="A159" s="21" t="s">
+      <c r="A159" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="B159" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="C159" s="20" t="s">
+      <c r="C159" s="19" t="s">
         <v>544</v>
       </c>
       <c r="D159" s="8">
@@ -7929,26 +7868,26 @@
       <c r="E159" s="8">
         <v>299</v>
       </c>
-      <c r="F159" s="16"/>
+      <c r="F159" s="9"/>
       <c r="G159" s="10">
         <f t="shared" si="2"/>
         <v>29900</v>
       </c>
-      <c r="H159" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I159" s="34" t="s">
+      <c r="H159" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="32" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="160" ht="15.6" spans="1:9">
-      <c r="A160" s="21" t="s">
+      <c r="A160" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B160" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="C160" s="20" t="s">
+      <c r="C160" s="19" t="s">
         <v>547</v>
       </c>
       <c r="D160" s="8">
@@ -7957,15 +7896,15 @@
       <c r="E160" s="8">
         <v>229</v>
       </c>
-      <c r="F160" s="16"/>
+      <c r="F160" s="9"/>
       <c r="G160" s="10">
         <f t="shared" si="2"/>
         <v>22900</v>
       </c>
-      <c r="H160" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I160" s="34" t="s">
+      <c r="H160" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="32" t="s">
         <v>548</v>
       </c>
     </row>
@@ -7985,7 +7924,7 @@
       <c r="E161" s="8">
         <v>299</v>
       </c>
-      <c r="F161" s="16"/>
+      <c r="F161" s="9"/>
       <c r="G161" s="10">
         <f t="shared" si="2"/>
         <v>29900</v>
@@ -7993,7 +7932,7 @@
       <c r="H161" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I161" s="34" t="s">
+      <c r="I161" s="32" t="s">
         <v>552</v>
       </c>
     </row>
@@ -8013,7 +7952,7 @@
       <c r="E162" s="8">
         <v>329</v>
       </c>
-      <c r="F162" s="16"/>
+      <c r="F162" s="9"/>
       <c r="G162" s="10">
         <f t="shared" si="2"/>
         <v>32900</v>
@@ -8021,18 +7960,18 @@
       <c r="H162" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I162" s="34" t="s">
+      <c r="I162" s="32" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="163" ht="15.6" spans="1:9">
-      <c r="A163" s="21" t="s">
+      <c r="A163" s="20" t="s">
         <v>556</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C163" s="20" t="s">
+      <c r="C163" s="19" t="s">
         <v>557</v>
       </c>
       <c r="D163" s="8">
@@ -8041,26 +7980,26 @@
       <c r="E163" s="8">
         <v>156</v>
       </c>
-      <c r="F163" s="16"/>
+      <c r="F163" s="9"/>
       <c r="G163" s="10">
         <f t="shared" si="2"/>
         <v>15600</v>
       </c>
-      <c r="H163" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I163" s="34" t="s">
+      <c r="H163" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="32" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="164" ht="15.6" spans="1:9">
-      <c r="A164" s="21" t="s">
+      <c r="A164" s="20" t="s">
         <v>559</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C164" s="20" t="s">
+      <c r="C164" s="19" t="s">
         <v>560</v>
       </c>
       <c r="D164" s="8">
@@ -8069,26 +8008,26 @@
       <c r="E164" s="8">
         <v>156</v>
       </c>
-      <c r="F164" s="16"/>
+      <c r="F164" s="9"/>
       <c r="G164" s="10">
         <f t="shared" si="2"/>
         <v>15600</v>
       </c>
-      <c r="H164" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I164" s="34" t="s">
+      <c r="H164" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="32" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="165" ht="15.6" spans="1:9">
-      <c r="A165" s="21" t="s">
+      <c r="A165" s="20" t="s">
         <v>562</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C165" s="20" t="s">
+      <c r="C165" s="19" t="s">
         <v>563</v>
       </c>
       <c r="D165" s="8">
@@ -8097,15 +8036,15 @@
       <c r="E165" s="8">
         <v>166</v>
       </c>
-      <c r="F165" s="16"/>
+      <c r="F165" s="9"/>
       <c r="G165" s="10">
         <f t="shared" si="2"/>
         <v>16600</v>
       </c>
-      <c r="H165" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I165" s="34" t="s">
+      <c r="H165" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I165" s="32" t="s">
         <v>564</v>
       </c>
     </row>
@@ -8125,7 +8064,7 @@
       <c r="E166" s="8">
         <v>189</v>
       </c>
-      <c r="F166" s="16"/>
+      <c r="F166" s="9"/>
       <c r="G166" s="10">
         <f t="shared" si="2"/>
         <v>18900</v>
@@ -8133,211 +8072,208 @@
       <c r="H166" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I166" s="34" t="s">
+      <c r="I166" s="32" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="167" ht="15.6" spans="1:9">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="37" t="s">
         <v>569</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="C167" s="39" t="s">
         <v>570</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="D167" s="40">
+        <v>159</v>
+      </c>
+      <c r="E167" s="40">
+        <v>99</v>
+      </c>
+      <c r="F167" s="41" t="s">
         <v>571</v>
       </c>
-      <c r="D167" s="8">
-        <v>1899</v>
-      </c>
-      <c r="E167" s="8">
-        <v>1399</v>
-      </c>
-      <c r="F167" s="16"/>
       <c r="G167" s="10">
-        <f t="shared" si="2"/>
-        <v>139900</v>
+        <v>9900</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I167" s="34" t="s">
         <v>572</v>
       </c>
+      <c r="I167" s="32" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="168" ht="15.6" spans="1:9">
-      <c r="A168" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="C168" s="7" t="s">
+      <c r="A168" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="D168" s="8">
-        <v>1299</v>
-      </c>
-      <c r="E168" s="8">
-        <v>879</v>
-      </c>
-      <c r="F168" s="16"/>
+      <c r="B168" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="C168" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="D168" s="40">
+        <v>449</v>
+      </c>
+      <c r="E168" s="40">
+        <v>299</v>
+      </c>
+      <c r="F168" s="41" t="s">
+        <v>237</v>
+      </c>
       <c r="G168" s="10">
-        <f t="shared" si="2"/>
-        <v>87900</v>
-      </c>
-      <c r="H168" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I168" s="34" t="s">
-        <v>575</v>
+        <v>29900</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="I168" s="32" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="169" ht="15.6" spans="1:9">
-      <c r="A169" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="C169" s="7" t="s">
+      <c r="A169" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="D169" s="8">
-        <v>1499</v>
-      </c>
-      <c r="E169" s="8">
-        <v>1049</v>
-      </c>
-      <c r="F169" s="16"/>
+      <c r="B169" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="C169" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="D169" s="40">
+        <v>239</v>
+      </c>
+      <c r="E169" s="40">
+        <v>129</v>
+      </c>
+      <c r="F169" s="41" t="s">
+        <v>579</v>
+      </c>
       <c r="G169" s="10">
-        <f t="shared" si="2"/>
-        <v>104900</v>
-      </c>
-      <c r="H169" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I169" s="34" t="s">
-        <v>578</v>
+        <v>12900</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="I169" s="32" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="170" ht="15.6" spans="1:9">
       <c r="A170" s="5" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D170" s="8">
-        <v>499</v>
+        <v>1899</v>
       </c>
       <c r="E170" s="8">
-        <v>499</v>
-      </c>
-      <c r="F170" s="9" t="s">
-        <v>582</v>
-      </c>
+        <v>1399</v>
+      </c>
+      <c r="F170" s="9"/>
       <c r="G170" s="10">
-        <f t="shared" si="2"/>
-        <v>49900</v>
-      </c>
-      <c r="H170" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I170" s="34" t="s">
-        <v>583</v>
+        <f>E170*100</f>
+        <v>139900</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" s="32" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="171" ht="15.6" spans="1:9">
       <c r="A171" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>586</v>
       </c>
       <c r="D171" s="8">
-        <v>699</v>
+        <v>1299</v>
       </c>
       <c r="E171" s="8">
-        <v>499</v>
-      </c>
-      <c r="F171" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="F171" s="9"/>
+      <c r="G171" s="10">
+        <f>E171*100</f>
+        <v>87900</v>
+      </c>
+      <c r="H171" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" s="32" t="s">
         <v>587</v>
-      </c>
-      <c r="G171" s="10">
-        <f t="shared" si="2"/>
-        <v>49900</v>
-      </c>
-      <c r="H171" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I171" s="34" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="172" ht="15.6" spans="1:9">
       <c r="A172" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C172" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="C172" s="7" t="s">
+      <c r="D172" s="8">
+        <v>1499</v>
+      </c>
+      <c r="E172" s="8">
+        <v>1049</v>
+      </c>
+      <c r="F172" s="9"/>
+      <c r="G172" s="10">
+        <f>E172*100</f>
+        <v>104900</v>
+      </c>
+      <c r="H172" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" s="32" t="s">
         <v>590</v>
-      </c>
-      <c r="D172" s="8">
-        <v>299</v>
-      </c>
-      <c r="E172" s="8">
-        <v>269</v>
-      </c>
-      <c r="F172" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="G172" s="10">
-        <f t="shared" si="2"/>
-        <v>26900</v>
-      </c>
-      <c r="H172" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I172" s="34" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="173" ht="15.6" spans="1:9">
       <c r="A173" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C173" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="B173" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="C173" s="7" t="s">
+      <c r="D173" s="8">
+        <v>499</v>
+      </c>
+      <c r="E173" s="8">
+        <v>499</v>
+      </c>
+      <c r="F173" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="D173" s="8">
-        <v>246</v>
-      </c>
-      <c r="E173" s="8">
-        <v>209</v>
-      </c>
-      <c r="F173" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="G173" s="10">
-        <f t="shared" si="2"/>
-        <v>20900</v>
-      </c>
-      <c r="H173" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I173" s="34" t="s">
+        <f>E173*100</f>
+        <v>49900</v>
+      </c>
+      <c r="H173" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="32" t="s">
         <v>595</v>
       </c>
     </row>
@@ -8346,151 +8282,154 @@
         <v>596</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D174" s="8">
-        <v>179</v>
+        <v>699</v>
       </c>
       <c r="E174" s="8">
-        <v>139</v>
+        <v>499</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>12</v>
+        <v>599</v>
       </c>
       <c r="G174" s="10">
-        <f t="shared" si="2"/>
-        <v>13900</v>
+        <f>E174*100</f>
+        <v>49900</v>
       </c>
       <c r="H174" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I174" s="34" t="s">
-        <v>598</v>
+      <c r="I174" s="32" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="175" ht="15.6" spans="1:9">
       <c r="A175" s="5" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D175" s="8">
-        <v>439</v>
+        <v>299</v>
       </c>
       <c r="E175" s="8">
-        <v>379</v>
+        <v>269</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>237</v>
+        <v>603</v>
       </c>
       <c r="G175" s="10">
-        <f t="shared" si="2"/>
-        <v>37900</v>
+        <f>E175*100</f>
+        <v>26900</v>
       </c>
       <c r="H175" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I175" s="34" t="s">
-        <v>601</v>
+      <c r="I175" s="32" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="176" ht="15.6" spans="1:9">
-      <c r="A176" s="41" t="s">
-        <v>602</v>
-      </c>
-      <c r="B176" s="42" t="s">
-        <v>566</v>
-      </c>
-      <c r="C176" s="43" t="s">
-        <v>603</v>
-      </c>
-      <c r="D176" s="44">
-        <v>159</v>
-      </c>
-      <c r="E176" s="44">
-        <v>99</v>
-      </c>
-      <c r="F176" s="45" t="s">
-        <v>604</v>
-      </c>
-      <c r="G176" s="46">
-        <v>9900</v>
-      </c>
-      <c r="H176" s="47" t="s">
+      <c r="A176" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="I176" s="48" t="s">
+      <c r="B176" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C176" s="7" t="s">
         <v>606</v>
       </c>
+      <c r="D176" s="8">
+        <v>246</v>
+      </c>
+      <c r="E176" s="8">
+        <v>209</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="10">
+        <f>E176*100</f>
+        <v>20900</v>
+      </c>
+      <c r="H176" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I176" s="32" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="177" ht="15.6" spans="1:9">
-      <c r="A177" s="41" t="s">
-        <v>607</v>
-      </c>
-      <c r="B177" s="42" t="s">
-        <v>566</v>
-      </c>
-      <c r="C177" s="43" t="s">
+      <c r="A177" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="D177" s="44">
-        <v>449</v>
-      </c>
-      <c r="E177" s="44">
-        <v>299</v>
-      </c>
-      <c r="F177" s="45" t="s">
+      <c r="B177" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="D177" s="8">
+        <v>179</v>
+      </c>
+      <c r="E177" s="8">
+        <v>139</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="10">
+        <f>E177*100</f>
+        <v>13900</v>
+      </c>
+      <c r="H177" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I177" s="32" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="178" ht="15.6" spans="1:9">
+      <c r="A178" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="D178" s="8">
+        <v>439</v>
+      </c>
+      <c r="E178" s="8">
+        <v>379</v>
+      </c>
+      <c r="F178" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="G177" s="46">
-        <v>29900</v>
-      </c>
-      <c r="H177" s="47" t="s">
-        <v>605</v>
-      </c>
-      <c r="I177" s="48" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="178" ht="15.6" spans="1:9">
-      <c r="A178" s="41" t="s">
-        <v>610</v>
-      </c>
-      <c r="B178" s="42" t="s">
-        <v>566</v>
-      </c>
-      <c r="C178" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="D178" s="44">
-        <v>239</v>
-      </c>
-      <c r="E178" s="44">
-        <v>129</v>
-      </c>
-      <c r="F178" s="45" t="s">
-        <v>612</v>
-      </c>
-      <c r="G178" s="46">
-        <v>12900</v>
-      </c>
-      <c r="H178" s="47" t="s">
-        <v>605</v>
-      </c>
-      <c r="I178" s="48" t="s">
+      <c r="G178" s="10">
+        <f>E178*100</f>
+        <v>37900</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I178" s="32" t="s">
         <v>613</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I175">
-    <sortCondition ref="B2:B175"/>
+  <sortState ref="A2:I178">
+    <sortCondition ref="B2"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="I133" r:id="rId1" display="https://m.media-amazon.com/images/I/61n-1Kr60BL.jpg"/>
@@ -8501,6 +8440,7 @@
     <hyperlink ref="I103" r:id="rId6" display="https://i.imghippo.com/files/Kpdo6122ks.webp" tooltip="https://i.imghippo.com/files/Kpdo6122ks.webp"/>
     <hyperlink ref="I97" r:id="rId7" display="https://ae01.alicdn.com/kf/S9dd8bc460e6c41fbab3b73d5912567efT.jpg"/>
     <hyperlink ref="I2" r:id="rId8" display="https://i.postimg.cc/pT41hXLR/acerpure.jpg" tooltip="https://i.postimg.cc/pT41hXLR/acerpure.jpg"/>
+    <hyperlink ref="I36" r:id="rId9" display="https://i.postimg.cc/3JrxhjSq/cor.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
